--- a/Información Libros Biblioteca.xlsx
+++ b/Información Libros Biblioteca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\4º Semestre Enero-Junio\Fundamentos de Bases de Datos\Biblioteca-InformaciónLibrosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498C1F4C-7648-4F25-BA3E-B486252D6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CCE2F2-C95C-47D4-B814-71E2A5068CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FCB9792A-3A95-430D-A81C-CA65B8EAE856}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FCB9792A-3A95-430D-A81C-CA65B8EAE856}"/>
   </bookViews>
   <sheets>
     <sheet name="Libros" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="334">
   <si>
     <t>Nombre del libro</t>
   </si>
@@ -449,9 +449,6 @@
     <t xml:space="preserve">DICCIONARIO AMBIENTAL Y ASIGNATURAS </t>
   </si>
   <si>
-    <t>0-100</t>
-  </si>
-  <si>
     <t>FRANCISCO JAVIER GALVÁN MERAZ</t>
   </si>
   <si>
@@ -627,6 +624,438 @@
   </si>
   <si>
     <t>028.9D44</t>
+  </si>
+  <si>
+    <t>004.019D47</t>
+  </si>
+  <si>
+    <t>LA REVOLUCIÓN INCOMPLETA</t>
+  </si>
+  <si>
+    <t>MICHAEL DESTOUZOS</t>
+  </si>
+  <si>
+    <t>LA CIBERNÉTICA</t>
+  </si>
+  <si>
+    <t>CARLOS CHIMAL</t>
+  </si>
+  <si>
+    <t>001.53CH55</t>
+  </si>
+  <si>
+    <t>TERCER MILENIO</t>
+  </si>
+  <si>
+    <t>069W46</t>
+  </si>
+  <si>
+    <t>LOS MUSEOS</t>
+  </si>
+  <si>
+    <t>RODRIGO WITKER</t>
+  </si>
+  <si>
+    <t>069.097253A62</t>
+  </si>
+  <si>
+    <t>EL VISO</t>
+  </si>
+  <si>
+    <t>A PAPALOTEAR: 20 AÑOS DE PAPALOTE MUSEO DEL NIÑO</t>
+  </si>
+  <si>
+    <t>EL LIBRO DE TODOS: 52 AÑOS, 52 ENTREVISTAS</t>
+  </si>
+  <si>
+    <t>JUAN SALVADOR OROZCO</t>
+  </si>
+  <si>
+    <t>070.44937132O76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMISION NACIONAL DE LIBROS </t>
+  </si>
+  <si>
+    <t>070.435A325</t>
+  </si>
+  <si>
+    <t>LAS AGENCIAS DE NOTICIAS EN LA ERA DIGITAL</t>
+  </si>
+  <si>
+    <t>LIGERAMENTE MALTRATADO EN LAS PUNTAS Y MANCHADO EN LA PORTADA</t>
+  </si>
+  <si>
+    <t>BIBLIOTECA MEXICANA DEL CONOCIMIENTO</t>
+  </si>
+  <si>
+    <t>EN EL UMBRAL DEL MILENIO</t>
+  </si>
+  <si>
+    <t>FERNANDO DÍEZ DE URDANIVA</t>
+  </si>
+  <si>
+    <t>LECTURAS MEXICANAS</t>
+  </si>
+  <si>
+    <t>70.449D53</t>
+  </si>
+  <si>
+    <t>LAS APORÍAS FUNDAMENTALES DEL PERIODO NOVOHISPANO</t>
+  </si>
+  <si>
+    <t>VIRGINIA ASPE ARMELLA</t>
+  </si>
+  <si>
+    <t>121.63A86</t>
+  </si>
+  <si>
+    <t>PAUL RICOEUR</t>
+  </si>
+  <si>
+    <t>121.686R52</t>
+  </si>
+  <si>
+    <t>DEL TEXTO A LA EDICIÓN: ENSAYOS DE LA HERMENÉUTICA II</t>
+  </si>
+  <si>
+    <t>LA MEMORIA, LA HISTORIA DEL OLVIDO</t>
+  </si>
+  <si>
+    <t>128.3R53</t>
+  </si>
+  <si>
+    <t>0-99</t>
+  </si>
+  <si>
+    <t>100-199</t>
+  </si>
+  <si>
+    <t>144H86</t>
+  </si>
+  <si>
+    <t>HUMANISTAS MEXICANOS DEL SIGLO XVI</t>
+  </si>
+  <si>
+    <t>UNAM</t>
+  </si>
+  <si>
+    <t>GRABIEL MÉNDEZ PLANCARTE</t>
+  </si>
+  <si>
+    <t>150.195A48</t>
+  </si>
+  <si>
+    <t>EL PSICOANÁLISIS</t>
+  </si>
+  <si>
+    <t>GIUSEPPE AMARA</t>
+  </si>
+  <si>
+    <t>150B88</t>
+  </si>
+  <si>
+    <t>UNA BREVÍSIMA INTRODUCCIÓN  A LA PSICOLOGÍA</t>
+  </si>
+  <si>
+    <t>GUILLIAN BUTLER/FREDA MCMANUS</t>
+  </si>
+  <si>
+    <t>LA IMAGINACIÓN Y EL ARTE EN LA INFANCIA</t>
+  </si>
+  <si>
+    <t>LEV S. VIGOTSKY</t>
+  </si>
+  <si>
+    <t>COYOACÁN</t>
+  </si>
+  <si>
+    <t>153.35V53</t>
+  </si>
+  <si>
+    <t>NIÑO O NIÑA: LAS DIFERENCIAS SEXUALES</t>
+  </si>
+  <si>
+    <t>CAL Y ARENA</t>
+  </si>
+  <si>
+    <t>LUIS GONZÁLEZ DE ALBA</t>
+  </si>
+  <si>
+    <t>155.33G65</t>
+  </si>
+  <si>
+    <t>TODO PARECÍA ESTAR BIEN</t>
+  </si>
+  <si>
+    <t>155.643C54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELENA CLIMENT/ </t>
+  </si>
+  <si>
+    <t>FILOSOFÍA Y PSICOLOGÍA</t>
+  </si>
+  <si>
+    <t>OSVALDO GUARIGLIA</t>
+  </si>
+  <si>
+    <t>170G744</t>
+  </si>
+  <si>
+    <t>UNA ÉTICA PARA EL SIGLO XXI: ÉTICA Y DERECHOS HUMANOS EN UN TIEMPO POSMETAFÍSICO</t>
+  </si>
+  <si>
+    <t>LA AGENDA ÉTICA PENDIENTE DE AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t>BERNARDO KLIKSBERG (COMPILADOR)</t>
+  </si>
+  <si>
+    <t>172A33</t>
+  </si>
+  <si>
+    <t>174.24K72</t>
+  </si>
+  <si>
+    <t>LA EUTANASIA</t>
+  </si>
+  <si>
+    <t>ANOLDO KRAUS Y ASUNCIÓN ÁLVAREZ</t>
+  </si>
+  <si>
+    <t>DIALOGOS</t>
+  </si>
+  <si>
+    <t>184P474</t>
+  </si>
+  <si>
+    <t>PLATON</t>
+  </si>
+  <si>
+    <t>PORRÚA</t>
+  </si>
+  <si>
+    <t>TRIGESIMA EDICIÓN</t>
+  </si>
+  <si>
+    <t>182.2V33</t>
+  </si>
+  <si>
+    <t>PITÁGORAS</t>
+  </si>
+  <si>
+    <t>JOSÉ VASCONCELOS</t>
+  </si>
+  <si>
+    <t>SUMMA MEXICANA</t>
+  </si>
+  <si>
+    <t>PEQUEÑO PANTEÓN PORTÁTIL</t>
+  </si>
+  <si>
+    <t>ALAIN BADIOU</t>
+  </si>
+  <si>
+    <t>194B355</t>
+  </si>
+  <si>
+    <t>194D476</t>
+  </si>
+  <si>
+    <t>Y MAÑANA, QUE…</t>
+  </si>
+  <si>
+    <t>JACQUES DERRIDA, ÉLISABETH ROUDINESCO</t>
+  </si>
+  <si>
+    <t>194F65</t>
+  </si>
+  <si>
+    <t>LOS ANORMALES</t>
+  </si>
+  <si>
+    <t>MICHAEL FOUCAULT</t>
+  </si>
+  <si>
+    <t>199.72F57</t>
+  </si>
+  <si>
+    <t>FOLÓSOFOS MEXICANOS DEL SIGLO XVIII</t>
+  </si>
+  <si>
+    <t>MAURICIO BEUCHOT</t>
+  </si>
+  <si>
+    <t>RELIGIONES</t>
+  </si>
+  <si>
+    <t>200-299</t>
+  </si>
+  <si>
+    <t>200.19C73</t>
+  </si>
+  <si>
+    <t>LA CREENCIA Y EL PSICOANÁLISIS</t>
+  </si>
+  <si>
+    <t>DIANA CHORNE Y MARIO GOLDENBERG (COMPILADORES)</t>
+  </si>
+  <si>
+    <t>255.1B68</t>
+  </si>
+  <si>
+    <t>LA VIDA EN UN MONASTERIO MEDIEVAL</t>
+  </si>
+  <si>
+    <t>AKAL</t>
+  </si>
+  <si>
+    <t>ANEE BOYD</t>
+  </si>
+  <si>
+    <t>271.407237B37</t>
+  </si>
+  <si>
+    <t>LOS AGUSTINOS, AQUELLOS MISIONEROS HACENDADOS</t>
+  </si>
+  <si>
+    <t>DIEGO DE BASALENQUE</t>
+  </si>
+  <si>
+    <t>291.13C35</t>
+  </si>
+  <si>
+    <t>EL HÉROE DE LAS MIL CARAS : PSICOANÁLISIS DEL MITO</t>
+  </si>
+  <si>
+    <t>JOSEPH CAMPHELL</t>
+  </si>
+  <si>
+    <t>292.177V47</t>
+  </si>
+  <si>
+    <t>ATRAVESAR FRONTERAS: ENTRE MITO Y POLÍTICA II</t>
+  </si>
+  <si>
+    <t>JEAN-PIERRE VERNANT</t>
+  </si>
+  <si>
+    <t>294.59212V42</t>
+  </si>
+  <si>
+    <t>RIG VEDA</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL DE MORA</t>
+  </si>
+  <si>
+    <t>CIEN DEL MUNDO</t>
+  </si>
+  <si>
+    <t>296.162Z63</t>
+  </si>
+  <si>
+    <t>ZOHAR: LIBRO DEL ESPLENDOR</t>
+  </si>
+  <si>
+    <t>ESTHER COHEN</t>
+  </si>
+  <si>
+    <t>299.792M425</t>
+  </si>
+  <si>
+    <t>HISTORIA ECLESIÁSTICA INDIANA II</t>
+  </si>
+  <si>
+    <t>FRAY GERÓNIMO DE MENDIETA</t>
+  </si>
+  <si>
+    <t>CIEN DE MÉXICO</t>
+  </si>
+  <si>
+    <t>299.79281P651</t>
+  </si>
+  <si>
+    <t>POPOL VUH: LAS ANTIGUAS HISTORIAS DEL QUICHÉ</t>
+  </si>
+  <si>
+    <t>ADRIÁN RECINOS</t>
+  </si>
+  <si>
+    <t>TRIGESIMA TERCERA EDICIÓN</t>
+  </si>
+  <si>
+    <t>CIENCIAS SOCIALES</t>
+  </si>
+  <si>
+    <t>300.18P38</t>
+  </si>
+  <si>
+    <t>METODOLOGÍA Y TÉCNICAS DE INVESTIACIÓN EN CIENCIAS SOCIALES</t>
+  </si>
+  <si>
+    <t>FELIPE PARDINAS</t>
+  </si>
+  <si>
+    <t>TRIGESIMO NOVENA EDICIÓN</t>
+  </si>
+  <si>
+    <t>300-399</t>
+  </si>
+  <si>
+    <t>303.483S23</t>
+  </si>
+  <si>
+    <t>JORNADAS 101</t>
+  </si>
+  <si>
+    <t>EL COLEGIO DE MEXICO</t>
+  </si>
+  <si>
+    <t>FRANSCISCO R.SAGASTI</t>
+  </si>
+  <si>
+    <t>301.0972H63</t>
+  </si>
+  <si>
+    <t>HACIA DONDE VA LA CIENCIA EN MÉXICO: HISTORIA, LINGÜÍSTICA Y ANTROPOLOGÍA</t>
+  </si>
+  <si>
+    <t>M.I. MONROY  (COORDINADORA)</t>
+  </si>
+  <si>
+    <t>ACADEMIA MEXICANA DE CIENCIAS</t>
+  </si>
+  <si>
+    <t>HACIA DONDE VA LA CIENCIA EN MÉXICO: ÉTICA, FILOSOFÍA Y CIENCIAS SOCIALES</t>
+  </si>
+  <si>
+    <t>F. VALDÉS (COORDINADORA)</t>
+  </si>
+  <si>
+    <t>301.0972E_85</t>
+  </si>
+  <si>
+    <t>HACIA DONDE VA LA CIENCIA EN MÉXICO:HUMANIDADES Y CIENCIAS SOCIALES</t>
+  </si>
+  <si>
+    <t>S.LOAEZA Y A. MAYER (COORDINADORA)</t>
+  </si>
+  <si>
+    <t>301.0972H85</t>
+  </si>
+  <si>
+    <t>303.483C658</t>
+  </si>
+  <si>
+    <t>HACIA DONDE VA LA CIENCIA EN MÉXICO: COMUNICACIÓN PÚBLICA DE LA CIENCIA II. EL OFICIO</t>
+  </si>
+  <si>
+    <t>E.REYNOSO (COORDINADOR)</t>
+  </si>
+  <si>
+    <t>UN POCO MALTRATADO EN LA PORTADA</t>
   </si>
 </sst>
 </file>
@@ -1022,12 +1451,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6CA0C-E573-4DC5-953F-A75EAD0EA7AD}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1464,7 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="38.140625" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
@@ -1043,7 +1472,7 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="60.140625" customWidth="1"/>
+    <col min="13" max="13" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3022,7 +3451,7 @@
         <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
@@ -3034,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H49">
         <v>304</v>
@@ -3057,13 +3486,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
         <v>69</v>
@@ -3075,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H50">
         <v>155</v>
@@ -3098,13 +3527,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
         <v>137</v>
-      </c>
-      <c r="C51" t="s">
-        <v>138</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -3116,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H51">
         <v>189</v>
@@ -3139,13 +3568,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
         <v>141</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>142</v>
-      </c>
-      <c r="C52" t="s">
-        <v>143</v>
       </c>
       <c r="D52" t="s">
         <v>69</v>
@@ -3157,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H52">
         <v>295</v>
@@ -3180,13 +3609,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s">
         <v>144</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>145</v>
-      </c>
-      <c r="C53" t="s">
-        <v>146</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -3198,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H53">
         <v>567</v>
@@ -3221,13 +3650,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -3239,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H54">
         <v>347</v>
@@ -3257,18 +3686,18 @@
         <v>58</v>
       </c>
       <c r="M54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
@@ -3280,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H55">
         <v>529</v>
@@ -3303,13 +3732,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
         <v>153</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>155</v>
       </c>
       <c r="D56" t="s">
         <v>69</v>
@@ -3321,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H56">
         <v>226</v>
@@ -3344,31 +3773,31 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
         <v>158</v>
       </c>
-      <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>159</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>160</v>
-      </c>
-      <c r="E57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>161</v>
       </c>
       <c r="H57">
         <v>379</v>
       </c>
       <c r="I57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J57">
         <v>2006</v>
@@ -3377,33 +3806,33 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="B58" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
         <v>165</v>
-      </c>
-      <c r="D58" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>166</v>
       </c>
       <c r="H58">
         <v>451</v>
@@ -3418,33 +3847,33 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
         <v>167</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>168</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>169</v>
-      </c>
-      <c r="D59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>170</v>
       </c>
       <c r="H59">
         <v>406</v>
@@ -3459,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M59" t="s">
         <v>64</v>
@@ -3467,25 +3896,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
         <v>173</v>
       </c>
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>175</v>
       </c>
       <c r="H60">
         <v>48</v>
@@ -3500,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M60" t="s">
         <v>64</v>
@@ -3508,31 +3937,31 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
         <v>177</v>
       </c>
-      <c r="B61" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
         <v>178</v>
-      </c>
-      <c r="D61" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>179</v>
       </c>
       <c r="H61">
         <v>169</v>
       </c>
       <c r="I61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J61">
         <v>1993</v>
@@ -3541,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M61" t="s">
         <v>64</v>
@@ -3549,25 +3978,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
         <v>182</v>
       </c>
-      <c r="B62" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
         <v>183</v>
-      </c>
-      <c r="D62" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>184</v>
       </c>
       <c r="H62">
         <v>69</v>
@@ -3582,30 +4011,33 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
         <v>187</v>
-      </c>
-      <c r="B63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63" t="s">
-        <v>188</v>
       </c>
       <c r="H63">
         <v>234</v>
@@ -3620,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M63" t="s">
         <v>64</v>
@@ -3628,19 +4060,22 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
         <v>91</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
@@ -3658,10 +4093,2731 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="M64" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>187</v>
+      </c>
+      <c r="H65">
+        <v>220</v>
+      </c>
+      <c r="I65" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65">
+        <v>2003</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>223</v>
+      </c>
+      <c r="M65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+      <c r="H66">
+        <v>63</v>
+      </c>
+      <c r="I66" t="s">
+        <v>53</v>
+      </c>
+      <c r="J66">
+        <v>1999</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>223</v>
+      </c>
+      <c r="M66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67">
+        <v>63</v>
+      </c>
+      <c r="I67" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67">
+        <v>2001</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>223</v>
+      </c>
+      <c r="M67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>201</v>
+      </c>
+      <c r="H68">
+        <v>146</v>
+      </c>
+      <c r="I68" t="s">
+        <v>53</v>
+      </c>
+      <c r="J68">
+        <v>2000</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>223</v>
+      </c>
+      <c r="M68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69">
+        <v>293</v>
+      </c>
+      <c r="I69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J69">
+        <v>2011</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>223</v>
+      </c>
+      <c r="M69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70">
+        <v>185</v>
+      </c>
+      <c r="I70" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70">
+        <v>2015</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>223</v>
+      </c>
+      <c r="M70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H71">
+        <v>478</v>
+      </c>
+      <c r="I71" t="s">
+        <v>53</v>
+      </c>
+      <c r="J71">
+        <v>2000</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>223</v>
+      </c>
+      <c r="M71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72">
+        <v>140</v>
+      </c>
+      <c r="I72" t="s">
+        <v>53</v>
+      </c>
+      <c r="J72">
+        <v>2002</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>224</v>
+      </c>
+      <c r="M72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>187</v>
+      </c>
+      <c r="H73">
+        <v>376</v>
+      </c>
+      <c r="I73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73">
+        <v>2000</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>224</v>
+      </c>
+      <c r="M73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>187</v>
+      </c>
+      <c r="H74">
+        <v>670</v>
+      </c>
+      <c r="I74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J74">
+        <v>2004</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>224</v>
+      </c>
+      <c r="M74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>227</v>
+      </c>
+      <c r="H75">
+        <v>165</v>
+      </c>
+      <c r="I75" t="s">
+        <v>50</v>
+      </c>
+      <c r="J75">
+        <v>1944</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>224</v>
+      </c>
+      <c r="M75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76">
+        <v>63</v>
+      </c>
+      <c r="I76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J76">
+        <v>1998</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>224</v>
+      </c>
+      <c r="M76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H77">
+        <v>221</v>
+      </c>
+      <c r="I77" t="s">
+        <v>53</v>
+      </c>
+      <c r="J77">
+        <v>1998</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>224</v>
+      </c>
+      <c r="M77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>237</v>
+      </c>
+      <c r="H78">
+        <v>109</v>
+      </c>
+      <c r="I78" t="s">
+        <v>53</v>
+      </c>
+      <c r="J78">
+        <v>2001</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>224</v>
+      </c>
+      <c r="M78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>240</v>
+      </c>
+      <c r="H79">
+        <v>176</v>
+      </c>
+      <c r="I79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79">
+        <v>2006</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>224</v>
+      </c>
+      <c r="M79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" t="s">
+        <v>246</v>
+      </c>
+      <c r="E80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>256</v>
+      </c>
+      <c r="I80" t="s">
+        <v>53</v>
+      </c>
+      <c r="J80">
+        <v>2016</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>224</v>
+      </c>
+      <c r="M80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81">
+        <v>159</v>
+      </c>
+      <c r="I81" t="s">
+        <v>53</v>
+      </c>
+      <c r="J81">
+        <v>2002</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>224</v>
+      </c>
+      <c r="M81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>187</v>
+      </c>
+      <c r="H82">
+        <v>365</v>
+      </c>
+      <c r="I82" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82">
+        <v>2005</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>224</v>
+      </c>
+      <c r="M82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83">
+        <v>63</v>
+      </c>
+      <c r="I83" t="s">
+        <v>53</v>
+      </c>
+      <c r="J83">
+        <v>1998</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>224</v>
+      </c>
+      <c r="M83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>259</v>
+      </c>
+      <c r="H84">
+        <v>457</v>
+      </c>
+      <c r="I84" t="s">
+        <v>260</v>
+      </c>
+      <c r="J84">
+        <v>2007</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>224</v>
+      </c>
+      <c r="M84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>264</v>
+      </c>
+      <c r="H85">
+        <v>129</v>
+      </c>
+      <c r="I85" t="s">
+        <v>53</v>
+      </c>
+      <c r="J85">
+        <v>2011</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>224</v>
+      </c>
+      <c r="M85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>187</v>
+      </c>
+      <c r="H86">
+        <v>174</v>
+      </c>
+      <c r="I86" t="s">
+        <v>53</v>
+      </c>
+      <c r="J86">
+        <v>2009</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>224</v>
+      </c>
+      <c r="M86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>187</v>
+      </c>
+      <c r="H87">
+        <v>213</v>
+      </c>
+      <c r="I87" t="s">
+        <v>50</v>
+      </c>
+      <c r="J87">
+        <v>2009</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>224</v>
+      </c>
+      <c r="M87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" t="s">
+        <v>246</v>
+      </c>
+      <c r="E88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>187</v>
+      </c>
+      <c r="H88">
+        <v>350</v>
+      </c>
+      <c r="I88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J88">
+        <v>2000</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>224</v>
+      </c>
+      <c r="M88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" t="s">
+        <v>276</v>
+      </c>
+      <c r="D89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>227</v>
+      </c>
+      <c r="H89">
+        <v>207</v>
+      </c>
+      <c r="I89" t="s">
+        <v>53</v>
+      </c>
+      <c r="J89">
+        <v>1995</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>224</v>
+      </c>
+      <c r="M89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>279</v>
+      </c>
+      <c r="B90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" t="s">
+        <v>277</v>
+      </c>
+      <c r="E90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>187</v>
+      </c>
+      <c r="H90">
+        <v>193</v>
+      </c>
+      <c r="I90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J90">
+        <v>2006</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>278</v>
+      </c>
+      <c r="M90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" t="s">
+        <v>277</v>
+      </c>
+      <c r="E91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>284</v>
+      </c>
+      <c r="H91">
+        <v>48</v>
+      </c>
+      <c r="I91" t="s">
+        <v>53</v>
+      </c>
+      <c r="J91">
+        <v>2000</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>278</v>
+      </c>
+      <c r="M91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92">
+        <v>277</v>
+      </c>
+      <c r="I92" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92">
+        <v>1998</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>278</v>
+      </c>
+      <c r="M92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B93" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>187</v>
+      </c>
+      <c r="H93">
+        <v>372</v>
+      </c>
+      <c r="I93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J93">
+        <v>1959</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>278</v>
+      </c>
+      <c r="M93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" t="s">
+        <v>294</v>
+      </c>
+      <c r="D94" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>187</v>
+      </c>
+      <c r="H94">
+        <v>194</v>
+      </c>
+      <c r="I94" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94">
+        <v>2008</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>278</v>
+      </c>
+      <c r="M94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>298</v>
+      </c>
+      <c r="H95">
+        <v>310</v>
+      </c>
+      <c r="I95" t="s">
+        <v>50</v>
+      </c>
+      <c r="J95">
+        <v>2010</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>278</v>
+      </c>
+      <c r="M95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B96" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>298</v>
+      </c>
+      <c r="H96">
+        <v>189</v>
+      </c>
+      <c r="I96" t="s">
+        <v>179</v>
+      </c>
+      <c r="J96">
+        <v>2010</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>278</v>
+      </c>
+      <c r="M96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>305</v>
+      </c>
+      <c r="H97">
+        <v>522</v>
+      </c>
+      <c r="I97" t="s">
+        <v>53</v>
+      </c>
+      <c r="J97">
+        <v>2002</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>278</v>
+      </c>
+      <c r="M97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" t="s">
+        <v>308</v>
+      </c>
+      <c r="D98" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>187</v>
+      </c>
+      <c r="H98">
+        <v>185</v>
+      </c>
+      <c r="I98" t="s">
+        <v>309</v>
+      </c>
+      <c r="J98">
+        <v>2008</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>278</v>
+      </c>
+      <c r="M98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" t="s">
+        <v>313</v>
+      </c>
+      <c r="D99" t="s">
+        <v>310</v>
+      </c>
+      <c r="E99" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99">
+        <v>242</v>
+      </c>
+      <c r="I99" t="s">
+        <v>314</v>
+      </c>
+      <c r="J99">
+        <v>2008</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>315</v>
+      </c>
+      <c r="M99" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>323</v>
+      </c>
+      <c r="H100">
+        <v>153</v>
+      </c>
+      <c r="I100" t="s">
+        <v>53</v>
+      </c>
+      <c r="J100">
+        <v>2014</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>315</v>
+      </c>
+      <c r="M100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H101">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s">
+        <v>53</v>
+      </c>
+      <c r="J101">
+        <v>2015</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>315</v>
+      </c>
+      <c r="M101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E102" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>323</v>
+      </c>
+      <c r="H102">
+        <v>179</v>
+      </c>
+      <c r="I102" t="s">
+        <v>53</v>
+      </c>
+      <c r="J102">
+        <v>2015</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>315</v>
+      </c>
+      <c r="M102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B103" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>323</v>
+      </c>
+      <c r="H103">
+        <v>207</v>
+      </c>
+      <c r="I103" t="s">
+        <v>53</v>
+      </c>
+      <c r="J103">
+        <v>2015</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>315</v>
+      </c>
+      <c r="M103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B104" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>318</v>
+      </c>
+      <c r="H104">
+        <v>221</v>
+      </c>
+      <c r="I104" t="s">
+        <v>53</v>
+      </c>
+      <c r="J104">
+        <v>1983</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>315</v>
+      </c>
+      <c r="M104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" t="s">
+        <v>91</v>
+      </c>
+      <c r="L105" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>310</v>
+      </c>
+      <c r="E107" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>310</v>
+      </c>
+      <c r="E108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>310</v>
+      </c>
+      <c r="E109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>310</v>
+      </c>
+      <c r="E110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>310</v>
+      </c>
+      <c r="E112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>310</v>
+      </c>
+      <c r="E113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>310</v>
+      </c>
+      <c r="E114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>310</v>
+      </c>
+      <c r="E115" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>310</v>
+      </c>
+      <c r="E116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>310</v>
+      </c>
+      <c r="E117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>310</v>
+      </c>
+      <c r="E118" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E119" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>310</v>
+      </c>
+      <c r="E120" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Información Libros Biblioteca.xlsx
+++ b/Información Libros Biblioteca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\4º Semestre Enero-Junio\Fundamentos de Bases de Datos\Biblioteca-InformaciónLibrosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CCE2F2-C95C-47D4-B814-71E2A5068CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11998421-4938-4DC5-B131-73A8933A3153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FCB9792A-3A95-430D-A81C-CA65B8EAE856}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="490">
   <si>
     <t>Nombre del libro</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>HUMBERTO MUSACCHIO</t>
-  </si>
-  <si>
-    <t>SALA GENERAL</t>
   </si>
   <si>
     <t>RAYA EN EL AGUA</t>
@@ -506,9 +503,6 @@
     <t>SEP</t>
   </si>
   <si>
-    <t>MEXICO 2010 ¿QUÉ ES LO QUE MÁS TE ENORGULLECE DE TU MUNICIPIO?</t>
-  </si>
-  <si>
     <t>917.2003Q46</t>
   </si>
   <si>
@@ -1010,9 +1004,6 @@
     <t>JORNADAS 101</t>
   </si>
   <si>
-    <t>EL COLEGIO DE MEXICO</t>
-  </si>
-  <si>
     <t>FRANSCISCO R.SAGASTI</t>
   </si>
   <si>
@@ -1056,6 +1047,483 @@
   </si>
   <si>
     <t>UN POCO MALTRATADO EN LA PORTADA</t>
+  </si>
+  <si>
+    <t>304.60972R32</t>
+  </si>
+  <si>
+    <t>LA POBLACIÓN</t>
+  </si>
+  <si>
+    <t>CECILIA RABELL ROMERO</t>
+  </si>
+  <si>
+    <t>NOSTRA</t>
+  </si>
+  <si>
+    <t>305.235M85</t>
+  </si>
+  <si>
+    <t>HORIZONTALES Y VERTICALES</t>
+  </si>
+  <si>
+    <t>LEÓN MUÑOZ SANTINI</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>305.3B33</t>
+  </si>
+  <si>
+    <t>HOMBRES/MUJERES COMO SALIR DEL CAMINO EQUIVOCADO</t>
+  </si>
+  <si>
+    <t>ÉLISABETH BADINTER</t>
+  </si>
+  <si>
+    <t>305.42P463</t>
+  </si>
+  <si>
+    <t>MI HISTORIA DE LAS MUJERES</t>
+  </si>
+  <si>
+    <t>MICHELLE PERROT</t>
+  </si>
+  <si>
+    <t>LA MISERIA DEL MUNDO</t>
+  </si>
+  <si>
+    <t>305.56M57</t>
+  </si>
+  <si>
+    <t>PIERRE BOURDIEU</t>
+  </si>
+  <si>
+    <t>305.5633C35</t>
+  </si>
+  <si>
+    <t>EL CAMPESINADO EN MÉXICO: DOS PERSPECTICAS DE ANÁLISIS</t>
+  </si>
+  <si>
+    <t>COLEGIO DE MÉXICO</t>
+  </si>
+  <si>
+    <t>K.APPENDINI, M. PEPIN-LEHALLEUR, T-RENDÓN, V. SALLES</t>
+  </si>
+  <si>
+    <t>MARIA PÉREZ DE SARMIENTO, FRANCO SAVARINO ROGGERO</t>
+  </si>
+  <si>
+    <t>305.52P47</t>
+  </si>
+  <si>
+    <t>REGIONES</t>
+  </si>
+  <si>
+    <t>EL CULTIVO DE LAS ÉLITES. GRUPOS ECONÓMICOS Y POLÍTICOS EN YUCATÁN EN LOS SIGLOS XIX Y XX</t>
+  </si>
+  <si>
+    <t>… Y VENIMOS A CONTRADECIR. LOS CAMPESINOS DE MORELOS Y EL ESTADO NACIONAL</t>
+  </si>
+  <si>
+    <t>ARTURO WARMAN</t>
+  </si>
+  <si>
+    <t>305.56W38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALTRATADO: EN LA PORTADA Y CUBRIMIENTO DEL LIBRO. ADEMÁS DE LAS PRIMERAS PAGINAS Y EL SOPORTE DE LAS MISMAS. TAMBIEN EL TICKET DE CODIGO. </t>
+  </si>
+  <si>
+    <t>305.8D47</t>
+  </si>
+  <si>
+    <t>COMO SER AUTÓCTONO: DEL PURO ATENIENSE AL FRANCÉS DE RAIGAMBRE</t>
+  </si>
+  <si>
+    <t>MARCEL DETIENNE</t>
+  </si>
+  <si>
+    <t>305.90816M64</t>
+  </si>
+  <si>
+    <t>TODOS SIGNIFICA TODOS: INCLUSIÓN DE NIÑÑOS CON DISCAPACIDAD EN ACTIVIDADES DE ARTE Y CULTURA</t>
+  </si>
+  <si>
+    <t>ALICIA MOLINA ARGUDÍN</t>
+  </si>
+  <si>
+    <t>TEORÍA DE LA CULTURA: UN MAPA DE LA CUESTIÓN</t>
+  </si>
+  <si>
+    <t>GERHART SCHRÖDER Y HERGA BREUNINGER (COMPILADORES)</t>
+  </si>
+  <si>
+    <t>306T38</t>
+  </si>
+  <si>
+    <t>LA FORMACIÓN GEOGRÁFICA DE MÉXICO</t>
+  </si>
+  <si>
+    <t>CARLOS HERREJÓN PEREDO (COORDINADOR)</t>
+  </si>
+  <si>
+    <t>306.08972P35_2</t>
+  </si>
+  <si>
+    <t>306.08972P35_1</t>
+  </si>
+  <si>
+    <t>306.08972P35_3</t>
+  </si>
+  <si>
+    <t>306.08972P35_4</t>
+  </si>
+  <si>
+    <t>306.08972P35_5</t>
+  </si>
+  <si>
+    <t>306.08972P35_6</t>
+  </si>
+  <si>
+    <t>LA IDEA DE NUESTRO PATRIMONIO HISTÓRICO Y CULTURAL</t>
+  </si>
+  <si>
+    <t>PABLO ESCALANTE GONZALBO (COORDINADOR)</t>
+  </si>
+  <si>
+    <t>LA ANTROPOLOGÍA Y EL PATRIMONIO CULTURAL DE MÉXICO</t>
+  </si>
+  <si>
+    <t>GULLERMO DE LA PEÑA ( COORDINADOR)</t>
+  </si>
+  <si>
+    <t>LA MÚSICA EN LOS SIGLOS XIX Y XX</t>
+  </si>
+  <si>
+    <t>RICARDO MIRANDA Y AURELIO TELLO (COORDINADORES)</t>
+  </si>
+  <si>
+    <t>LA LITERATURA EN LOS SIGLOS XIX Y XX</t>
+  </si>
+  <si>
+    <t>ANTONIO S., IGNACIO M., SANCHEZ P. , JORGE O. (COORDINADORES)</t>
+  </si>
+  <si>
+    <t>LAS ARTES PLÁSTICAS Y VISUALES EN LOS SIGLOS XIX Y XX</t>
+  </si>
+  <si>
+    <t>LUZ MARÍA SEPÚLVEDA (COORDINADORA)</t>
+  </si>
+  <si>
+    <t>306.7M82</t>
+  </si>
+  <si>
+    <t>EL ORGASMO Y OCCIDENTE</t>
+  </si>
+  <si>
+    <t>ROBERT MUCHEMBLED</t>
+  </si>
+  <si>
+    <t>306.08C65</t>
+  </si>
+  <si>
+    <t>COMPARTIR EL PATRIMONIO CULTURAL INMATERIAL: NARRATIVAS Y REPRESENTACIONES</t>
+  </si>
+  <si>
+    <t>LOURDES ARIZPE (COORDINADORA)</t>
+  </si>
+  <si>
+    <t>306.80972V52</t>
+  </si>
+  <si>
+    <t>VIDA FAMILIAR Y CULTURAL CONTEMPORÁNEA</t>
+  </si>
+  <si>
+    <t>JOSÉ MANUEL VALENZUELA Y VANIA SALLES (COORDINADORES)</t>
+  </si>
+  <si>
+    <t>CIUDADES MEXICANAS. DESAFÍOS EN CONCIERTO</t>
+  </si>
+  <si>
+    <t>307.760972C585</t>
+  </si>
+  <si>
+    <t>ENRIQUE CABRERO MENDOZA (COORDINADOR)</t>
+  </si>
+  <si>
+    <t>306.85J442</t>
+  </si>
+  <si>
+    <t>PAN Y AFECTOS. LA TRANSFORMACIÓN DE LAS FAMILIAS</t>
+  </si>
+  <si>
+    <t>ELIZABETH JELIN</t>
+  </si>
+  <si>
+    <t>320.01F68</t>
+  </si>
+  <si>
+    <t>SEGURIDAD, TERRITORIO, POBLACIÓN.</t>
+  </si>
+  <si>
+    <t>EN BUSCA DE LA POLITICA</t>
+  </si>
+  <si>
+    <t>320.1B38</t>
+  </si>
+  <si>
+    <t>ZYGMUNT BAUMAN</t>
+  </si>
+  <si>
+    <t>EL ESTADO</t>
+  </si>
+  <si>
+    <t>JOSÉ ANTONIO CRESPO</t>
+  </si>
+  <si>
+    <t>320.1C73</t>
+  </si>
+  <si>
+    <t>320.1H64</t>
+  </si>
+  <si>
+    <t>EL PROYECTO  POLÍTICO DE LA MODERNIDAD</t>
+  </si>
+  <si>
+    <t>OTFRIED HÖFFE</t>
+  </si>
+  <si>
+    <t>EL LIBERALISMO</t>
+  </si>
+  <si>
+    <t>320.51C87</t>
+  </si>
+  <si>
+    <t>LEONARDO CURZIO</t>
+  </si>
+  <si>
+    <t>320.54B374</t>
+  </si>
+  <si>
+    <t>EL NACIONALISMO</t>
+  </si>
+  <si>
+    <t>AGUSTÍN BASSAVE B.</t>
+  </si>
+  <si>
+    <t>LA REFORMA POLÍTICA DEL ESTADO</t>
+  </si>
+  <si>
+    <t>320.972C3758</t>
+  </si>
+  <si>
+    <t>MARÍA AMPARO CASAR</t>
+  </si>
+  <si>
+    <t>LAS INSTITUCIONES POLÍTICAS</t>
+  </si>
+  <si>
+    <t>LAS INSTITUCIONES POLÍTICAS DE LOS ESTADOS UNIDOS MEXICANOS</t>
+  </si>
+  <si>
+    <t>320.972N32</t>
+  </si>
+  <si>
+    <t>BENITO NACIF</t>
+  </si>
+  <si>
+    <t>JOSÉ MARÍA LUIS MORA</t>
+  </si>
+  <si>
+    <t>CATECISMO POLÍTICO DE LA FEDERACIÓN MEXICANA</t>
+  </si>
+  <si>
+    <t>320.972M65085</t>
+  </si>
+  <si>
+    <t>PLANETA</t>
+  </si>
+  <si>
+    <t>JORGE JAVIER ROMERO</t>
+  </si>
+  <si>
+    <t>320.972R6854</t>
+  </si>
+  <si>
+    <t>DISCURSO SOBRE EL ORIGEN Y LOS FUNDAMENTOS DE LA DESIGUALDAD ENTRE LOS HOMBRES</t>
+  </si>
+  <si>
+    <t>JEAN-JACQUES ROUSSEAU</t>
+  </si>
+  <si>
+    <t>320R741</t>
+  </si>
+  <si>
+    <t>JOSÉ MARTÍ</t>
+  </si>
+  <si>
+    <t>320.98M35</t>
+  </si>
+  <si>
+    <t>CIEN DE IBEROAMÉRICA</t>
+  </si>
+  <si>
+    <t>NUESTRA AMÉRICA ES UNA. ESCRITOS PÓLITICOS</t>
+  </si>
+  <si>
+    <t>CREAR LA DEMOCRACIA - LA REVISTA ARGENTINA DE CIENCIAS POLÍTICAS Y EL DEBATE EN TORNO DE LA R. V.</t>
+  </si>
+  <si>
+    <t>DARÍO ROLDÁN (COMPILADOR)</t>
+  </si>
+  <si>
+    <t>320.982C73</t>
+  </si>
+  <si>
+    <t>LA MUERTE Y LA RESURRECCIÓN DE LA REPRESENTACIÓN POLÍTICA</t>
+  </si>
+  <si>
+    <t>JUAN ABAL MEDINA (H.)</t>
+  </si>
+  <si>
+    <t>321.8A32</t>
+  </si>
+  <si>
+    <t>EL COLEGIO DE MÉXICO</t>
+  </si>
+  <si>
+    <t>MÉXICO 2010 ¿QUÉ ES LO QUE MÁS TE ENORGULLECE DE TU MUNICIPIO?</t>
+  </si>
+  <si>
+    <t>VUELTA EN U. GUÍA PARA ENTENDER Y REACTIVAR LA DEMOCRACIA ESTANCADA</t>
+  </si>
+  <si>
+    <t>321.8A375</t>
+  </si>
+  <si>
+    <t>SERGIO AGUAYO QUEZADA</t>
+  </si>
+  <si>
+    <t>TAURUS</t>
+  </si>
+  <si>
+    <t>DISCURSOS EN LA ASAMBLEA NACIONAL</t>
+  </si>
+  <si>
+    <t>MIRABEAU</t>
+  </si>
+  <si>
+    <t>320.944M57</t>
+  </si>
+  <si>
+    <t>UN POCO MALTRATADO EN FORRO Y CUBRIMIENTO DEL LIBRO. ADEMAS DEL CODIGO DE LIBRO.</t>
+  </si>
+  <si>
+    <t>LA RAZÓN POPULISTA</t>
+  </si>
+  <si>
+    <t>321.8L33</t>
+  </si>
+  <si>
+    <t>ERNESTO LACLAU</t>
+  </si>
+  <si>
+    <t>LA TRANSPARENCIA</t>
+  </si>
+  <si>
+    <t>321.8G83</t>
+  </si>
+  <si>
+    <t>EDUARO GUERRERO GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t>EL ESTADO LAICO</t>
+  </si>
+  <si>
+    <t>ROBERTO J. BLANCARTE</t>
+  </si>
+  <si>
+    <t>322.1B515</t>
+  </si>
+  <si>
+    <t>LOS MOVIMIENTOS INDÍGENAS Y CAMPESINOS</t>
+  </si>
+  <si>
+    <t>LETICIA REINA AOYAMA</t>
+  </si>
+  <si>
+    <t>322.420972R45</t>
+  </si>
+  <si>
+    <t>323.0972I22</t>
+  </si>
+  <si>
+    <t>EMILIA ÁLVAREZ ICAZA LONGORIA</t>
+  </si>
+  <si>
+    <t>LOS DERECHOS HUMANOS EN MÉXICO</t>
+  </si>
+  <si>
+    <t>CAMINO A LA CIUDADANIA - UN LIBRO PARA JOVENES DE 16 AÑOS EN ADELANTE</t>
+  </si>
+  <si>
+    <t>323.6G66</t>
+  </si>
+  <si>
+    <t>EL DRAGÓN ROJO</t>
+  </si>
+  <si>
+    <t>TRIBUNAL ELECTORAL DEL PODER JUDICIAL</t>
+  </si>
+  <si>
+    <t>MALTRATADO EN LAS ESQUINAS DEL LIBRO</t>
+  </si>
+  <si>
+    <t>LA INSTITUCIÓN CIUDADANA</t>
+  </si>
+  <si>
+    <t>323.6R36</t>
+  </si>
+  <si>
+    <t>RICARDO RAPHAEL</t>
+  </si>
+  <si>
+    <t>LOS PARTIDOS POLÍTICOS Y LAS ELECCIONES DE LOS ESTADOS UNIDOS MEXICANOS</t>
+  </si>
+  <si>
+    <t>324.272W64</t>
+  </si>
+  <si>
+    <t>JOSÉ WOLDENBERG</t>
+  </si>
+  <si>
+    <t>LA VIDA EN LA SOCIEDAD CONTEMPORÁNEA - UNA MIRADA POLÍTICA</t>
+  </si>
+  <si>
+    <t>CARLOS STRASSER</t>
+  </si>
+  <si>
+    <t>321.8S79</t>
+  </si>
+  <si>
+    <t>HACIA DÓNDE VA LA CIENCIA EN MÉXICO. MIGRACIÓN Y DESARROLLO</t>
+  </si>
+  <si>
+    <t>R. DELEGADO (COORDINADOR)</t>
+  </si>
+  <si>
+    <t>325.2720973M55472</t>
+  </si>
+  <si>
+    <t>NOAM CHOMSKY HABLA DE AMÉRICA LATINA Y MÉXICO</t>
+  </si>
+  <si>
+    <t>327.7308CH65</t>
+  </si>
+  <si>
+    <t>HEINZ DIETERICH</t>
   </si>
 </sst>
 </file>
@@ -1451,19 +1919,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6CA0C-E573-4DC5-953F-A75EAD0EA7AD}">
-  <dimension ref="A1:M310"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M100" sqref="M100"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="38.140625" customWidth="1"/>
@@ -1472,7 +1940,7 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="67.140625" customWidth="1"/>
+    <col min="13" max="13" width="150.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1530,7 +1998,7 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1571,7 +2039,7 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1612,7 +2080,7 @@
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1653,7 +2121,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1694,7 +2162,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1735,7 +2203,7 @@
         <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1776,7 +2244,7 @@
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1817,7 +2285,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1858,7 +2326,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1899,7 +2367,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1940,7 +2408,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1981,7 +2449,7 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2022,7 +2490,7 @@
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -2063,7 +2531,7 @@
         <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -2104,7 +2572,7 @@
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -2145,7 +2613,7 @@
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -2186,7 +2654,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2227,7 +2695,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2268,7 +2736,7 @@
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2309,7 +2777,7 @@
         <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2350,7 +2818,7 @@
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2391,7 +2859,7 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2432,7 +2900,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2473,7 +2941,7 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2514,7 +2982,7 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2555,7 +3023,7 @@
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2596,7 +3064,7 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -2637,7 +3105,7 @@
         <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -2678,7 +3146,7 @@
         <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -2719,7 +3187,7 @@
         <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2748,10 +3216,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
@@ -2760,13 +3228,13 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
+        <v>338</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>91</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>92</v>
       </c>
       <c r="H32">
         <v>339</v>
@@ -2789,10 +3257,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>90</v>
@@ -2801,13 +3269,13 @@
         <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33">
         <v>696</v>
@@ -2830,10 +3298,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>90</v>
@@ -2842,13 +3310,13 @@
         <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34">
         <v>1048</v>
@@ -2871,10 +3339,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>90</v>
@@ -2883,13 +3351,13 @@
         <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H35">
         <v>1393</v>
@@ -2912,10 +3380,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
@@ -2924,13 +3392,13 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H36">
         <v>1738</v>
@@ -2953,10 +3421,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
@@ -2965,13 +3433,13 @@
         <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>2080</v>
@@ -2994,10 +3462,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
         <v>90</v>
@@ -3006,13 +3474,13 @@
         <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F38">
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38">
         <v>2428</v>
@@ -3035,10 +3503,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>90</v>
@@ -3047,13 +3515,13 @@
         <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F39">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39">
         <v>2816</v>
@@ -3076,25 +3544,25 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
       </c>
       <c r="D40" t="s">
         <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40">
         <v>934</v>
@@ -3117,25 +3585,25 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H41">
         <v>468</v>
@@ -3158,25 +3626,25 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H42">
         <v>277</v>
@@ -3199,25 +3667,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H43">
         <v>458</v>
@@ -3240,25 +3708,25 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
         <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44">
         <v>790</v>
@@ -3281,25 +3749,25 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H45">
         <v>490</v>
@@ -3322,25 +3790,25 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
         <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F46">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H46">
         <v>544</v>
@@ -3363,25 +3831,25 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H47">
         <v>314</v>
@@ -3404,25 +3872,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
         <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F48">
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48">
         <v>352</v>
@@ -3445,25 +3913,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
         <v>129</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H49">
         <v>304</v>
@@ -3486,25 +3954,25 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50">
         <v>155</v>
@@ -3527,25 +3995,25 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
         <v>136</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51">
         <v>189</v>
@@ -3568,25 +4036,25 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
         <v>140</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>141</v>
-      </c>
-      <c r="C52" t="s">
-        <v>142</v>
       </c>
       <c r="D52" t="s">
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H52">
         <v>295</v>
@@ -3609,25 +4077,25 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" t="s">
         <v>143</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>144</v>
-      </c>
-      <c r="C53" t="s">
-        <v>145</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H53">
         <v>567</v>
@@ -3650,25 +4118,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>446</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H54">
         <v>347</v>
@@ -3686,30 +4154,30 @@
         <v>58</v>
       </c>
       <c r="M54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>446</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H55">
         <v>529</v>
@@ -3732,25 +4200,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
         <v>152</v>
-      </c>
-      <c r="B56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" t="s">
-        <v>154</v>
       </c>
       <c r="D56" t="s">
         <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H56">
         <v>226</v>
@@ -3773,31 +4241,31 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
         <v>157</v>
       </c>
-      <c r="B57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>338</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>158</v>
-      </c>
-      <c r="D57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>160</v>
       </c>
       <c r="H57">
         <v>379</v>
       </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J57">
         <v>2006</v>
@@ -3806,33 +4274,33 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
         <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>165</v>
       </c>
       <c r="H58">
         <v>451</v>
@@ -3847,33 +4315,33 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>167</v>
-      </c>
-      <c r="C59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>169</v>
       </c>
       <c r="H59">
         <v>406</v>
@@ -3888,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M59" t="s">
         <v>64</v>
@@ -3896,25 +4364,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" t="s">
+        <v>338</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>172</v>
-      </c>
-      <c r="B60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>174</v>
       </c>
       <c r="H60">
         <v>48</v>
@@ -3929,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M60" t="s">
         <v>64</v>
@@ -3937,31 +4405,31 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" t="s">
+        <v>338</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
         <v>176</v>
-      </c>
-      <c r="B61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>178</v>
       </c>
       <c r="H61">
         <v>169</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J61">
         <v>1993</v>
@@ -3970,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M61" t="s">
         <v>64</v>
@@ -3978,25 +4446,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
         <v>181</v>
-      </c>
-      <c r="B62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>183</v>
       </c>
       <c r="H62">
         <v>69</v>
@@ -4011,33 +4479,33 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
         <v>185</v>
-      </c>
-      <c r="D63" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>187</v>
       </c>
       <c r="H63">
         <v>234</v>
@@ -4052,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M63" t="s">
         <v>64</v>
@@ -4060,19 +4528,19 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4093,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M64" t="s">
         <v>64</v>
@@ -4101,25 +4569,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
         <v>190</v>
       </c>
-      <c r="B65" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" t="s">
-        <v>192</v>
-      </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H65">
         <v>220</v>
@@ -4134,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M65" t="s">
         <v>64</v>
@@ -4142,25 +4610,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" t="s">
+        <v>338</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
         <v>194</v>
-      </c>
-      <c r="D66" t="s">
-        <v>159</v>
-      </c>
-      <c r="E66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>196</v>
       </c>
       <c r="H66">
         <v>63</v>
@@ -4175,33 +4643,33 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
         <v>197</v>
       </c>
-      <c r="B67" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" t="s">
-        <v>199</v>
-      </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H67">
         <v>63</v>
@@ -4216,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M67" t="s">
         <v>64</v>
@@ -4224,25 +4692,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
         <v>200</v>
-      </c>
-      <c r="B68" t="s">
-        <v>202</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H68">
         <v>146</v>
@@ -4257,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M68" t="s">
         <v>64</v>
@@ -4265,25 +4733,25 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
         <v>204</v>
-      </c>
-      <c r="D69" t="s">
-        <v>159</v>
-      </c>
-      <c r="E69" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>206</v>
       </c>
       <c r="H69">
         <v>293</v>
@@ -4298,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M69" t="s">
         <v>64</v>
@@ -4306,19 +4774,19 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s">
         <v>208</v>
       </c>
-      <c r="C70" t="s">
-        <v>210</v>
-      </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -4339,33 +4807,33 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" t="s">
+        <v>338</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
         <v>211</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" t="s">
-        <v>159</v>
-      </c>
-      <c r="E71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>213</v>
       </c>
       <c r="H71">
         <v>478</v>
@@ -4380,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M71" t="s">
         <v>64</v>
@@ -4388,19 +4856,19 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4421,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M72" t="s">
         <v>64</v>
@@ -4429,25 +4897,25 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H73">
         <v>376</v>
@@ -4462,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M73" t="s">
         <v>64</v>
@@ -4470,25 +4938,25 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H74">
         <v>670</v>
@@ -4503,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M74" t="s">
         <v>64</v>
@@ -4511,25 +4979,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
         <v>225</v>
-      </c>
-      <c r="B75" t="s">
-        <v>226</v>
-      </c>
-      <c r="C75" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75" t="s">
-        <v>246</v>
-      </c>
-      <c r="E75" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>227</v>
       </c>
       <c r="H75">
         <v>165</v>
@@ -4544,33 +5012,33 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" t="s">
         <v>229</v>
       </c>
-      <c r="B76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>231</v>
-      </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H76">
         <v>63</v>
@@ -4585,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M76" t="s">
         <v>64</v>
@@ -4593,25 +5061,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" t="s">
         <v>232</v>
       </c>
-      <c r="B77" t="s">
-        <v>233</v>
-      </c>
-      <c r="C77" t="s">
-        <v>234</v>
-      </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77">
         <v>221</v>
@@ -4626,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M77" t="s">
         <v>64</v>
@@ -4634,25 +5102,25 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" t="s">
+        <v>338</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
         <v>235</v>
-      </c>
-      <c r="C78" t="s">
-        <v>236</v>
-      </c>
-      <c r="D78" t="s">
-        <v>246</v>
-      </c>
-      <c r="E78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
-        <v>237</v>
       </c>
       <c r="H78">
         <v>109</v>
@@ -4667,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M78" t="s">
         <v>64</v>
@@ -4675,25 +5143,25 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
         <v>239</v>
       </c>
-      <c r="C79" t="s">
-        <v>241</v>
-      </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E79" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H79">
         <v>176</v>
@@ -4708,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M79" t="s">
         <v>64</v>
@@ -4716,19 +5184,19 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" t="s">
         <v>244</v>
       </c>
-      <c r="B80" t="s">
-        <v>243</v>
-      </c>
-      <c r="C80" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" t="s">
-        <v>246</v>
-      </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4749,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M80" t="s">
         <v>64</v>
@@ -4757,25 +5225,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H81">
         <v>159</v>
@@ -4790,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M81" t="s">
         <v>64</v>
@@ -4798,25 +5266,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H82">
         <v>365</v>
@@ -4831,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M82" t="s">
         <v>64</v>
@@ -4839,25 +5307,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
         <v>253</v>
       </c>
-      <c r="B83" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" t="s">
-        <v>255</v>
-      </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H83">
         <v>63</v>
@@ -4872,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M83" t="s">
         <v>64</v>
@@ -4880,31 +5348,31 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" t="s">
+        <v>338</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
         <v>257</v>
-      </c>
-      <c r="B84" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" t="s">
-        <v>258</v>
-      </c>
-      <c r="D84" t="s">
-        <v>246</v>
-      </c>
-      <c r="E84" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>259</v>
       </c>
       <c r="H84">
         <v>457</v>
       </c>
       <c r="I84" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J84">
         <v>2007</v>
@@ -4913,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M84" t="s">
         <v>64</v>
@@ -4921,25 +5389,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
         <v>261</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" t="s">
+        <v>338</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
         <v>262</v>
-      </c>
-      <c r="C85" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" t="s">
-        <v>246</v>
-      </c>
-      <c r="E85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>264</v>
       </c>
       <c r="H85">
         <v>129</v>
@@ -4954,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M85" t="s">
         <v>64</v>
@@ -4962,25 +5430,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D86" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H86">
         <v>174</v>
@@ -4995,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M86" t="s">
         <v>64</v>
@@ -5003,25 +5471,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
         <v>268</v>
       </c>
-      <c r="B87" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" t="s">
-        <v>270</v>
-      </c>
       <c r="D87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H87">
         <v>213</v>
@@ -5036,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M87" t="s">
         <v>64</v>
@@ -5044,25 +5512,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" t="s">
         <v>271</v>
       </c>
-      <c r="B88" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" t="s">
-        <v>273</v>
-      </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H88">
         <v>350</v>
@@ -5077,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M88" t="s">
         <v>64</v>
@@ -5085,25 +5553,25 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
         <v>274</v>
       </c>
-      <c r="B89" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" t="s">
-        <v>276</v>
-      </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H89">
         <v>207</v>
@@ -5118,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M89" t="s">
         <v>64</v>
@@ -5126,25 +5594,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" t="s">
         <v>279</v>
       </c>
-      <c r="B90" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" t="s">
-        <v>281</v>
-      </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H90">
         <v>193</v>
@@ -5159,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M90" t="s">
         <v>64</v>
@@ -5167,25 +5635,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" t="s">
+        <v>338</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
         <v>282</v>
-      </c>
-      <c r="B91" t="s">
-        <v>283</v>
-      </c>
-      <c r="C91" t="s">
-        <v>285</v>
-      </c>
-      <c r="D91" t="s">
-        <v>277</v>
-      </c>
-      <c r="E91" t="s">
-        <v>91</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="s">
-        <v>284</v>
       </c>
       <c r="H91">
         <v>48</v>
@@ -5200,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M91" t="s">
         <v>64</v>
@@ -5208,19 +5676,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" t="s">
         <v>286</v>
       </c>
-      <c r="B92" t="s">
-        <v>287</v>
-      </c>
-      <c r="C92" t="s">
-        <v>288</v>
-      </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -5241,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M92" t="s">
         <v>64</v>
@@ -5249,25 +5717,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" t="s">
         <v>289</v>
       </c>
-      <c r="B93" t="s">
-        <v>290</v>
-      </c>
-      <c r="C93" t="s">
-        <v>291</v>
-      </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H93">
         <v>372</v>
@@ -5282,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M93" t="s">
         <v>64</v>
@@ -5290,25 +5758,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" t="s">
         <v>292</v>
       </c>
-      <c r="B94" t="s">
-        <v>293</v>
-      </c>
-      <c r="C94" t="s">
-        <v>294</v>
-      </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H94">
         <v>194</v>
@@ -5323,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M94" t="s">
         <v>64</v>
@@ -5331,25 +5799,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" t="s">
         <v>295</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" t="s">
+        <v>338</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
         <v>296</v>
-      </c>
-      <c r="C95" t="s">
-        <v>297</v>
-      </c>
-      <c r="D95" t="s">
-        <v>277</v>
-      </c>
-      <c r="E95" t="s">
-        <v>91</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>298</v>
       </c>
       <c r="H95">
         <v>310</v>
@@ -5364,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M95" t="s">
         <v>64</v>
@@ -5372,31 +5840,31 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" t="s">
         <v>299</v>
       </c>
-      <c r="B96" t="s">
-        <v>300</v>
-      </c>
-      <c r="C96" t="s">
-        <v>301</v>
-      </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H96">
         <v>189</v>
       </c>
       <c r="I96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J96">
         <v>2010</v>
@@ -5405,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M96" t="s">
         <v>64</v>
@@ -5413,25 +5881,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" t="s">
         <v>302</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
+        <v>275</v>
+      </c>
+      <c r="E97" t="s">
+        <v>338</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
         <v>303</v>
-      </c>
-      <c r="C97" t="s">
-        <v>304</v>
-      </c>
-      <c r="D97" t="s">
-        <v>277</v>
-      </c>
-      <c r="E97" t="s">
-        <v>91</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s">
-        <v>305</v>
       </c>
       <c r="H97">
         <v>522</v>
@@ -5446,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M97" t="s">
         <v>64</v>
@@ -5454,31 +5922,31 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98" t="s">
+        <v>305</v>
+      </c>
+      <c r="C98" t="s">
         <v>306</v>
       </c>
-      <c r="B98" t="s">
-        <v>307</v>
-      </c>
-      <c r="C98" t="s">
-        <v>308</v>
-      </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H98">
         <v>185</v>
       </c>
       <c r="I98" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J98">
         <v>2008</v>
@@ -5487,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s">
         <v>64</v>
@@ -5495,19 +5963,19 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" t="s">
         <v>311</v>
       </c>
-      <c r="B99" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" t="s">
-        <v>313</v>
-      </c>
       <c r="D99" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E99" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -5519,7 +5987,7 @@
         <v>242</v>
       </c>
       <c r="I99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J99">
         <v>2008</v>
@@ -5528,33 +5996,33 @@
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M99" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" t="s">
+        <v>318</v>
+      </c>
+      <c r="C100" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100" t="s">
+        <v>308</v>
+      </c>
+      <c r="E100" t="s">
+        <v>338</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
         <v>320</v>
-      </c>
-      <c r="B100" t="s">
-        <v>321</v>
-      </c>
-      <c r="C100" t="s">
-        <v>322</v>
-      </c>
-      <c r="D100" t="s">
-        <v>310</v>
-      </c>
-      <c r="E100" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
-        <v>323</v>
       </c>
       <c r="H100">
         <v>153</v>
@@ -5569,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M100" t="s">
         <v>64</v>
@@ -5577,25 +6045,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C101" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H101">
         <v>125</v>
@@ -5610,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M101" t="s">
         <v>64</v>
@@ -5618,25 +6086,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C102" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H102">
         <v>179</v>
@@ -5651,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M102" t="s">
         <v>64</v>
@@ -5659,25 +6127,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H103">
         <v>207</v>
@@ -5692,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M103" t="s">
         <v>64</v>
@@ -5700,25 +6168,25 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" t="s">
         <v>316</v>
       </c>
-      <c r="B104" t="s">
-        <v>317</v>
-      </c>
-      <c r="C104" t="s">
-        <v>319</v>
-      </c>
       <c r="D104" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="H104">
         <v>221</v>
@@ -5733,1091 +6201,2868 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M104" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" t="s">
+        <v>333</v>
+      </c>
       <c r="D105" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>334</v>
+      </c>
+      <c r="H105">
+        <v>71</v>
+      </c>
+      <c r="I105" t="s">
+        <v>53</v>
+      </c>
+      <c r="J105">
+        <v>2011</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="M105" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" t="s">
+        <v>337</v>
+      </c>
       <c r="D106" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E106" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>172</v>
+      </c>
+      <c r="H106">
+        <v>395</v>
+      </c>
+      <c r="I106" t="s">
+        <v>53</v>
+      </c>
+      <c r="J106">
+        <v>2012</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>313</v>
+      </c>
+      <c r="M106" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" t="s">
+        <v>341</v>
+      </c>
       <c r="D107" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>185</v>
+      </c>
+      <c r="H107">
+        <v>148</v>
+      </c>
+      <c r="I107" t="s">
+        <v>53</v>
+      </c>
+      <c r="J107">
+        <v>2003</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>313</v>
+      </c>
+      <c r="M107" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B108" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" t="s">
+        <v>344</v>
+      </c>
       <c r="D108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>185</v>
+      </c>
+      <c r="H108">
+        <v>247</v>
+      </c>
+      <c r="I108" t="s">
+        <v>53</v>
+      </c>
+      <c r="J108">
+        <v>2008</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>313</v>
+      </c>
+      <c r="M108" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B109" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" t="s">
+        <v>347</v>
+      </c>
       <c r="D109" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109">
+        <v>564</v>
+      </c>
+      <c r="I109" t="s">
+        <v>53</v>
+      </c>
+      <c r="J109">
+        <v>1999</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>313</v>
+      </c>
+      <c r="M109" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B110" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" t="s">
+        <v>351</v>
+      </c>
       <c r="D110" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E110" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>350</v>
+      </c>
+      <c r="H110">
+        <v>269</v>
+      </c>
+      <c r="I110" t="s">
+        <v>53</v>
+      </c>
+      <c r="J110">
+        <v>1983</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>313</v>
+      </c>
+      <c r="M110" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" t="s">
+        <v>355</v>
+      </c>
+      <c r="C111" t="s">
+        <v>352</v>
+      </c>
       <c r="D111" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E111" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>354</v>
+      </c>
+      <c r="H111">
+        <v>261</v>
+      </c>
+      <c r="I111" t="s">
+        <v>53</v>
+      </c>
+      <c r="J111">
+        <v>2001</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>313</v>
+      </c>
+      <c r="M111" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B112" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" t="s">
+        <v>357</v>
+      </c>
       <c r="D112" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E112" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
+      </c>
+      <c r="H112">
+        <v>351</v>
+      </c>
+      <c r="I112" t="s">
+        <v>53</v>
+      </c>
+      <c r="J112">
+        <v>1976</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>313</v>
+      </c>
+      <c r="M112" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" t="s">
+        <v>361</v>
+      </c>
+      <c r="C113" t="s">
+        <v>362</v>
+      </c>
       <c r="D113" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E113" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>185</v>
+      </c>
+      <c r="H113">
+        <v>146</v>
+      </c>
+      <c r="I113" t="s">
+        <v>53</v>
+      </c>
+      <c r="J113">
+        <v>2005</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>313</v>
+      </c>
+      <c r="M113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B114" t="s">
+        <v>364</v>
+      </c>
+      <c r="C114" t="s">
+        <v>365</v>
+      </c>
       <c r="D114" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E114" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>172</v>
+      </c>
+      <c r="H114">
+        <v>62</v>
+      </c>
+      <c r="I114" t="s">
+        <v>53</v>
+      </c>
+      <c r="J114">
+        <v>2010</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>313</v>
+      </c>
+      <c r="M114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B115" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" t="s">
+        <v>367</v>
+      </c>
       <c r="D115" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E115" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>185</v>
+      </c>
+      <c r="H115">
+        <v>191</v>
+      </c>
+      <c r="I115" t="s">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <v>2009</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>313</v>
+      </c>
+      <c r="M115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116" t="s">
+        <v>370</v>
+      </c>
       <c r="D116" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E116" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116">
+        <v>312</v>
+      </c>
+      <c r="I116" t="s">
+        <v>53</v>
+      </c>
+      <c r="J116">
+        <v>2011</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>313</v>
+      </c>
+      <c r="M116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" t="s">
+        <v>378</v>
+      </c>
       <c r="D117" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E117" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117">
+        <v>394</v>
+      </c>
+      <c r="I117" t="s">
+        <v>53</v>
+      </c>
+      <c r="J117">
+        <v>2011</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>313</v>
+      </c>
+      <c r="M117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B118" t="s">
+        <v>379</v>
+      </c>
+      <c r="C118" t="s">
+        <v>380</v>
+      </c>
       <c r="D118" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E118" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118">
+        <v>304</v>
+      </c>
+      <c r="I118" t="s">
+        <v>53</v>
+      </c>
+      <c r="J118">
+        <v>2011</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>313</v>
+      </c>
+      <c r="M118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B119" t="s">
+        <v>381</v>
+      </c>
+      <c r="C119" t="s">
+        <v>382</v>
+      </c>
       <c r="D119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E119" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119">
+        <v>599</v>
+      </c>
+      <c r="I119" t="s">
+        <v>53</v>
+      </c>
+      <c r="J119">
+        <v>2011</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>313</v>
+      </c>
+      <c r="M119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B120" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" t="s">
+        <v>384</v>
+      </c>
       <c r="D120" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E120" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120">
+        <v>436</v>
+      </c>
+      <c r="I120" t="s">
+        <v>53</v>
+      </c>
+      <c r="J120">
+        <v>2013</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>313</v>
+      </c>
+      <c r="M120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B121" t="s">
+        <v>385</v>
+      </c>
+      <c r="C121" t="s">
+        <v>386</v>
+      </c>
+      <c r="D121" t="s">
+        <v>308</v>
+      </c>
       <c r="E121" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121">
+        <v>238</v>
+      </c>
+      <c r="I121" t="s">
+        <v>53</v>
+      </c>
+      <c r="J121">
+        <v>2013</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>313</v>
+      </c>
+      <c r="M121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B122" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" t="s">
+        <v>308</v>
+      </c>
       <c r="E122" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>185</v>
+      </c>
+      <c r="H122">
+        <v>425</v>
+      </c>
+      <c r="I122" t="s">
+        <v>53</v>
+      </c>
+      <c r="J122">
+        <v>2008</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>313</v>
+      </c>
+      <c r="M122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" t="s">
+        <v>391</v>
+      </c>
+      <c r="C123" t="s">
+        <v>392</v>
+      </c>
+      <c r="D123" t="s">
+        <v>308</v>
+      </c>
       <c r="E123" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123">
+        <v>328</v>
+      </c>
+      <c r="I123" t="s">
+        <v>53</v>
+      </c>
+      <c r="J123">
+        <v>2011</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>313</v>
+      </c>
+      <c r="M123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" t="s">
+        <v>394</v>
+      </c>
+      <c r="C124" t="s">
+        <v>395</v>
+      </c>
+      <c r="D124" t="s">
+        <v>308</v>
+      </c>
       <c r="E124" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124">
+        <v>409</v>
+      </c>
+      <c r="I124" t="s">
+        <v>53</v>
+      </c>
+      <c r="J124">
+        <v>1998</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>313</v>
+      </c>
+      <c r="M124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B125" t="s">
+        <v>400</v>
+      </c>
+      <c r="C125" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125" t="s">
+        <v>308</v>
+      </c>
       <c r="E125" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>185</v>
+      </c>
+      <c r="H125">
+        <v>221</v>
+      </c>
+      <c r="I125" t="s">
+        <v>50</v>
+      </c>
+      <c r="J125">
+        <v>2010</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>313</v>
+      </c>
+      <c r="M125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B126" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" t="s">
+        <v>308</v>
+      </c>
       <c r="E126" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>185</v>
+      </c>
+      <c r="H126">
+        <v>438</v>
+      </c>
+      <c r="I126" t="s">
+        <v>53</v>
+      </c>
+      <c r="J126">
+        <v>2011</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>313</v>
+      </c>
+      <c r="M126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B127" t="s">
+        <v>403</v>
+      </c>
+      <c r="C127" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" t="s">
+        <v>308</v>
+      </c>
       <c r="E127" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>185</v>
+      </c>
+      <c r="H127">
+        <v>484</v>
+      </c>
+      <c r="I127" t="s">
+        <v>53</v>
+      </c>
+      <c r="J127">
+        <v>2006</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>313</v>
+      </c>
+      <c r="M127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B128" t="s">
+        <v>404</v>
+      </c>
+      <c r="C128" t="s">
+        <v>406</v>
+      </c>
+      <c r="D128" t="s">
+        <v>308</v>
+      </c>
       <c r="E128" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>185</v>
+      </c>
+      <c r="H128">
+        <v>215</v>
+      </c>
+      <c r="I128" t="s">
+        <v>53</v>
+      </c>
+      <c r="J128">
+        <v>2001</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>313</v>
+      </c>
+      <c r="M128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B129" t="s">
+        <v>407</v>
+      </c>
+      <c r="C129" t="s">
+        <v>408</v>
+      </c>
+      <c r="D129" t="s">
+        <v>308</v>
+      </c>
       <c r="E129" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>334</v>
+      </c>
+      <c r="H129">
+        <v>52</v>
+      </c>
+      <c r="I129" t="s">
+        <v>53</v>
+      </c>
+      <c r="J129">
+        <v>2006</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>313</v>
+      </c>
+      <c r="M129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B130" t="s">
+        <v>411</v>
+      </c>
+      <c r="C130" t="s">
+        <v>412</v>
+      </c>
+      <c r="D130" t="s">
+        <v>308</v>
+      </c>
       <c r="E130" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>185</v>
+      </c>
+      <c r="H130">
+        <v>334</v>
+      </c>
+      <c r="I130" t="s">
+        <v>53</v>
+      </c>
+      <c r="J130">
+        <v>2008</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>313</v>
+      </c>
+      <c r="M130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B131" t="s">
+        <v>413</v>
+      </c>
+      <c r="C131" t="s">
+        <v>415</v>
+      </c>
+      <c r="D131" t="s">
+        <v>308</v>
+      </c>
       <c r="E131" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>334</v>
+      </c>
+      <c r="H131">
+        <v>52</v>
+      </c>
+      <c r="I131" t="s">
+        <v>53</v>
+      </c>
+      <c r="J131">
+        <v>2007</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>313</v>
+      </c>
+      <c r="M131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B132" t="s">
+        <v>417</v>
+      </c>
+      <c r="C132" t="s">
+        <v>418</v>
+      </c>
+      <c r="D132" t="s">
+        <v>308</v>
+      </c>
       <c r="E132" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>334</v>
+      </c>
+      <c r="H132">
+        <v>44</v>
+      </c>
+      <c r="I132" t="s">
+        <v>53</v>
+      </c>
+      <c r="J132">
+        <v>2007</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>313</v>
+      </c>
+      <c r="M132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B133" t="s">
+        <v>419</v>
+      </c>
+      <c r="C133" t="s">
+        <v>421</v>
+      </c>
+      <c r="D133" t="s">
+        <v>308</v>
+      </c>
       <c r="E133" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>334</v>
+      </c>
+      <c r="H133">
+        <v>84</v>
+      </c>
+      <c r="I133" t="s">
+        <v>53</v>
+      </c>
+      <c r="J133">
+        <v>2007</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>313</v>
+      </c>
+      <c r="M133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B134" t="s">
+        <v>423</v>
+      </c>
+      <c r="C134" t="s">
+        <v>425</v>
+      </c>
+      <c r="D134" t="s">
+        <v>308</v>
+      </c>
       <c r="E134" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>334</v>
+      </c>
+      <c r="H134">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s">
+        <v>53</v>
+      </c>
+      <c r="J134">
+        <v>2007</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>313</v>
+      </c>
+      <c r="M134" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B135" t="s">
+        <v>427</v>
+      </c>
+      <c r="C135" t="s">
+        <v>426</v>
+      </c>
+      <c r="D135" t="s">
+        <v>308</v>
+      </c>
       <c r="E135" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>429</v>
+      </c>
+      <c r="H135">
+        <v>116</v>
+      </c>
+      <c r="I135" t="s">
+        <v>53</v>
+      </c>
+      <c r="J135">
+        <v>2002</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>313</v>
+      </c>
+      <c r="M135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>431</v>
+      </c>
+      <c r="B136" t="s">
+        <v>422</v>
+      </c>
+      <c r="C136" t="s">
+        <v>430</v>
+      </c>
+      <c r="D136" t="s">
+        <v>308</v>
+      </c>
       <c r="E136" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>334</v>
+      </c>
+      <c r="H136">
+        <v>77</v>
+      </c>
+      <c r="I136" t="s">
+        <v>53</v>
+      </c>
+      <c r="J136">
+        <v>2010</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>313</v>
+      </c>
+      <c r="M136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B137" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" t="s">
+        <v>433</v>
+      </c>
+      <c r="D137" t="s">
+        <v>308</v>
+      </c>
       <c r="E137" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>296</v>
+      </c>
+      <c r="H137">
+        <v>140</v>
+      </c>
+      <c r="I137" t="s">
+        <v>53</v>
+      </c>
+      <c r="J137">
+        <v>2012</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>313</v>
+      </c>
+      <c r="M137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B138" t="s">
+        <v>438</v>
+      </c>
+      <c r="C138" t="s">
+        <v>435</v>
+      </c>
+      <c r="D138" t="s">
+        <v>308</v>
+      </c>
       <c r="E138" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>437</v>
+      </c>
+      <c r="H138">
+        <v>200</v>
+      </c>
+      <c r="I138" t="s">
+        <v>53</v>
+      </c>
+      <c r="J138">
+        <v>2013</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>313</v>
+      </c>
+      <c r="M138" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B139" t="s">
+        <v>439</v>
+      </c>
+      <c r="C139" t="s">
+        <v>440</v>
+      </c>
+      <c r="D139" t="s">
+        <v>308</v>
+      </c>
       <c r="E139" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>185</v>
+      </c>
+      <c r="H139">
+        <v>329</v>
+      </c>
+      <c r="I139" t="s">
+        <v>53</v>
+      </c>
+      <c r="J139">
+        <v>2006</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>313</v>
+      </c>
+      <c r="M139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B140" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" t="s">
+        <v>443</v>
+      </c>
+      <c r="D140" t="s">
+        <v>308</v>
+      </c>
       <c r="E140" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>185</v>
+      </c>
+      <c r="H140">
+        <v>132</v>
+      </c>
+      <c r="I140" t="s">
+        <v>50</v>
+      </c>
+      <c r="J140">
+        <v>2008</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>313</v>
+      </c>
+      <c r="M140" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B141" t="s">
+        <v>447</v>
+      </c>
+      <c r="C141" t="s">
+        <v>449</v>
+      </c>
+      <c r="D141" t="s">
+        <v>308</v>
+      </c>
       <c r="E141" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>450</v>
+      </c>
+      <c r="H141">
+        <v>400</v>
+      </c>
+      <c r="I141" t="s">
+        <v>53</v>
+      </c>
+      <c r="J141">
+        <v>2010</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>313</v>
+      </c>
+      <c r="M141" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B142" t="s">
+        <v>451</v>
+      </c>
+      <c r="C142" t="s">
+        <v>452</v>
+      </c>
+      <c r="D142" t="s">
+        <v>308</v>
+      </c>
       <c r="E142" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>68</v>
+      </c>
+      <c r="H142">
+        <v>143</v>
+      </c>
+      <c r="I142" t="s">
+        <v>53</v>
+      </c>
+      <c r="J142">
+        <v>1989</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>313</v>
+      </c>
+      <c r="M142" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B143" t="s">
+        <v>455</v>
+      </c>
+      <c r="C143" t="s">
+        <v>457</v>
+      </c>
+      <c r="D143" t="s">
+        <v>308</v>
+      </c>
       <c r="E143" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>185</v>
+      </c>
+      <c r="H143">
+        <v>312</v>
+      </c>
+      <c r="I143" t="s">
+        <v>53</v>
+      </c>
+      <c r="J143">
+        <v>2005</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>313</v>
+      </c>
+      <c r="M143" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144" t="s">
+        <v>458</v>
+      </c>
+      <c r="C144" t="s">
+        <v>460</v>
+      </c>
+      <c r="D144" t="s">
+        <v>308</v>
+      </c>
       <c r="E144" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>334</v>
+      </c>
+      <c r="H144">
+        <v>92</v>
+      </c>
+      <c r="I144" t="s">
+        <v>53</v>
+      </c>
+      <c r="J144">
+        <v>2008</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>313</v>
+      </c>
+      <c r="M144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B145" t="s">
+        <v>461</v>
+      </c>
+      <c r="C145" t="s">
+        <v>462</v>
+      </c>
+      <c r="D145" t="s">
+        <v>308</v>
+      </c>
       <c r="E145" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>334</v>
+      </c>
+      <c r="H145">
+        <v>75</v>
+      </c>
+      <c r="I145" t="s">
+        <v>53</v>
+      </c>
+      <c r="J145">
+        <v>2008</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>313</v>
+      </c>
+      <c r="M145" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B146" t="s">
+        <v>464</v>
+      </c>
+      <c r="C146" t="s">
+        <v>465</v>
+      </c>
+      <c r="D146" t="s">
+        <v>308</v>
+      </c>
       <c r="E146" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>334</v>
+      </c>
+      <c r="H146">
+        <v>72</v>
+      </c>
+      <c r="I146" t="s">
+        <v>53</v>
+      </c>
+      <c r="J146">
+        <v>2010</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>313</v>
+      </c>
+      <c r="M146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B147" t="s">
+        <v>469</v>
+      </c>
+      <c r="C147" t="s">
+        <v>468</v>
+      </c>
+      <c r="D147" t="s">
+        <v>308</v>
+      </c>
       <c r="E147" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>334</v>
+      </c>
+      <c r="H147">
+        <v>77</v>
+      </c>
+      <c r="I147" t="s">
+        <v>53</v>
+      </c>
+      <c r="J147">
+        <v>2009</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>313</v>
+      </c>
+      <c r="M147" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B148" t="s">
+        <v>470</v>
+      </c>
+      <c r="C148" t="s">
+        <v>473</v>
+      </c>
+      <c r="D148" t="s">
+        <v>308</v>
+      </c>
       <c r="E148" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>472</v>
+      </c>
+      <c r="H148">
+        <v>64</v>
+      </c>
+      <c r="I148" t="s">
+        <v>53</v>
+      </c>
+      <c r="J148">
+        <v>2014</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>313</v>
+      </c>
+      <c r="M148" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" t="s">
+        <v>475</v>
+      </c>
+      <c r="C149" t="s">
+        <v>477</v>
+      </c>
+      <c r="D149" t="s">
+        <v>308</v>
+      </c>
       <c r="E149" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>334</v>
+      </c>
+      <c r="H149">
+        <v>85</v>
+      </c>
+      <c r="I149" t="s">
+        <v>53</v>
+      </c>
+      <c r="J149">
+        <v>2007</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>313</v>
+      </c>
+      <c r="M149" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B150" t="s">
+        <v>478</v>
+      </c>
+      <c r="C150" t="s">
+        <v>480</v>
+      </c>
+      <c r="D150" t="s">
+        <v>308</v>
+      </c>
       <c r="E150" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>334</v>
+      </c>
+      <c r="H150">
+        <v>52</v>
+      </c>
+      <c r="I150" t="s">
+        <v>53</v>
+      </c>
+      <c r="J150">
+        <v>2006</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>313</v>
+      </c>
+      <c r="M150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B151" t="s">
+        <v>481</v>
+      </c>
+      <c r="C151" t="s">
+        <v>482</v>
+      </c>
+      <c r="D151" t="s">
+        <v>308</v>
+      </c>
       <c r="E151" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>185</v>
+      </c>
+      <c r="H151">
+        <v>206</v>
+      </c>
+      <c r="I151" t="s">
+        <v>53</v>
+      </c>
+      <c r="J151">
+        <v>2003</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>313</v>
+      </c>
+      <c r="M151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B152" t="s">
+        <v>484</v>
+      </c>
+      <c r="C152" t="s">
+        <v>485</v>
+      </c>
+      <c r="D152" t="s">
+        <v>308</v>
+      </c>
       <c r="E152" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>320</v>
+      </c>
+      <c r="H152">
+        <v>173</v>
+      </c>
+      <c r="I152" t="s">
+        <v>53</v>
+      </c>
+      <c r="J152">
+        <v>2014</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>313</v>
+      </c>
+      <c r="M152" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B153" t="s">
+        <v>487</v>
+      </c>
+      <c r="C153" t="s">
+        <v>489</v>
+      </c>
+      <c r="D153" t="s">
+        <v>308</v>
+      </c>
       <c r="E153" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>110</v>
+      </c>
+      <c r="H153">
+        <v>206</v>
+      </c>
+      <c r="I153" t="s">
+        <v>53</v>
+      </c>
+      <c r="J153">
+        <v>1998</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>313</v>
+      </c>
+      <c r="M153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>308</v>
+      </c>
       <c r="E154" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>53</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>313</v>
+      </c>
+      <c r="M154" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>308</v>
+      </c>
       <c r="E155" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>53</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155" t="s">
+        <v>313</v>
+      </c>
+      <c r="M155" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>308</v>
+      </c>
       <c r="E156" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>53</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>313</v>
+      </c>
+      <c r="M156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>308</v>
+      </c>
       <c r="E157" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>53</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157" t="s">
+        <v>313</v>
+      </c>
+      <c r="M157" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>308</v>
+      </c>
       <c r="E158" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>53</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" t="s">
+        <v>313</v>
+      </c>
+      <c r="M158" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>308</v>
+      </c>
       <c r="E159" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>53</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>313</v>
+      </c>
+      <c r="M159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>308</v>
+      </c>
       <c r="E160" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>53</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>313</v>
+      </c>
+      <c r="M160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>308</v>
+      </c>
       <c r="E161" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>53</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>313</v>
+      </c>
+      <c r="M161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>308</v>
+      </c>
       <c r="E162" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>53</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" t="s">
+        <v>313</v>
+      </c>
+      <c r="M162" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>308</v>
+      </c>
       <c r="E163" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>53</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" t="s">
+        <v>313</v>
+      </c>
+      <c r="M163" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>308</v>
+      </c>
       <c r="E164" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>53</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164" t="s">
+        <v>313</v>
+      </c>
+      <c r="M164" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>308</v>
+      </c>
       <c r="E165" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>53</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>313</v>
+      </c>
+      <c r="M165" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>308</v>
+      </c>
       <c r="E166" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166" t="s">
+        <v>313</v>
+      </c>
+      <c r="M166" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>308</v>
+      </c>
       <c r="E167" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>313</v>
+      </c>
+      <c r="M167" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>308</v>
+      </c>
       <c r="E168" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>313</v>
+      </c>
+      <c r="M168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>308</v>
+      </c>
       <c r="E169" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>313</v>
+      </c>
+      <c r="M169" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>308</v>
+      </c>
       <c r="E170" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170" t="s">
+        <v>313</v>
+      </c>
+      <c r="M170" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>308</v>
+      </c>
       <c r="E171" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171" t="s">
+        <v>313</v>
+      </c>
+      <c r="M171" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>308</v>
+      </c>
       <c r="E172" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>313</v>
+      </c>
+      <c r="M172" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>308</v>
+      </c>
       <c r="E173" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>313</v>
+      </c>
+      <c r="M173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>308</v>
+      </c>
       <c r="E174" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>313</v>
+      </c>
+      <c r="M174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>308</v>
+      </c>
       <c r="E175" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>313</v>
+      </c>
+      <c r="M175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>308</v>
+      </c>
       <c r="E176" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>313</v>
+      </c>
+      <c r="M176" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>308</v>
+      </c>
       <c r="E177" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177" t="s">
+        <v>313</v>
+      </c>
+      <c r="M177" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>308</v>
+      </c>
       <c r="E178" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
+        <v>313</v>
+      </c>
+      <c r="M178" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>308</v>
+      </c>
       <c r="E179" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>313</v>
+      </c>
+      <c r="M179" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>308</v>
+      </c>
       <c r="E180" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>313</v>
+      </c>
+      <c r="M180" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="181" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>308</v>
+      </c>
       <c r="E181" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>313</v>
+      </c>
+      <c r="M181" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>308</v>
+      </c>
       <c r="E182" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>308</v>
+      </c>
       <c r="E183" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>308</v>
+      </c>
       <c r="E184" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="185" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>308</v>
+      </c>
       <c r="E185" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="186" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>308</v>
+      </c>
       <c r="E186" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>308</v>
+      </c>
       <c r="E187" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="188" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>308</v>
+      </c>
       <c r="E188" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="189" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>308</v>
+      </c>
       <c r="E189" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="L189" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="190" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="L190" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="191" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E238" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E239" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E240" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E249" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E250" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E251" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E252" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E255" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E256" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E257" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E258" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E259" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E260" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E261" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E262" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E263" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E264" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E265" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E266" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E267" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E268" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E269" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E270" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E271" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E272" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E273" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E274" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E275" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E276" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E277" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E278" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E279" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E280" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E281" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E282" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E283" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E284" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E285" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E286" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E287" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E288" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E289" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E290" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E291" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E292" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E293" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E294" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E295" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E296" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E297" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E298" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E299" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E300" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E301" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E302" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E303" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E304" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E305" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E306" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E307" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E308" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E309" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E310" t="s">
-        <v>91</v>
+        <v>338</v>
+      </c>
+      <c r="L191" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="192" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L192" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L193" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L194" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L195" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L196" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L197" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L198" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L199" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L200" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L201" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L202" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L203" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L204" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L205" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L206" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L207" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L208" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L209" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L210" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L211" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L212" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L213" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Información Libros Biblioteca.xlsx
+++ b/Información Libros Biblioteca.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\4º Semestre Enero-Junio\Fundamentos de Bases de Datos\Biblioteca-InformaciónLibrosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\4º Semestre Enero-Junio\Fundamentos de Bases de Datos\Biblioteca-InformaciónLibros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E918CC-3334-4AEA-921F-91D72690E6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC861C48-2CAF-4467-AAC6-21F1C57B6825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FCB9792A-3A95-430D-A81C-CA65B8EAE856}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="977">
   <si>
     <t>Nombre del libro</t>
   </si>
@@ -2667,6 +2667,324 @@
   </si>
   <si>
     <t>811.01H68</t>
+  </si>
+  <si>
+    <t>WALT WHITMAN</t>
+  </si>
+  <si>
+    <t>SALUDO AL MUNDO Y OTROS POEMAS</t>
+  </si>
+  <si>
+    <t>811W42S37</t>
+  </si>
+  <si>
+    <t>COLIHUE</t>
+  </si>
+  <si>
+    <t>EL PALACIO DE LA LUNA</t>
+  </si>
+  <si>
+    <t>813A93P35</t>
+  </si>
+  <si>
+    <t>PAUL AUSTER</t>
+  </si>
+  <si>
+    <t>VIGESIMA CUARTA EDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA VIUDA BASQUIAT </t>
+  </si>
+  <si>
+    <t>JENNIFER CLEMENT</t>
+  </si>
+  <si>
+    <t>813C487V62</t>
+  </si>
+  <si>
+    <t>LA CENTENA</t>
+  </si>
+  <si>
+    <t>LA VUELTA DE TUERCA</t>
+  </si>
+  <si>
+    <t>HENRY JAMES</t>
+  </si>
+  <si>
+    <t>813J36V85</t>
+  </si>
+  <si>
+    <t>EL MEXICANO</t>
+  </si>
+  <si>
+    <t>813L624M474</t>
+  </si>
+  <si>
+    <t>JACK LONDON</t>
+  </si>
+  <si>
+    <t>EL MORADOR DE LAS SOMBRAS Y OTROS CUENTOS DE CTHULHU</t>
+  </si>
+  <si>
+    <t>H.P.LOVECRAFT</t>
+  </si>
+  <si>
+    <t>813L68M67</t>
+  </si>
+  <si>
+    <t>EL GATO NEGRO Y OTROS CUENTOS DE HORROR</t>
+  </si>
+  <si>
+    <t>EDGAR ALLAN POE</t>
+  </si>
+  <si>
+    <t>813P63G37</t>
+  </si>
+  <si>
+    <t>EL PRINCIPITO</t>
+  </si>
+  <si>
+    <t>ANTOINE DE SAINT-EXUPÉRY</t>
+  </si>
+  <si>
+    <t>843S227P687</t>
+  </si>
+  <si>
+    <t>LA LABOR DE UN HOMBRE</t>
+  </si>
+  <si>
+    <t>813.01CH32</t>
+  </si>
+  <si>
+    <t>JOAQUÍN -ARMANDO CHACÓN</t>
+  </si>
+  <si>
+    <t>SELLO BERMEJO</t>
+  </si>
+  <si>
+    <t>LEJOS DEL POLVO</t>
+  </si>
+  <si>
+    <t>J813H47L45</t>
+  </si>
+  <si>
+    <t>KAREN HESSE</t>
+  </si>
+  <si>
+    <t>CONVERSACIÓN CON LOS DIFUNTOS</t>
+  </si>
+  <si>
+    <t>ELISEO DIEGO</t>
+  </si>
+  <si>
+    <t>821.08C662013</t>
+  </si>
+  <si>
+    <t>HAMLET</t>
+  </si>
+  <si>
+    <t>WILLIAM SHAKESPEARE</t>
+  </si>
+  <si>
+    <t>822S5M35</t>
+  </si>
+  <si>
+    <t>LA IMPORTANCIA DE LLAMARSE ERNEST: EL FANTASMA DE CANTERVILLE</t>
+  </si>
+  <si>
+    <t>822W54I39</t>
+  </si>
+  <si>
+    <t>OSCAR WILDE</t>
+  </si>
+  <si>
+    <t>OLALLA</t>
+  </si>
+  <si>
+    <t>ROBERT LOUIS STEVENSON</t>
+  </si>
+  <si>
+    <t>823S79O385</t>
+  </si>
+  <si>
+    <t>EL CORAZÓN DE LAS TINIEBLAS</t>
+  </si>
+  <si>
+    <t>JOSEPH CONRAD</t>
+  </si>
+  <si>
+    <t>823C68C663</t>
+  </si>
+  <si>
+    <t>LOS PAPELES DE ASPERN</t>
+  </si>
+  <si>
+    <t>823J35P365</t>
+  </si>
+  <si>
+    <t>ENSAYOS SOBE POESÍA</t>
+  </si>
+  <si>
+    <t>MÓNICA MANSOUR</t>
+  </si>
+  <si>
+    <t>861HM36E57</t>
+  </si>
+  <si>
+    <t>CAMINO A FRANKENSTEIN</t>
+  </si>
+  <si>
+    <t>J823S54C35</t>
+  </si>
+  <si>
+    <t>ALEJANDRO SPIEGEL, SERGIO SAPOSNIC</t>
+  </si>
+  <si>
+    <t>EL REY LEAR</t>
+  </si>
+  <si>
+    <t>822.33S5R37</t>
+  </si>
+  <si>
+    <t>PLANETA MEXICANA</t>
+  </si>
+  <si>
+    <t>LA MÁQUINA DEL TIEMPO. LA GUERRA DE LOS MUNDOS.</t>
+  </si>
+  <si>
+    <t>B23W42G88</t>
+  </si>
+  <si>
+    <t>H.G.WELLLS</t>
+  </si>
+  <si>
+    <t>PORRÚA MÉXICO</t>
+  </si>
+  <si>
+    <t>QUINTA EDICIÓN</t>
+  </si>
+  <si>
+    <t>D.H LAWRENCE</t>
+  </si>
+  <si>
+    <t>ST. MAWR</t>
+  </si>
+  <si>
+    <t>823L35S73</t>
+  </si>
+  <si>
+    <t>TRISTÁN E ISOLDA</t>
+  </si>
+  <si>
+    <t>BÉRUL Y THOMAS</t>
+  </si>
+  <si>
+    <t>831B47T74</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>GOETHE</t>
+  </si>
+  <si>
+    <t>832G66F537</t>
+  </si>
+  <si>
+    <t>HERMANN BROCH UNA PASIÓN DESDICHADA</t>
+  </si>
+  <si>
+    <t>JOSÉ MARÍA PÉREZ GAY</t>
+  </si>
+  <si>
+    <t>833.01AP47</t>
+  </si>
+  <si>
+    <t>ANTOLOGÍA</t>
+  </si>
+  <si>
+    <t>ANDRÉ BRETON</t>
+  </si>
+  <si>
+    <t>LETRAS VIVAS</t>
+  </si>
+  <si>
+    <t>841B73A57</t>
+  </si>
+  <si>
+    <t>EL OTRO MUNDO</t>
+  </si>
+  <si>
+    <t>CYRANO DE BERGERAC</t>
+  </si>
+  <si>
+    <t>843C89O855</t>
+  </si>
+  <si>
+    <t>HISTORIAS DEL ESPEJO</t>
+  </si>
+  <si>
+    <t>ELFRIEDE JELINEK Y MAMRIO BELLATIN</t>
+  </si>
+  <si>
+    <t>833.08AH57</t>
+  </si>
+  <si>
+    <t>ENGANCHADO</t>
+  </si>
+  <si>
+    <t>833M42E53</t>
+  </si>
+  <si>
+    <t>AGELIKA MECHTEL</t>
+  </si>
+  <si>
+    <t>CORRESPONDECIA 1943-1955</t>
+  </si>
+  <si>
+    <t>THEODOR W. ADORNO, THOMAS MANN</t>
+  </si>
+  <si>
+    <t>836A27</t>
+  </si>
+  <si>
+    <t>FONDO DE CULTURA ECONOMICA</t>
+  </si>
+  <si>
+    <t>EL CARRETERO DE LA MUERTE</t>
+  </si>
+  <si>
+    <t>ELMA LAGERLÖF</t>
+  </si>
+  <si>
+    <t>839.73L34C34</t>
+  </si>
+  <si>
+    <t>CLÁSICOS PARA HOY</t>
+  </si>
+  <si>
+    <t>ALBERTO SAVARUS</t>
+  </si>
+  <si>
+    <t>HONORÉ DE BALZAC</t>
+  </si>
+  <si>
+    <t>843B35A41</t>
+  </si>
+  <si>
+    <t>EUGÉNIE GRANDET</t>
+  </si>
+  <si>
+    <t>843B35E9115</t>
+  </si>
+  <si>
+    <t>GUSTAVE FRAUBERT</t>
+  </si>
+  <si>
+    <t>MADAME BOVARY</t>
+  </si>
+  <si>
+    <t>843F57M282</t>
   </si>
 </sst>
 </file>
@@ -3069,12 +3387,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6CA0C-E573-4DC5-953F-A75EAD0EA7AD}">
-  <dimension ref="A1:M389"/>
+  <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A358" sqref="A358"/>
+      <selection pane="bottomLeft" activeCell="A383" sqref="A383:XFD383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13999,6 +14317,15 @@
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>873</v>
+      </c>
+      <c r="B359" t="s">
+        <v>872</v>
+      </c>
+      <c r="C359" t="s">
+        <v>871</v>
+      </c>
       <c r="D359" t="s">
         <v>841</v>
       </c>
@@ -14008,8 +14335,17 @@
       <c r="F359">
         <v>1</v>
       </c>
+      <c r="G359" t="s">
+        <v>874</v>
+      </c>
+      <c r="H359">
+        <v>209</v>
+      </c>
       <c r="I359" t="s">
         <v>53</v>
+      </c>
+      <c r="J359">
+        <v>2008</v>
       </c>
       <c r="K359">
         <v>1</v>
@@ -14022,6 +14358,15 @@
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>876</v>
+      </c>
+      <c r="B360" t="s">
+        <v>875</v>
+      </c>
+      <c r="C360" t="s">
+        <v>877</v>
+      </c>
       <c r="D360" t="s">
         <v>841</v>
       </c>
@@ -14031,8 +14376,17 @@
       <c r="F360">
         <v>1</v>
       </c>
+      <c r="G360" t="s">
+        <v>176</v>
+      </c>
+      <c r="H360">
+        <v>310</v>
+      </c>
       <c r="I360" t="s">
-        <v>53</v>
+        <v>878</v>
+      </c>
+      <c r="J360">
+        <v>2008</v>
       </c>
       <c r="K360">
         <v>1</v>
@@ -14045,6 +14399,15 @@
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>881</v>
+      </c>
+      <c r="B361" t="s">
+        <v>879</v>
+      </c>
+      <c r="C361" t="s">
+        <v>880</v>
+      </c>
       <c r="D361" t="s">
         <v>841</v>
       </c>
@@ -14054,8 +14417,17 @@
       <c r="F361">
         <v>1</v>
       </c>
+      <c r="G361" t="s">
+        <v>882</v>
+      </c>
+      <c r="H361">
+        <v>63</v>
+      </c>
       <c r="I361" t="s">
         <v>53</v>
+      </c>
+      <c r="J361">
+        <v>2003</v>
       </c>
       <c r="K361">
         <v>1</v>
@@ -14068,6 +14440,15 @@
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>885</v>
+      </c>
+      <c r="B362" t="s">
+        <v>883</v>
+      </c>
+      <c r="C362" t="s">
+        <v>884</v>
+      </c>
       <c r="D362" t="s">
         <v>841</v>
       </c>
@@ -14077,8 +14458,17 @@
       <c r="F362">
         <v>1</v>
       </c>
+      <c r="G362" t="s">
+        <v>68</v>
+      </c>
+      <c r="H362">
+        <v>156</v>
+      </c>
       <c r="I362" t="s">
         <v>53</v>
+      </c>
+      <c r="J362">
+        <v>1996</v>
       </c>
       <c r="K362">
         <v>1</v>
@@ -14091,6 +14481,15 @@
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>887</v>
+      </c>
+      <c r="B363" t="s">
+        <v>886</v>
+      </c>
+      <c r="C363" t="s">
+        <v>888</v>
+      </c>
       <c r="D363" t="s">
         <v>841</v>
       </c>
@@ -14100,8 +14499,17 @@
       <c r="F363">
         <v>1</v>
       </c>
+      <c r="G363" t="s">
+        <v>333</v>
+      </c>
+      <c r="H363">
+        <v>131</v>
+      </c>
       <c r="I363" t="s">
         <v>53</v>
+      </c>
+      <c r="J363">
+        <v>2011</v>
       </c>
       <c r="K363">
         <v>1</v>
@@ -14114,6 +14522,15 @@
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>891</v>
+      </c>
+      <c r="B364" t="s">
+        <v>889</v>
+      </c>
+      <c r="C364" t="s">
+        <v>890</v>
+      </c>
       <c r="D364" t="s">
         <v>841</v>
       </c>
@@ -14123,8 +14540,17 @@
       <c r="F364">
         <v>1</v>
       </c>
+      <c r="G364" t="s">
+        <v>709</v>
+      </c>
+      <c r="H364">
+        <v>187</v>
+      </c>
       <c r="I364" t="s">
         <v>53</v>
+      </c>
+      <c r="J364">
+        <v>2005</v>
       </c>
       <c r="K364">
         <v>1</v>
@@ -14137,6 +14563,15 @@
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>894</v>
+      </c>
+      <c r="B365" t="s">
+        <v>892</v>
+      </c>
+      <c r="C365" t="s">
+        <v>893</v>
+      </c>
       <c r="D365" t="s">
         <v>841</v>
       </c>
@@ -14146,8 +14581,17 @@
       <c r="F365">
         <v>1</v>
       </c>
+      <c r="G365" t="s">
+        <v>852</v>
+      </c>
+      <c r="H365">
+        <v>146</v>
+      </c>
       <c r="I365" t="s">
-        <v>53</v>
+        <v>177</v>
+      </c>
+      <c r="J365">
+        <v>2002</v>
       </c>
       <c r="K365">
         <v>1</v>
@@ -14160,6 +14604,15 @@
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>897</v>
+      </c>
+      <c r="B366" t="s">
+        <v>895</v>
+      </c>
+      <c r="C366" t="s">
+        <v>896</v>
+      </c>
       <c r="D366" t="s">
         <v>841</v>
       </c>
@@ -14169,8 +14622,17 @@
       <c r="F366">
         <v>1</v>
       </c>
+      <c r="G366" t="s">
+        <v>709</v>
+      </c>
+      <c r="H366">
+        <v>89</v>
+      </c>
       <c r="I366" t="s">
         <v>53</v>
+      </c>
+      <c r="J366">
+        <v>2006</v>
       </c>
       <c r="K366">
         <v>1</v>
@@ -14183,6 +14645,15 @@
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>899</v>
+      </c>
+      <c r="B367" t="s">
+        <v>898</v>
+      </c>
+      <c r="C367" t="s">
+        <v>900</v>
+      </c>
       <c r="D367" t="s">
         <v>841</v>
       </c>
@@ -14192,8 +14663,17 @@
       <c r="F367">
         <v>1</v>
       </c>
+      <c r="G367" t="s">
+        <v>901</v>
+      </c>
+      <c r="H367">
+        <v>34</v>
+      </c>
       <c r="I367" t="s">
         <v>53</v>
+      </c>
+      <c r="J367">
+        <v>2002</v>
       </c>
       <c r="K367">
         <v>1</v>
@@ -14206,6 +14686,15 @@
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>903</v>
+      </c>
+      <c r="B368" t="s">
+        <v>902</v>
+      </c>
+      <c r="C368" t="s">
+        <v>904</v>
+      </c>
       <c r="D368" t="s">
         <v>841</v>
       </c>
@@ -14215,8 +14704,17 @@
       <c r="F368">
         <v>1</v>
       </c>
+      <c r="G368" t="s">
+        <v>867</v>
+      </c>
+      <c r="H368">
+        <v>211</v>
+      </c>
       <c r="I368" t="s">
         <v>53</v>
+      </c>
+      <c r="J368">
+        <v>2000</v>
       </c>
       <c r="K368">
         <v>1</v>
@@ -14228,7 +14726,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="369" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>907</v>
+      </c>
+      <c r="B369" t="s">
+        <v>905</v>
+      </c>
+      <c r="C369" t="s">
+        <v>906</v>
+      </c>
       <c r="D369" t="s">
         <v>841</v>
       </c>
@@ -14238,8 +14745,17 @@
       <c r="F369">
         <v>1</v>
       </c>
+      <c r="G369" t="s">
+        <v>68</v>
+      </c>
+      <c r="H369">
+        <v>117</v>
+      </c>
       <c r="I369" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="J369">
+        <v>2013</v>
       </c>
       <c r="K369">
         <v>1</v>
@@ -14251,7 +14767,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>910</v>
+      </c>
+      <c r="B370" t="s">
+        <v>908</v>
+      </c>
+      <c r="C370" t="s">
+        <v>909</v>
+      </c>
       <c r="D370" t="s">
         <v>841</v>
       </c>
@@ -14261,8 +14786,17 @@
       <c r="F370">
         <v>1</v>
       </c>
+      <c r="G370" t="s">
+        <v>110</v>
+      </c>
+      <c r="H370">
+        <v>212</v>
+      </c>
       <c r="I370" t="s">
         <v>53</v>
+      </c>
+      <c r="J370">
+        <v>1999</v>
       </c>
       <c r="K370">
         <v>1</v>
@@ -14274,7 +14808,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="371" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>912</v>
+      </c>
+      <c r="B371" t="s">
+        <v>911</v>
+      </c>
+      <c r="C371" t="s">
+        <v>913</v>
+      </c>
       <c r="D371" t="s">
         <v>841</v>
       </c>
@@ -14284,8 +14827,17 @@
       <c r="F371">
         <v>1</v>
       </c>
+      <c r="G371" t="s">
+        <v>68</v>
+      </c>
+      <c r="H371">
+        <v>125</v>
+      </c>
       <c r="I371" t="s">
         <v>53</v>
+      </c>
+      <c r="J371">
+        <v>2013</v>
       </c>
       <c r="K371">
         <v>1</v>
@@ -14297,7 +14849,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>916</v>
+      </c>
+      <c r="B372" t="s">
+        <v>914</v>
+      </c>
+      <c r="C372" t="s">
+        <v>915</v>
+      </c>
       <c r="D372" t="s">
         <v>841</v>
       </c>
@@ -14307,8 +14868,17 @@
       <c r="F372">
         <v>1</v>
       </c>
+      <c r="G372" t="s">
+        <v>68</v>
+      </c>
+      <c r="H372">
+        <v>60</v>
+      </c>
       <c r="I372" t="s">
         <v>53</v>
+      </c>
+      <c r="J372">
+        <v>1996</v>
       </c>
       <c r="K372">
         <v>1</v>
@@ -14320,7 +14890,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="373" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>919</v>
+      </c>
+      <c r="B373" t="s">
+        <v>917</v>
+      </c>
+      <c r="C373" t="s">
+        <v>918</v>
+      </c>
       <c r="D373" t="s">
         <v>841</v>
       </c>
@@ -14330,8 +14909,17 @@
       <c r="F373">
         <v>1</v>
       </c>
+      <c r="G373" t="s">
+        <v>68</v>
+      </c>
+      <c r="H373">
+        <v>140</v>
+      </c>
       <c r="I373" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="J373">
+        <v>2011</v>
       </c>
       <c r="K373">
         <v>1</v>
@@ -14343,7 +14931,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="374" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>921</v>
+      </c>
+      <c r="B374" t="s">
+        <v>920</v>
+      </c>
+      <c r="C374" t="s">
+        <v>884</v>
+      </c>
       <c r="D374" t="s">
         <v>841</v>
       </c>
@@ -14353,8 +14950,17 @@
       <c r="F374">
         <v>1</v>
       </c>
+      <c r="G374" t="s">
+        <v>68</v>
+      </c>
+      <c r="H374">
+        <v>141</v>
+      </c>
       <c r="I374" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="J374">
+        <v>2013</v>
       </c>
       <c r="K374">
         <v>1</v>
@@ -14366,7 +14972,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="375" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>924</v>
+      </c>
+      <c r="B375" t="s">
+        <v>922</v>
+      </c>
+      <c r="C375" t="s">
+        <v>923</v>
+      </c>
       <c r="D375" t="s">
         <v>841</v>
       </c>
@@ -14376,8 +14991,17 @@
       <c r="F375">
         <v>1</v>
       </c>
+      <c r="G375" t="s">
+        <v>225</v>
+      </c>
+      <c r="H375">
+        <v>377</v>
+      </c>
       <c r="I375" t="s">
         <v>53</v>
+      </c>
+      <c r="J375">
+        <v>1993</v>
       </c>
       <c r="K375">
         <v>1</v>
@@ -14386,10 +15010,19 @@
         <v>842</v>
       </c>
       <c r="M375" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="376" spans="4:13" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>926</v>
+      </c>
+      <c r="B376" t="s">
+        <v>925</v>
+      </c>
+      <c r="C376" t="s">
+        <v>927</v>
+      </c>
       <c r="D376" t="s">
         <v>841</v>
       </c>
@@ -14399,8 +15032,17 @@
       <c r="F376">
         <v>1</v>
       </c>
+      <c r="G376" t="s">
+        <v>68</v>
+      </c>
+      <c r="H376">
+        <v>127</v>
+      </c>
       <c r="I376" t="s">
         <v>53</v>
+      </c>
+      <c r="J376">
+        <v>2013</v>
       </c>
       <c r="K376">
         <v>1</v>
@@ -14412,7 +15054,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="377" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>929</v>
+      </c>
+      <c r="B377" t="s">
+        <v>928</v>
+      </c>
+      <c r="C377" t="s">
+        <v>909</v>
+      </c>
       <c r="D377" t="s">
         <v>841</v>
       </c>
@@ -14422,8 +15073,17 @@
       <c r="F377">
         <v>1</v>
       </c>
+      <c r="G377" t="s">
+        <v>930</v>
+      </c>
+      <c r="H377">
+        <v>202</v>
+      </c>
       <c r="I377" t="s">
         <v>53</v>
+      </c>
+      <c r="J377">
+        <v>1992</v>
       </c>
       <c r="K377">
         <v>1</v>
@@ -14435,7 +15095,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="378" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>932</v>
+      </c>
+      <c r="B378" t="s">
+        <v>931</v>
+      </c>
+      <c r="C378" t="s">
+        <v>933</v>
+      </c>
       <c r="D378" t="s">
         <v>841</v>
       </c>
@@ -14445,8 +15114,17 @@
       <c r="F378">
         <v>1</v>
       </c>
+      <c r="G378" t="s">
+        <v>934</v>
+      </c>
+      <c r="H378">
+        <v>224</v>
+      </c>
       <c r="I378" t="s">
-        <v>53</v>
+        <v>935</v>
+      </c>
+      <c r="J378">
+        <v>2007</v>
       </c>
       <c r="K378">
         <v>1</v>
@@ -14458,7 +15136,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="379" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>938</v>
+      </c>
+      <c r="B379" t="s">
+        <v>936</v>
+      </c>
+      <c r="C379" t="s">
+        <v>937</v>
+      </c>
       <c r="D379" t="s">
         <v>841</v>
       </c>
@@ -14468,8 +15155,17 @@
       <c r="F379">
         <v>1</v>
       </c>
+      <c r="G379" t="s">
+        <v>68</v>
+      </c>
+      <c r="H379">
+        <v>169</v>
+      </c>
       <c r="I379" t="s">
         <v>53</v>
+      </c>
+      <c r="J379">
+        <v>2002</v>
       </c>
       <c r="K379">
         <v>1</v>
@@ -14481,7 +15177,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="380" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>941</v>
+      </c>
+      <c r="B380" t="s">
+        <v>939</v>
+      </c>
+      <c r="C380" t="s">
+        <v>940</v>
+      </c>
       <c r="D380" t="s">
         <v>841</v>
       </c>
@@ -14491,8 +15196,17 @@
       <c r="F380">
         <v>1</v>
       </c>
+      <c r="G380" t="s">
+        <v>295</v>
+      </c>
+      <c r="H380">
+        <v>156</v>
+      </c>
       <c r="I380" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="J380">
+        <v>2010</v>
       </c>
       <c r="K380">
         <v>1</v>
@@ -14504,7 +15218,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="381" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>944</v>
+      </c>
+      <c r="B381" t="s">
+        <v>942</v>
+      </c>
+      <c r="C381" t="s">
+        <v>943</v>
+      </c>
       <c r="D381" t="s">
         <v>841</v>
       </c>
@@ -14514,8 +15237,17 @@
       <c r="F381">
         <v>1</v>
       </c>
+      <c r="G381" t="s">
+        <v>930</v>
+      </c>
+      <c r="H381">
+        <v>418</v>
+      </c>
       <c r="I381" t="s">
         <v>53</v>
+      </c>
+      <c r="J381">
+        <v>1998</v>
       </c>
       <c r="K381">
         <v>1</v>
@@ -14527,7 +15259,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="382" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>947</v>
+      </c>
+      <c r="B382" t="s">
+        <v>945</v>
+      </c>
+      <c r="C382" t="s">
+        <v>946</v>
+      </c>
       <c r="D382" t="s">
         <v>841</v>
       </c>
@@ -14537,8 +15278,17 @@
       <c r="F382">
         <v>1</v>
       </c>
+      <c r="G382" t="s">
+        <v>68</v>
+      </c>
+      <c r="H382">
+        <v>115</v>
+      </c>
       <c r="I382" t="s">
         <v>53</v>
+      </c>
+      <c r="J382">
+        <v>2004</v>
       </c>
       <c r="K382">
         <v>1</v>
@@ -14550,7 +15300,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="383" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>957</v>
+      </c>
+      <c r="B383" t="s">
+        <v>955</v>
+      </c>
+      <c r="C383" t="s">
+        <v>956</v>
+      </c>
       <c r="D383" t="s">
         <v>841</v>
       </c>
@@ -14560,8 +15319,17 @@
       <c r="F383">
         <v>1</v>
       </c>
+      <c r="G383" t="s">
+        <v>295</v>
+      </c>
+      <c r="H383">
+        <v>219</v>
+      </c>
       <c r="I383" t="s">
         <v>53</v>
+      </c>
+      <c r="J383">
+        <v>2012</v>
       </c>
       <c r="K383">
         <v>1</v>
@@ -14573,7 +15341,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="384" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>959</v>
+      </c>
+      <c r="B384" t="s">
+        <v>958</v>
+      </c>
+      <c r="C384" t="s">
+        <v>960</v>
+      </c>
       <c r="D384" t="s">
         <v>841</v>
       </c>
@@ -14583,8 +15360,17 @@
       <c r="F384">
         <v>1</v>
       </c>
+      <c r="G384" t="s">
+        <v>867</v>
+      </c>
+      <c r="H384">
+        <v>139</v>
+      </c>
       <c r="I384" t="s">
         <v>53</v>
+      </c>
+      <c r="J384">
+        <v>1992</v>
       </c>
       <c r="K384">
         <v>1</v>
@@ -14596,7 +15382,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>963</v>
+      </c>
+      <c r="B385" t="s">
+        <v>961</v>
+      </c>
+      <c r="C385" t="s">
+        <v>962</v>
+      </c>
       <c r="D385" t="s">
         <v>841</v>
       </c>
@@ -14606,8 +15401,17 @@
       <c r="F385">
         <v>1</v>
       </c>
+      <c r="G385" t="s">
+        <v>964</v>
+      </c>
+      <c r="H385">
+        <v>178</v>
+      </c>
       <c r="I385" t="s">
         <v>53</v>
+      </c>
+      <c r="J385">
+        <v>2006</v>
       </c>
       <c r="K385">
         <v>1</v>
@@ -14619,7 +15423,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="386" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>967</v>
+      </c>
+      <c r="B386" t="s">
+        <v>965</v>
+      </c>
+      <c r="C386" t="s">
+        <v>966</v>
+      </c>
       <c r="D386" t="s">
         <v>841</v>
       </c>
@@ -14629,8 +15442,17 @@
       <c r="F386">
         <v>1</v>
       </c>
+      <c r="G386" t="s">
+        <v>968</v>
+      </c>
+      <c r="H386">
+        <v>126</v>
+      </c>
       <c r="I386" t="s">
         <v>53</v>
+      </c>
+      <c r="J386">
+        <v>1997</v>
       </c>
       <c r="K386">
         <v>1</v>
@@ -14642,7 +15464,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="387" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>951</v>
+      </c>
+      <c r="B387" t="s">
+        <v>948</v>
+      </c>
+      <c r="C387" t="s">
+        <v>949</v>
+      </c>
       <c r="D387" t="s">
         <v>841</v>
       </c>
@@ -14652,8 +15483,17 @@
       <c r="F387">
         <v>1</v>
       </c>
+      <c r="G387" t="s">
+        <v>950</v>
+      </c>
+      <c r="H387">
+        <v>85</v>
+      </c>
       <c r="I387" t="s">
         <v>53</v>
+      </c>
+      <c r="J387">
+        <v>2000</v>
       </c>
       <c r="K387">
         <v>1</v>
@@ -14662,10 +15502,19 @@
         <v>842</v>
       </c>
       <c r="M387" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="388" spans="4:13" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>971</v>
+      </c>
+      <c r="B388" t="s">
+        <v>969</v>
+      </c>
+      <c r="C388" t="s">
+        <v>970</v>
+      </c>
       <c r="D388" t="s">
         <v>841</v>
       </c>
@@ -14675,8 +15524,17 @@
       <c r="F388">
         <v>1</v>
       </c>
+      <c r="G388" t="s">
+        <v>968</v>
+      </c>
+      <c r="H388">
+        <v>141</v>
+      </c>
       <c r="I388" t="s">
         <v>53</v>
+      </c>
+      <c r="J388">
+        <v>1999</v>
       </c>
       <c r="K388">
         <v>1</v>
@@ -14688,7 +15546,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="389" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>973</v>
+      </c>
+      <c r="B389" t="s">
+        <v>970</v>
+      </c>
+      <c r="C389" t="s">
+        <v>972</v>
+      </c>
       <c r="D389" t="s">
         <v>841</v>
       </c>
@@ -14698,8 +15565,17 @@
       <c r="F389">
         <v>1</v>
       </c>
+      <c r="G389" t="s">
+        <v>930</v>
+      </c>
+      <c r="H389">
+        <v>306</v>
+      </c>
       <c r="I389" t="s">
         <v>53</v>
+      </c>
+      <c r="J389">
+        <v>1947</v>
       </c>
       <c r="K389">
         <v>1</v>
@@ -14709,6 +15585,88 @@
       </c>
       <c r="M389" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>954</v>
+      </c>
+      <c r="B390" t="s">
+        <v>952</v>
+      </c>
+      <c r="C390" t="s">
+        <v>953</v>
+      </c>
+      <c r="D390" t="s">
+        <v>841</v>
+      </c>
+      <c r="E390" t="s">
+        <v>337</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390" t="s">
+        <v>295</v>
+      </c>
+      <c r="H390">
+        <v>229</v>
+      </c>
+      <c r="I390" t="s">
+        <v>53</v>
+      </c>
+      <c r="J390">
+        <v>1992</v>
+      </c>
+      <c r="K390">
+        <v>1</v>
+      </c>
+      <c r="L390" t="s">
+        <v>842</v>
+      </c>
+      <c r="M390" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>976</v>
+      </c>
+      <c r="B391" t="s">
+        <v>974</v>
+      </c>
+      <c r="C391" t="s">
+        <v>975</v>
+      </c>
+      <c r="D391" t="s">
+        <v>841</v>
+      </c>
+      <c r="E391" t="s">
+        <v>337</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+      <c r="G391" t="s">
+        <v>930</v>
+      </c>
+      <c r="H391">
+        <v>447</v>
+      </c>
+      <c r="I391" t="s">
+        <v>53</v>
+      </c>
+      <c r="J391">
+        <v>1993</v>
+      </c>
+      <c r="K391">
+        <v>1</v>
+      </c>
+      <c r="L391" t="s">
+        <v>842</v>
+      </c>
+      <c r="M391" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Información Libros Biblioteca.xlsx
+++ b/Información Libros Biblioteca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\4º Semestre Enero-Junio\Fundamentos de Bases de Datos\Biblioteca-InformaciónLibros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095322A1-97CE-4C27-B254-FD47DBDC4239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64DA238-0C36-43BF-8460-A292AFCB3CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FCB9792A-3A95-430D-A81C-CA65B8EAE856}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="1439">
   <si>
     <t>Nombre del libro</t>
   </si>
@@ -4136,7 +4136,241 @@
     <t>AMADO NERVO</t>
   </si>
   <si>
-    <t>862MN1A6635</t>
+    <t>861MN1A6635</t>
+  </si>
+  <si>
+    <t>861.08MC6554</t>
+  </si>
+  <si>
+    <t>EL CORAZÓN PRESTADO: EL MUNDO PRECOLOMBIANO EN LA POESÍA DE LOS SIGLOS XIX Y XX</t>
+  </si>
+  <si>
+    <t>VÍCTOR MANUEL MENDIOLA</t>
+  </si>
+  <si>
+    <t>DE PIEDRA EN PIEDRA</t>
+  </si>
+  <si>
+    <t>JAIME GARCÍA TERRÉS</t>
+  </si>
+  <si>
+    <t>861MG398D46</t>
+  </si>
+  <si>
+    <t>861MJ83G56</t>
+  </si>
+  <si>
+    <t>SOR JUANA INÉS DE LA CRUZ:</t>
+  </si>
+  <si>
+    <t>DÉCIMAS, GLOSAS, SONETOS, LIRAS</t>
+  </si>
+  <si>
+    <t>861MA48C36</t>
+  </si>
+  <si>
+    <t>CANTO IRREVOCABLE</t>
+  </si>
+  <si>
+    <t>MARTÍN ALMÁDEZ</t>
+  </si>
+  <si>
+    <t>SUEÑOS DEL DESASOSIEGO</t>
+  </si>
+  <si>
+    <t>REYMUNDO AGUILERA</t>
+  </si>
+  <si>
+    <t>861MA3838S83</t>
+  </si>
+  <si>
+    <t>NOVELA EN LOS NOVENTA</t>
+  </si>
+  <si>
+    <t>ERNESTO CARDENAL</t>
+  </si>
+  <si>
+    <t>861NC37N68</t>
+  </si>
+  <si>
+    <t>861MC76J32</t>
+  </si>
+  <si>
+    <t>ELSA CROSS</t>
+  </si>
+  <si>
+    <t>JAGUAR - Y OTROS POEMAS</t>
+  </si>
+  <si>
+    <t>NOCTURNO PEREGRINO - POEMAS ESCOGIDOS</t>
+  </si>
+  <si>
+    <t>SALVADOR DÍAZ MIRÓN</t>
+  </si>
+  <si>
+    <t>861MD53N62</t>
+  </si>
+  <si>
+    <t>ALGUNOS POEMASDELIBERADAMENTE ROMÁNTICOS</t>
+  </si>
+  <si>
+    <t>RENATO LEDUC</t>
+  </si>
+  <si>
+    <t>861ML42A54</t>
+  </si>
+  <si>
+    <t>FABIÁN MUÑOZ</t>
+  </si>
+  <si>
+    <t>861MM862D63</t>
+  </si>
+  <si>
+    <t>DOGAL DE SOMBRAS</t>
+  </si>
+  <si>
+    <t>861MN35P76</t>
+  </si>
+  <si>
+    <t>EL PRIMER ANIMAL</t>
+  </si>
+  <si>
+    <t>THELMA NAVA</t>
+  </si>
+  <si>
+    <t>EN EL VACÍO DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ÁNGEL RAFAEL NUNGARAY</t>
+  </si>
+  <si>
+    <t>861MN77E53</t>
+  </si>
+  <si>
+    <t>PRÁCTICA DE VUELO</t>
+  </si>
+  <si>
+    <t>CARLOS PELLICER</t>
+  </si>
+  <si>
+    <t>861MP42P73</t>
+  </si>
+  <si>
+    <t>DIÁFANAS ESPIGAS</t>
+  </si>
+  <si>
+    <t>RAMÓN PERALTA</t>
+  </si>
+  <si>
+    <t>861MP4637D52</t>
+  </si>
+  <si>
+    <t>TIERRA NATIVA</t>
+  </si>
+  <si>
+    <t>JOSÉ LUIS RIVAS</t>
+  </si>
+  <si>
+    <t>861MR522T54</t>
+  </si>
+  <si>
+    <t>EL TURNO DEL AULLANTE</t>
+  </si>
+  <si>
+    <t>MAX ROJAS</t>
+  </si>
+  <si>
+    <t>861CR64T88</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN FUGAZ</t>
+  </si>
+  <si>
+    <t>ANA EDITH SÁNCHEZ SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>861MS3688D55</t>
+  </si>
+  <si>
+    <t>EL POETA DETRÁS DE LA SONRISA</t>
+  </si>
+  <si>
+    <t>RAFAEL SOLANA</t>
+  </si>
+  <si>
+    <t>861MS64P63</t>
+  </si>
+  <si>
+    <t>AQUÍ ES NUNGUNA PARTE</t>
+  </si>
+  <si>
+    <t>FRANCISCO SERRANO</t>
+  </si>
+  <si>
+    <t>861MS474A68</t>
+  </si>
+  <si>
+    <t>SUPERFICIE SUCESIVA</t>
+  </si>
+  <si>
+    <t>RICARDO SOLÍS</t>
+  </si>
+  <si>
+    <t>861MS644S83</t>
+  </si>
+  <si>
+    <t>861MT32F465</t>
+  </si>
+  <si>
+    <t>LA FERIA - POEMAS MEXICANOS</t>
+  </si>
+  <si>
+    <t>JOSÉ JUAN TABLADA</t>
+  </si>
+  <si>
+    <t>XAVIER VILLAURRUTIA CINCUENTA AÑOS DESPUES DE SU MUERTE</t>
+  </si>
+  <si>
+    <t>MANUEL ULACIA</t>
+  </si>
+  <si>
+    <t>861.01MU42</t>
+  </si>
+  <si>
+    <t>EL CORAZÓN PRESO</t>
+  </si>
+  <si>
+    <t>CONCHA URQUIZA</t>
+  </si>
+  <si>
+    <t>861MU76C85</t>
+  </si>
+  <si>
+    <t>PROHIBIDA AZUL DISTANCIA</t>
+  </si>
+  <si>
+    <t>LEONARDO VARELA</t>
+  </si>
+  <si>
+    <t>861MV3585P76</t>
+  </si>
+  <si>
+    <t>CUATRO OBRAS</t>
+  </si>
+  <si>
+    <t>EMILIO CARBALLIDO</t>
+  </si>
+  <si>
+    <t>862MC37C82</t>
+  </si>
+  <si>
+    <t>HISTORIA DE SOMBRAS</t>
+  </si>
+  <si>
+    <t>SUSANA ZARAGOZA</t>
+  </si>
+  <si>
+    <t>861MZ3518H57</t>
   </si>
 </sst>
 </file>
@@ -4542,12 +4776,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6CA0C-E573-4DC5-953F-A75EAD0EA7AD}">
-  <dimension ref="A1:M459"/>
+  <dimension ref="A1:M604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A442" sqref="A442"/>
+      <selection pane="bottomLeft" activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21556,6 +21790,15 @@
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1363</v>
+      </c>
       <c r="D443" t="s">
         <v>838</v>
       </c>
@@ -21565,8 +21808,17 @@
       <c r="F443">
         <v>1</v>
       </c>
+      <c r="G443" t="s">
+        <v>234</v>
+      </c>
+      <c r="H443">
+        <v>292</v>
+      </c>
       <c r="I443" t="s">
         <v>50</v>
+      </c>
+      <c r="J443">
+        <v>2004</v>
       </c>
       <c r="K443">
         <v>1</v>
@@ -21579,6 +21831,15 @@
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1365</v>
+      </c>
       <c r="D444" t="s">
         <v>838</v>
       </c>
@@ -21588,8 +21849,17 @@
       <c r="F444">
         <v>1</v>
       </c>
+      <c r="G444" t="s">
+        <v>208</v>
+      </c>
+      <c r="H444">
+        <v>181</v>
+      </c>
       <c r="I444" t="s">
         <v>50</v>
+      </c>
+      <c r="J444">
+        <v>2006</v>
       </c>
       <c r="K444">
         <v>1</v>
@@ -21602,6 +21872,15 @@
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1368</v>
+      </c>
       <c r="D445" t="s">
         <v>838</v>
       </c>
@@ -21611,8 +21890,17 @@
       <c r="F445">
         <v>1</v>
       </c>
+      <c r="G445" t="s">
+        <v>927</v>
+      </c>
+      <c r="H445">
+        <v>77</v>
+      </c>
       <c r="I445" t="s">
         <v>50</v>
+      </c>
+      <c r="J445">
+        <v>2002</v>
       </c>
       <c r="K445">
         <v>1</v>
@@ -21625,6 +21913,15 @@
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1372</v>
+      </c>
       <c r="D446" t="s">
         <v>838</v>
       </c>
@@ -21634,8 +21931,17 @@
       <c r="F446">
         <v>1</v>
       </c>
+      <c r="G446" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H446">
+        <v>62</v>
+      </c>
       <c r="I446" t="s">
         <v>50</v>
+      </c>
+      <c r="J446">
+        <v>2003</v>
       </c>
       <c r="K446">
         <v>1</v>
@@ -21648,6 +21954,15 @@
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1374</v>
+      </c>
       <c r="D447" t="s">
         <v>838</v>
       </c>
@@ -21657,8 +21972,17 @@
       <c r="F447">
         <v>1</v>
       </c>
+      <c r="G447" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H447">
+        <v>59</v>
+      </c>
       <c r="I447" t="s">
         <v>50</v>
+      </c>
+      <c r="J447">
+        <v>2004</v>
       </c>
       <c r="K447">
         <v>1</v>
@@ -21671,6 +21995,15 @@
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1377</v>
+      </c>
       <c r="D448" t="s">
         <v>838</v>
       </c>
@@ -21680,8 +22013,17 @@
       <c r="F448">
         <v>1</v>
       </c>
+      <c r="G448" t="s">
+        <v>579</v>
+      </c>
+      <c r="H448">
+        <v>382</v>
+      </c>
       <c r="I448" t="s">
         <v>50</v>
+      </c>
+      <c r="J448">
+        <v>2014</v>
       </c>
       <c r="K448">
         <v>1</v>
@@ -21693,7 +22035,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="449" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1380</v>
+      </c>
       <c r="D449" t="s">
         <v>838</v>
       </c>
@@ -21703,8 +22054,17 @@
       <c r="F449">
         <v>1</v>
       </c>
+      <c r="G449" t="s">
+        <v>208</v>
+      </c>
+      <c r="H449">
+        <v>101</v>
+      </c>
       <c r="I449" t="s">
         <v>50</v>
+      </c>
+      <c r="J449">
+        <v>2002</v>
       </c>
       <c r="K449">
         <v>1</v>
@@ -21716,7 +22076,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="450" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1383</v>
+      </c>
       <c r="D450" t="s">
         <v>838</v>
       </c>
@@ -21726,8 +22095,17 @@
       <c r="F450">
         <v>1</v>
       </c>
+      <c r="G450" t="s">
+        <v>965</v>
+      </c>
+      <c r="H450">
+        <v>250</v>
+      </c>
       <c r="I450" t="s">
         <v>50</v>
+      </c>
+      <c r="J450">
+        <v>2013</v>
       </c>
       <c r="K450">
         <v>1</v>
@@ -21739,7 +22117,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="451" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1386</v>
+      </c>
       <c r="D451" t="s">
         <v>838</v>
       </c>
@@ -21749,8 +22136,17 @@
       <c r="F451">
         <v>1</v>
       </c>
+      <c r="G451" t="s">
+        <v>927</v>
+      </c>
+      <c r="H451">
+        <v>85</v>
+      </c>
       <c r="I451" t="s">
         <v>50</v>
+      </c>
+      <c r="J451">
+        <v>2002</v>
       </c>
       <c r="K451">
         <v>1</v>
@@ -21762,7 +22158,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="452" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1388</v>
+      </c>
       <c r="D452" t="s">
         <v>838</v>
       </c>
@@ -21772,8 +22177,17 @@
       <c r="F452">
         <v>1</v>
       </c>
+      <c r="G452" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H452">
+        <v>83</v>
+      </c>
       <c r="I452" t="s">
         <v>50</v>
+      </c>
+      <c r="J452">
+        <v>2003</v>
       </c>
       <c r="K452">
         <v>1</v>
@@ -21785,7 +22199,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="453" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1393</v>
+      </c>
       <c r="D453" t="s">
         <v>838</v>
       </c>
@@ -21795,8 +22218,17 @@
       <c r="F453">
         <v>1</v>
       </c>
+      <c r="G453" t="s">
+        <v>208</v>
+      </c>
+      <c r="H453">
+        <v>170</v>
+      </c>
       <c r="I453" t="s">
         <v>50</v>
+      </c>
+      <c r="J453">
+        <v>2000</v>
       </c>
       <c r="K453">
         <v>1</v>
@@ -21808,7 +22240,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="454" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1395</v>
+      </c>
       <c r="D454" t="s">
         <v>838</v>
       </c>
@@ -21818,8 +22259,17 @@
       <c r="F454">
         <v>1</v>
       </c>
+      <c r="G454" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H454">
+        <v>97</v>
+      </c>
       <c r="I454" t="s">
         <v>50</v>
+      </c>
+      <c r="J454">
+        <v>2001</v>
       </c>
       <c r="K454">
         <v>1</v>
@@ -21831,29 +22281,3028 @@
         <v>61</v>
       </c>
     </row>
-    <row r="455" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D455" t="s">
+        <v>838</v>
+      </c>
+      <c r="E455" t="s">
+        <v>334</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455" t="s">
+        <v>927</v>
+      </c>
+      <c r="H455">
+        <v>86</v>
+      </c>
+      <c r="I455" t="s">
+        <v>50</v>
+      </c>
+      <c r="J455">
+        <v>2002</v>
+      </c>
+      <c r="K455">
+        <v>1</v>
+      </c>
       <c r="L455" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="456" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M455" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D456" t="s">
+        <v>838</v>
+      </c>
+      <c r="E456" t="s">
+        <v>334</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H456">
+        <v>78</v>
+      </c>
+      <c r="I456" t="s">
+        <v>50</v>
+      </c>
+      <c r="J456">
+        <v>2003</v>
+      </c>
+      <c r="K456">
+        <v>1</v>
+      </c>
       <c r="L456" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="457" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M456" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D457" t="s">
+        <v>838</v>
+      </c>
+      <c r="E457" t="s">
+        <v>334</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457" t="s">
+        <v>65</v>
+      </c>
+      <c r="H457">
+        <v>90</v>
+      </c>
+      <c r="I457" t="s">
+        <v>50</v>
+      </c>
+      <c r="J457">
+        <v>2002</v>
+      </c>
+      <c r="K457">
+        <v>1</v>
+      </c>
       <c r="L457" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="458" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M457" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D458" t="s">
+        <v>838</v>
+      </c>
+      <c r="E458" t="s">
+        <v>334</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458" t="s">
+        <v>65</v>
+      </c>
+      <c r="H458">
+        <v>52</v>
+      </c>
+      <c r="I458" t="s">
+        <v>50</v>
+      </c>
+      <c r="J458">
+        <v>2003</v>
+      </c>
+      <c r="K458">
+        <v>1</v>
+      </c>
       <c r="L458" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="459" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M458" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D459" t="s">
+        <v>838</v>
+      </c>
+      <c r="E459" t="s">
+        <v>334</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H459">
+        <v>93</v>
+      </c>
+      <c r="I459" t="s">
+        <v>50</v>
+      </c>
+      <c r="J459">
+        <v>2004</v>
+      </c>
+      <c r="K459">
+        <v>1</v>
+      </c>
       <c r="L459" t="s">
         <v>839</v>
+      </c>
+      <c r="M459" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D460" t="s">
+        <v>838</v>
+      </c>
+      <c r="E460" t="s">
+        <v>334</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+      <c r="G460" t="s">
+        <v>208</v>
+      </c>
+      <c r="H460">
+        <v>143</v>
+      </c>
+      <c r="I460" t="s">
+        <v>50</v>
+      </c>
+      <c r="J460">
+        <v>2004</v>
+      </c>
+      <c r="K460">
+        <v>2</v>
+      </c>
+      <c r="L460" t="s">
+        <v>839</v>
+      </c>
+      <c r="M460" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D461" t="s">
+        <v>838</v>
+      </c>
+      <c r="E461" t="s">
+        <v>334</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461" t="s">
+        <v>208</v>
+      </c>
+      <c r="H461">
+        <v>254</v>
+      </c>
+      <c r="I461" t="s">
+        <v>50</v>
+      </c>
+      <c r="J461">
+        <v>2000</v>
+      </c>
+      <c r="K461">
+        <v>1</v>
+      </c>
+      <c r="L461" t="s">
+        <v>839</v>
+      </c>
+      <c r="M461" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D462" t="s">
+        <v>838</v>
+      </c>
+      <c r="E462" t="s">
+        <v>334</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H462">
+        <v>73</v>
+      </c>
+      <c r="I462" t="s">
+        <v>50</v>
+      </c>
+      <c r="J462">
+        <v>2002</v>
+      </c>
+      <c r="K462">
+        <v>2</v>
+      </c>
+      <c r="L462" t="s">
+        <v>839</v>
+      </c>
+      <c r="M462" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D463" t="s">
+        <v>838</v>
+      </c>
+      <c r="E463" t="s">
+        <v>334</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463" t="s">
+        <v>65</v>
+      </c>
+      <c r="H463">
+        <v>191</v>
+      </c>
+      <c r="I463" t="s">
+        <v>50</v>
+      </c>
+      <c r="J463">
+        <v>1928</v>
+      </c>
+      <c r="K463">
+        <v>1</v>
+      </c>
+      <c r="L463" t="s">
+        <v>839</v>
+      </c>
+      <c r="M463" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D464" t="s">
+        <v>838</v>
+      </c>
+      <c r="E464" t="s">
+        <v>334</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464" t="s">
+        <v>65</v>
+      </c>
+      <c r="H464">
+        <v>77</v>
+      </c>
+      <c r="I464" t="s">
+        <v>50</v>
+      </c>
+      <c r="J464">
+        <v>2001</v>
+      </c>
+      <c r="K464">
+        <v>1</v>
+      </c>
+      <c r="L464" t="s">
+        <v>839</v>
+      </c>
+      <c r="M464" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D465" t="s">
+        <v>838</v>
+      </c>
+      <c r="E465" t="s">
+        <v>334</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465" t="s">
+        <v>208</v>
+      </c>
+      <c r="H465">
+        <v>205</v>
+      </c>
+      <c r="I465" t="s">
+        <v>50</v>
+      </c>
+      <c r="J465">
+        <v>1990</v>
+      </c>
+      <c r="K465">
+        <v>1</v>
+      </c>
+      <c r="L465" t="s">
+        <v>839</v>
+      </c>
+      <c r="M465" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D466" t="s">
+        <v>838</v>
+      </c>
+      <c r="E466" t="s">
+        <v>334</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H466">
+        <v>90</v>
+      </c>
+      <c r="I466" t="s">
+        <v>50</v>
+      </c>
+      <c r="J466">
+        <v>2001</v>
+      </c>
+      <c r="K466">
+        <v>1</v>
+      </c>
+      <c r="L466" t="s">
+        <v>839</v>
+      </c>
+      <c r="M466" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D467" t="s">
+        <v>838</v>
+      </c>
+      <c r="E467" t="s">
+        <v>334</v>
+      </c>
+      <c r="F467">
+        <v>1</v>
+      </c>
+      <c r="G467" t="s">
+        <v>208</v>
+      </c>
+      <c r="H467">
+        <v>143</v>
+      </c>
+      <c r="I467" t="s">
+        <v>50</v>
+      </c>
+      <c r="J467">
+        <v>2011</v>
+      </c>
+      <c r="K467">
+        <v>1</v>
+      </c>
+      <c r="L467" t="s">
+        <v>839</v>
+      </c>
+      <c r="M467" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D468" t="s">
+        <v>838</v>
+      </c>
+      <c r="E468" t="s">
+        <v>334</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H468">
+        <v>94</v>
+      </c>
+      <c r="I468" t="s">
+        <v>50</v>
+      </c>
+      <c r="J468">
+        <v>2001</v>
+      </c>
+      <c r="K468">
+        <v>2</v>
+      </c>
+      <c r="L468" t="s">
+        <v>839</v>
+      </c>
+      <c r="M468" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D469" t="s">
+        <v>838</v>
+      </c>
+      <c r="E469" t="s">
+        <v>334</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I469" t="s">
+        <v>50</v>
+      </c>
+      <c r="K469">
+        <v>1</v>
+      </c>
+      <c r="L469" t="s">
+        <v>839</v>
+      </c>
+      <c r="M469" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D470" t="s">
+        <v>838</v>
+      </c>
+      <c r="E470" t="s">
+        <v>334</v>
+      </c>
+      <c r="F470">
+        <v>1</v>
+      </c>
+      <c r="G470" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I470" t="s">
+        <v>50</v>
+      </c>
+      <c r="K470">
+        <v>1</v>
+      </c>
+      <c r="L470" t="s">
+        <v>839</v>
+      </c>
+      <c r="M470" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D471" t="s">
+        <v>838</v>
+      </c>
+      <c r="E471" t="s">
+        <v>334</v>
+      </c>
+      <c r="F471">
+        <v>1</v>
+      </c>
+      <c r="I471" t="s">
+        <v>50</v>
+      </c>
+      <c r="K471">
+        <v>1</v>
+      </c>
+      <c r="L471" t="s">
+        <v>839</v>
+      </c>
+      <c r="M471" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D472" t="s">
+        <v>838</v>
+      </c>
+      <c r="E472" t="s">
+        <v>334</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+      <c r="I472" t="s">
+        <v>50</v>
+      </c>
+      <c r="K472">
+        <v>1</v>
+      </c>
+      <c r="L472" t="s">
+        <v>839</v>
+      </c>
+      <c r="M472" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D473" t="s">
+        <v>838</v>
+      </c>
+      <c r="E473" t="s">
+        <v>334</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+      <c r="I473" t="s">
+        <v>50</v>
+      </c>
+      <c r="K473">
+        <v>1</v>
+      </c>
+      <c r="L473" t="s">
+        <v>839</v>
+      </c>
+      <c r="M473" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D474" t="s">
+        <v>838</v>
+      </c>
+      <c r="E474" t="s">
+        <v>334</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="I474" t="s">
+        <v>50</v>
+      </c>
+      <c r="K474">
+        <v>1</v>
+      </c>
+      <c r="L474" t="s">
+        <v>839</v>
+      </c>
+      <c r="M474" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D475" t="s">
+        <v>838</v>
+      </c>
+      <c r="E475" t="s">
+        <v>334</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="I475" t="s">
+        <v>50</v>
+      </c>
+      <c r="K475">
+        <v>1</v>
+      </c>
+      <c r="L475" t="s">
+        <v>839</v>
+      </c>
+      <c r="M475" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D476" t="s">
+        <v>838</v>
+      </c>
+      <c r="E476" t="s">
+        <v>334</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="I476" t="s">
+        <v>50</v>
+      </c>
+      <c r="K476">
+        <v>1</v>
+      </c>
+      <c r="L476" t="s">
+        <v>839</v>
+      </c>
+      <c r="M476" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D477" t="s">
+        <v>838</v>
+      </c>
+      <c r="E477" t="s">
+        <v>334</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="I477" t="s">
+        <v>50</v>
+      </c>
+      <c r="K477">
+        <v>1</v>
+      </c>
+      <c r="L477" t="s">
+        <v>839</v>
+      </c>
+      <c r="M477" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D478" t="s">
+        <v>838</v>
+      </c>
+      <c r="E478" t="s">
+        <v>334</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+      <c r="I478" t="s">
+        <v>50</v>
+      </c>
+      <c r="K478">
+        <v>1</v>
+      </c>
+      <c r="L478" t="s">
+        <v>839</v>
+      </c>
+      <c r="M478" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D479" t="s">
+        <v>838</v>
+      </c>
+      <c r="E479" t="s">
+        <v>334</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="I479" t="s">
+        <v>50</v>
+      </c>
+      <c r="K479">
+        <v>1</v>
+      </c>
+      <c r="L479" t="s">
+        <v>839</v>
+      </c>
+      <c r="M479" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D480" t="s">
+        <v>838</v>
+      </c>
+      <c r="E480" t="s">
+        <v>334</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+      <c r="I480" t="s">
+        <v>50</v>
+      </c>
+      <c r="K480">
+        <v>1</v>
+      </c>
+      <c r="L480" t="s">
+        <v>839</v>
+      </c>
+      <c r="M480" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="481" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D481" t="s">
+        <v>838</v>
+      </c>
+      <c r="E481" t="s">
+        <v>334</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+      <c r="I481" t="s">
+        <v>50</v>
+      </c>
+      <c r="K481">
+        <v>1</v>
+      </c>
+      <c r="L481" t="s">
+        <v>839</v>
+      </c>
+      <c r="M481" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="482" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D482" t="s">
+        <v>838</v>
+      </c>
+      <c r="E482" t="s">
+        <v>334</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="I482" t="s">
+        <v>50</v>
+      </c>
+      <c r="K482">
+        <v>1</v>
+      </c>
+      <c r="L482" t="s">
+        <v>839</v>
+      </c>
+      <c r="M482" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="483" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D483" t="s">
+        <v>838</v>
+      </c>
+      <c r="E483" t="s">
+        <v>334</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+      <c r="I483" t="s">
+        <v>50</v>
+      </c>
+      <c r="K483">
+        <v>1</v>
+      </c>
+      <c r="L483" t="s">
+        <v>839</v>
+      </c>
+      <c r="M483" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="484" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D484" t="s">
+        <v>838</v>
+      </c>
+      <c r="E484" t="s">
+        <v>334</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
+      </c>
+      <c r="I484" t="s">
+        <v>50</v>
+      </c>
+      <c r="K484">
+        <v>1</v>
+      </c>
+      <c r="L484" t="s">
+        <v>839</v>
+      </c>
+      <c r="M484" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="485" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D485" t="s">
+        <v>838</v>
+      </c>
+      <c r="E485" t="s">
+        <v>334</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
+      </c>
+      <c r="I485" t="s">
+        <v>50</v>
+      </c>
+      <c r="K485">
+        <v>1</v>
+      </c>
+      <c r="L485" t="s">
+        <v>839</v>
+      </c>
+      <c r="M485" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="486" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D486" t="s">
+        <v>838</v>
+      </c>
+      <c r="E486" t="s">
+        <v>334</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
+      </c>
+      <c r="I486" t="s">
+        <v>50</v>
+      </c>
+      <c r="K486">
+        <v>1</v>
+      </c>
+      <c r="L486" t="s">
+        <v>839</v>
+      </c>
+      <c r="M486" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="487" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D487" t="s">
+        <v>838</v>
+      </c>
+      <c r="E487" t="s">
+        <v>334</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+      <c r="I487" t="s">
+        <v>50</v>
+      </c>
+      <c r="K487">
+        <v>1</v>
+      </c>
+      <c r="L487" t="s">
+        <v>839</v>
+      </c>
+      <c r="M487" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="488" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D488" t="s">
+        <v>838</v>
+      </c>
+      <c r="E488" t="s">
+        <v>334</v>
+      </c>
+      <c r="F488">
+        <v>1</v>
+      </c>
+      <c r="I488" t="s">
+        <v>50</v>
+      </c>
+      <c r="K488">
+        <v>1</v>
+      </c>
+      <c r="L488" t="s">
+        <v>839</v>
+      </c>
+      <c r="M488" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="489" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D489" t="s">
+        <v>838</v>
+      </c>
+      <c r="E489" t="s">
+        <v>334</v>
+      </c>
+      <c r="F489">
+        <v>1</v>
+      </c>
+      <c r="I489" t="s">
+        <v>50</v>
+      </c>
+      <c r="K489">
+        <v>1</v>
+      </c>
+      <c r="L489" t="s">
+        <v>839</v>
+      </c>
+      <c r="M489" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="490" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D490" t="s">
+        <v>838</v>
+      </c>
+      <c r="E490" t="s">
+        <v>334</v>
+      </c>
+      <c r="F490">
+        <v>1</v>
+      </c>
+      <c r="I490" t="s">
+        <v>50</v>
+      </c>
+      <c r="K490">
+        <v>1</v>
+      </c>
+      <c r="L490" t="s">
+        <v>839</v>
+      </c>
+      <c r="M490" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="491" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D491" t="s">
+        <v>838</v>
+      </c>
+      <c r="E491" t="s">
+        <v>334</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="I491" t="s">
+        <v>50</v>
+      </c>
+      <c r="K491">
+        <v>1</v>
+      </c>
+      <c r="L491" t="s">
+        <v>839</v>
+      </c>
+      <c r="M491" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="492" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D492" t="s">
+        <v>838</v>
+      </c>
+      <c r="E492" t="s">
+        <v>334</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="I492" t="s">
+        <v>50</v>
+      </c>
+      <c r="K492">
+        <v>1</v>
+      </c>
+      <c r="L492" t="s">
+        <v>839</v>
+      </c>
+      <c r="M492" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="493" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D493" t="s">
+        <v>838</v>
+      </c>
+      <c r="E493" t="s">
+        <v>334</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="I493" t="s">
+        <v>50</v>
+      </c>
+      <c r="K493">
+        <v>1</v>
+      </c>
+      <c r="L493" t="s">
+        <v>839</v>
+      </c>
+      <c r="M493" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="494" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D494" t="s">
+        <v>838</v>
+      </c>
+      <c r="E494" t="s">
+        <v>334</v>
+      </c>
+      <c r="F494">
+        <v>1</v>
+      </c>
+      <c r="I494" t="s">
+        <v>50</v>
+      </c>
+      <c r="K494">
+        <v>1</v>
+      </c>
+      <c r="L494" t="s">
+        <v>839</v>
+      </c>
+      <c r="M494" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="495" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D495" t="s">
+        <v>838</v>
+      </c>
+      <c r="E495" t="s">
+        <v>334</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="I495" t="s">
+        <v>50</v>
+      </c>
+      <c r="K495">
+        <v>1</v>
+      </c>
+      <c r="L495" t="s">
+        <v>839</v>
+      </c>
+      <c r="M495" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="496" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D496" t="s">
+        <v>838</v>
+      </c>
+      <c r="E496" t="s">
+        <v>334</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="I496" t="s">
+        <v>50</v>
+      </c>
+      <c r="K496">
+        <v>1</v>
+      </c>
+      <c r="L496" t="s">
+        <v>839</v>
+      </c>
+      <c r="M496" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="497" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D497" t="s">
+        <v>838</v>
+      </c>
+      <c r="E497" t="s">
+        <v>334</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="I497" t="s">
+        <v>50</v>
+      </c>
+      <c r="K497">
+        <v>1</v>
+      </c>
+      <c r="L497" t="s">
+        <v>839</v>
+      </c>
+      <c r="M497" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="498" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D498" t="s">
+        <v>838</v>
+      </c>
+      <c r="E498" t="s">
+        <v>334</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+      <c r="I498" t="s">
+        <v>50</v>
+      </c>
+      <c r="K498">
+        <v>1</v>
+      </c>
+      <c r="L498" t="s">
+        <v>839</v>
+      </c>
+      <c r="M498" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="499" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D499" t="s">
+        <v>838</v>
+      </c>
+      <c r="E499" t="s">
+        <v>334</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+      <c r="I499" t="s">
+        <v>50</v>
+      </c>
+      <c r="K499">
+        <v>1</v>
+      </c>
+      <c r="L499" t="s">
+        <v>839</v>
+      </c>
+      <c r="M499" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="500" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D500" t="s">
+        <v>838</v>
+      </c>
+      <c r="E500" t="s">
+        <v>334</v>
+      </c>
+      <c r="F500">
+        <v>1</v>
+      </c>
+      <c r="I500" t="s">
+        <v>50</v>
+      </c>
+      <c r="K500">
+        <v>1</v>
+      </c>
+      <c r="L500" t="s">
+        <v>839</v>
+      </c>
+      <c r="M500" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="501" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D501" t="s">
+        <v>838</v>
+      </c>
+      <c r="E501" t="s">
+        <v>334</v>
+      </c>
+      <c r="F501">
+        <v>1</v>
+      </c>
+      <c r="I501" t="s">
+        <v>50</v>
+      </c>
+      <c r="K501">
+        <v>1</v>
+      </c>
+      <c r="L501" t="s">
+        <v>839</v>
+      </c>
+      <c r="M501" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="502" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D502" t="s">
+        <v>838</v>
+      </c>
+      <c r="E502" t="s">
+        <v>334</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="I502" t="s">
+        <v>50</v>
+      </c>
+      <c r="K502">
+        <v>1</v>
+      </c>
+      <c r="L502" t="s">
+        <v>839</v>
+      </c>
+      <c r="M502" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="503" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D503" t="s">
+        <v>838</v>
+      </c>
+      <c r="E503" t="s">
+        <v>334</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="I503" t="s">
+        <v>50</v>
+      </c>
+      <c r="K503">
+        <v>1</v>
+      </c>
+      <c r="L503" t="s">
+        <v>839</v>
+      </c>
+      <c r="M503" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="504" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D504" t="s">
+        <v>838</v>
+      </c>
+      <c r="E504" t="s">
+        <v>334</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="I504" t="s">
+        <v>50</v>
+      </c>
+      <c r="K504">
+        <v>1</v>
+      </c>
+      <c r="L504" t="s">
+        <v>839</v>
+      </c>
+      <c r="M504" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="505" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D505" t="s">
+        <v>838</v>
+      </c>
+      <c r="E505" t="s">
+        <v>334</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+      <c r="I505" t="s">
+        <v>50</v>
+      </c>
+      <c r="K505">
+        <v>1</v>
+      </c>
+      <c r="L505" t="s">
+        <v>839</v>
+      </c>
+      <c r="M505" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="506" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D506" t="s">
+        <v>838</v>
+      </c>
+      <c r="E506" t="s">
+        <v>334</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+      <c r="I506" t="s">
+        <v>50</v>
+      </c>
+      <c r="K506">
+        <v>1</v>
+      </c>
+      <c r="L506" t="s">
+        <v>839</v>
+      </c>
+      <c r="M506" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="507" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D507" t="s">
+        <v>838</v>
+      </c>
+      <c r="E507" t="s">
+        <v>334</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+      <c r="I507" t="s">
+        <v>50</v>
+      </c>
+      <c r="K507">
+        <v>1</v>
+      </c>
+      <c r="L507" t="s">
+        <v>839</v>
+      </c>
+      <c r="M507" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="508" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D508" t="s">
+        <v>838</v>
+      </c>
+      <c r="E508" t="s">
+        <v>334</v>
+      </c>
+      <c r="F508">
+        <v>1</v>
+      </c>
+      <c r="I508" t="s">
+        <v>50</v>
+      </c>
+      <c r="K508">
+        <v>1</v>
+      </c>
+      <c r="L508" t="s">
+        <v>839</v>
+      </c>
+      <c r="M508" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="509" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D509" t="s">
+        <v>838</v>
+      </c>
+      <c r="E509" t="s">
+        <v>334</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="I509" t="s">
+        <v>50</v>
+      </c>
+      <c r="K509">
+        <v>1</v>
+      </c>
+      <c r="L509" t="s">
+        <v>839</v>
+      </c>
+      <c r="M509" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="510" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D510" t="s">
+        <v>838</v>
+      </c>
+      <c r="E510" t="s">
+        <v>334</v>
+      </c>
+      <c r="I510" t="s">
+        <v>50</v>
+      </c>
+      <c r="K510">
+        <v>1</v>
+      </c>
+      <c r="L510" t="s">
+        <v>839</v>
+      </c>
+      <c r="M510" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="511" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D511" t="s">
+        <v>838</v>
+      </c>
+      <c r="E511" t="s">
+        <v>334</v>
+      </c>
+      <c r="I511" t="s">
+        <v>50</v>
+      </c>
+      <c r="K511">
+        <v>1</v>
+      </c>
+      <c r="L511" t="s">
+        <v>839</v>
+      </c>
+      <c r="M511" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="512" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D512" t="s">
+        <v>838</v>
+      </c>
+      <c r="E512" t="s">
+        <v>334</v>
+      </c>
+      <c r="I512" t="s">
+        <v>50</v>
+      </c>
+      <c r="K512">
+        <v>1</v>
+      </c>
+      <c r="L512" t="s">
+        <v>839</v>
+      </c>
+      <c r="M512" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="513" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D513" t="s">
+        <v>838</v>
+      </c>
+      <c r="E513" t="s">
+        <v>334</v>
+      </c>
+      <c r="I513" t="s">
+        <v>50</v>
+      </c>
+      <c r="K513">
+        <v>1</v>
+      </c>
+      <c r="L513" t="s">
+        <v>839</v>
+      </c>
+      <c r="M513" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="514" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D514" t="s">
+        <v>838</v>
+      </c>
+      <c r="E514" t="s">
+        <v>334</v>
+      </c>
+      <c r="I514" t="s">
+        <v>50</v>
+      </c>
+      <c r="K514">
+        <v>1</v>
+      </c>
+      <c r="L514" t="s">
+        <v>839</v>
+      </c>
+      <c r="M514" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="515" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D515" t="s">
+        <v>838</v>
+      </c>
+      <c r="E515" t="s">
+        <v>334</v>
+      </c>
+      <c r="I515" t="s">
+        <v>50</v>
+      </c>
+      <c r="K515">
+        <v>1</v>
+      </c>
+      <c r="L515" t="s">
+        <v>839</v>
+      </c>
+      <c r="M515" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="516" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D516" t="s">
+        <v>838</v>
+      </c>
+      <c r="E516" t="s">
+        <v>334</v>
+      </c>
+      <c r="I516" t="s">
+        <v>50</v>
+      </c>
+      <c r="K516">
+        <v>1</v>
+      </c>
+      <c r="L516" t="s">
+        <v>839</v>
+      </c>
+      <c r="M516" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="517" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D517" t="s">
+        <v>838</v>
+      </c>
+      <c r="E517" t="s">
+        <v>334</v>
+      </c>
+      <c r="I517" t="s">
+        <v>50</v>
+      </c>
+      <c r="K517">
+        <v>1</v>
+      </c>
+      <c r="L517" t="s">
+        <v>839</v>
+      </c>
+      <c r="M517" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="518" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D518" t="s">
+        <v>838</v>
+      </c>
+      <c r="E518" t="s">
+        <v>334</v>
+      </c>
+      <c r="I518" t="s">
+        <v>50</v>
+      </c>
+      <c r="K518">
+        <v>1</v>
+      </c>
+      <c r="L518" t="s">
+        <v>839</v>
+      </c>
+      <c r="M518" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="519" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D519" t="s">
+        <v>838</v>
+      </c>
+      <c r="E519" t="s">
+        <v>334</v>
+      </c>
+      <c r="I519" t="s">
+        <v>50</v>
+      </c>
+      <c r="K519">
+        <v>1</v>
+      </c>
+      <c r="L519" t="s">
+        <v>839</v>
+      </c>
+      <c r="M519" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="520" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D520" t="s">
+        <v>838</v>
+      </c>
+      <c r="E520" t="s">
+        <v>334</v>
+      </c>
+      <c r="I520" t="s">
+        <v>50</v>
+      </c>
+      <c r="K520">
+        <v>1</v>
+      </c>
+      <c r="L520" t="s">
+        <v>839</v>
+      </c>
+      <c r="M520" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="521" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D521" t="s">
+        <v>838</v>
+      </c>
+      <c r="E521" t="s">
+        <v>334</v>
+      </c>
+      <c r="I521" t="s">
+        <v>50</v>
+      </c>
+      <c r="K521">
+        <v>1</v>
+      </c>
+      <c r="L521" t="s">
+        <v>839</v>
+      </c>
+      <c r="M521" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="522" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D522" t="s">
+        <v>838</v>
+      </c>
+      <c r="E522" t="s">
+        <v>334</v>
+      </c>
+      <c r="I522" t="s">
+        <v>50</v>
+      </c>
+      <c r="K522">
+        <v>1</v>
+      </c>
+      <c r="L522" t="s">
+        <v>839</v>
+      </c>
+      <c r="M522" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="523" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D523" t="s">
+        <v>838</v>
+      </c>
+      <c r="E523" t="s">
+        <v>334</v>
+      </c>
+      <c r="I523" t="s">
+        <v>50</v>
+      </c>
+      <c r="K523">
+        <v>1</v>
+      </c>
+      <c r="L523" t="s">
+        <v>839</v>
+      </c>
+      <c r="M523" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="524" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D524" t="s">
+        <v>838</v>
+      </c>
+      <c r="E524" t="s">
+        <v>334</v>
+      </c>
+      <c r="I524" t="s">
+        <v>50</v>
+      </c>
+      <c r="K524">
+        <v>1</v>
+      </c>
+      <c r="L524" t="s">
+        <v>839</v>
+      </c>
+      <c r="M524" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="525" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D525" t="s">
+        <v>838</v>
+      </c>
+      <c r="E525" t="s">
+        <v>334</v>
+      </c>
+      <c r="I525" t="s">
+        <v>50</v>
+      </c>
+      <c r="K525">
+        <v>1</v>
+      </c>
+      <c r="L525" t="s">
+        <v>839</v>
+      </c>
+      <c r="M525" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="526" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D526" t="s">
+        <v>838</v>
+      </c>
+      <c r="E526" t="s">
+        <v>334</v>
+      </c>
+      <c r="I526" t="s">
+        <v>50</v>
+      </c>
+      <c r="K526">
+        <v>1</v>
+      </c>
+      <c r="L526" t="s">
+        <v>839</v>
+      </c>
+      <c r="M526" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="527" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D527" t="s">
+        <v>838</v>
+      </c>
+      <c r="E527" t="s">
+        <v>334</v>
+      </c>
+      <c r="I527" t="s">
+        <v>50</v>
+      </c>
+      <c r="K527">
+        <v>1</v>
+      </c>
+      <c r="L527" t="s">
+        <v>839</v>
+      </c>
+      <c r="M527" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="528" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D528" t="s">
+        <v>838</v>
+      </c>
+      <c r="E528" t="s">
+        <v>334</v>
+      </c>
+      <c r="I528" t="s">
+        <v>50</v>
+      </c>
+      <c r="K528">
+        <v>1</v>
+      </c>
+      <c r="L528" t="s">
+        <v>839</v>
+      </c>
+      <c r="M528" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="529" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D529" t="s">
+        <v>838</v>
+      </c>
+      <c r="E529" t="s">
+        <v>334</v>
+      </c>
+      <c r="I529" t="s">
+        <v>50</v>
+      </c>
+      <c r="K529">
+        <v>1</v>
+      </c>
+      <c r="L529" t="s">
+        <v>839</v>
+      </c>
+      <c r="M529" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="530" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D530" t="s">
+        <v>838</v>
+      </c>
+      <c r="E530" t="s">
+        <v>334</v>
+      </c>
+      <c r="I530" t="s">
+        <v>50</v>
+      </c>
+      <c r="K530">
+        <v>1</v>
+      </c>
+      <c r="L530" t="s">
+        <v>839</v>
+      </c>
+      <c r="M530" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="531" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D531" t="s">
+        <v>838</v>
+      </c>
+      <c r="E531" t="s">
+        <v>334</v>
+      </c>
+      <c r="I531" t="s">
+        <v>50</v>
+      </c>
+      <c r="K531">
+        <v>1</v>
+      </c>
+      <c r="L531" t="s">
+        <v>839</v>
+      </c>
+      <c r="M531" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="532" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D532" t="s">
+        <v>838</v>
+      </c>
+      <c r="E532" t="s">
+        <v>334</v>
+      </c>
+      <c r="I532" t="s">
+        <v>50</v>
+      </c>
+      <c r="K532">
+        <v>1</v>
+      </c>
+      <c r="L532" t="s">
+        <v>839</v>
+      </c>
+      <c r="M532" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="533" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D533" t="s">
+        <v>838</v>
+      </c>
+      <c r="E533" t="s">
+        <v>334</v>
+      </c>
+      <c r="I533" t="s">
+        <v>50</v>
+      </c>
+      <c r="K533">
+        <v>1</v>
+      </c>
+      <c r="L533" t="s">
+        <v>839</v>
+      </c>
+      <c r="M533" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="534" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D534" t="s">
+        <v>838</v>
+      </c>
+      <c r="E534" t="s">
+        <v>334</v>
+      </c>
+      <c r="I534" t="s">
+        <v>50</v>
+      </c>
+      <c r="K534">
+        <v>1</v>
+      </c>
+      <c r="L534" t="s">
+        <v>839</v>
+      </c>
+      <c r="M534" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="535" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D535" t="s">
+        <v>838</v>
+      </c>
+      <c r="E535" t="s">
+        <v>334</v>
+      </c>
+      <c r="I535" t="s">
+        <v>50</v>
+      </c>
+      <c r="K535">
+        <v>1</v>
+      </c>
+      <c r="L535" t="s">
+        <v>839</v>
+      </c>
+      <c r="M535" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="536" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D536" t="s">
+        <v>838</v>
+      </c>
+      <c r="E536" t="s">
+        <v>334</v>
+      </c>
+      <c r="I536" t="s">
+        <v>50</v>
+      </c>
+      <c r="K536">
+        <v>1</v>
+      </c>
+      <c r="L536" t="s">
+        <v>839</v>
+      </c>
+      <c r="M536" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="537" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D537" t="s">
+        <v>838</v>
+      </c>
+      <c r="E537" t="s">
+        <v>334</v>
+      </c>
+      <c r="I537" t="s">
+        <v>50</v>
+      </c>
+      <c r="K537">
+        <v>1</v>
+      </c>
+      <c r="L537" t="s">
+        <v>839</v>
+      </c>
+      <c r="M537" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="538" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D538" t="s">
+        <v>838</v>
+      </c>
+      <c r="E538" t="s">
+        <v>334</v>
+      </c>
+      <c r="I538" t="s">
+        <v>50</v>
+      </c>
+      <c r="K538">
+        <v>1</v>
+      </c>
+      <c r="L538" t="s">
+        <v>839</v>
+      </c>
+      <c r="M538" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="539" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D539" t="s">
+        <v>838</v>
+      </c>
+      <c r="E539" t="s">
+        <v>334</v>
+      </c>
+      <c r="I539" t="s">
+        <v>50</v>
+      </c>
+      <c r="K539">
+        <v>1</v>
+      </c>
+      <c r="L539" t="s">
+        <v>839</v>
+      </c>
+      <c r="M539" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="540" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D540" t="s">
+        <v>838</v>
+      </c>
+      <c r="E540" t="s">
+        <v>334</v>
+      </c>
+      <c r="K540">
+        <v>1</v>
+      </c>
+      <c r="L540" t="s">
+        <v>839</v>
+      </c>
+      <c r="M540" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="541" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D541" t="s">
+        <v>838</v>
+      </c>
+      <c r="E541" t="s">
+        <v>334</v>
+      </c>
+      <c r="K541">
+        <v>1</v>
+      </c>
+      <c r="L541" t="s">
+        <v>839</v>
+      </c>
+      <c r="M541" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="542" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D542" t="s">
+        <v>838</v>
+      </c>
+      <c r="E542" t="s">
+        <v>334</v>
+      </c>
+      <c r="K542">
+        <v>1</v>
+      </c>
+      <c r="L542" t="s">
+        <v>839</v>
+      </c>
+      <c r="M542" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="543" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D543" t="s">
+        <v>838</v>
+      </c>
+      <c r="E543" t="s">
+        <v>334</v>
+      </c>
+      <c r="K543">
+        <v>1</v>
+      </c>
+      <c r="L543" t="s">
+        <v>839</v>
+      </c>
+      <c r="M543" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="544" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D544" t="s">
+        <v>838</v>
+      </c>
+      <c r="E544" t="s">
+        <v>334</v>
+      </c>
+      <c r="K544">
+        <v>1</v>
+      </c>
+      <c r="L544" t="s">
+        <v>839</v>
+      </c>
+      <c r="M544" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="545" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D545" t="s">
+        <v>838</v>
+      </c>
+      <c r="E545" t="s">
+        <v>334</v>
+      </c>
+      <c r="K545">
+        <v>1</v>
+      </c>
+      <c r="L545" t="s">
+        <v>839</v>
+      </c>
+      <c r="M545" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="546" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D546" t="s">
+        <v>838</v>
+      </c>
+      <c r="E546" t="s">
+        <v>334</v>
+      </c>
+      <c r="K546">
+        <v>1</v>
+      </c>
+      <c r="L546" t="s">
+        <v>839</v>
+      </c>
+      <c r="M546" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="547" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D547" t="s">
+        <v>838</v>
+      </c>
+      <c r="E547" t="s">
+        <v>334</v>
+      </c>
+      <c r="K547">
+        <v>1</v>
+      </c>
+      <c r="L547" t="s">
+        <v>839</v>
+      </c>
+      <c r="M547" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="548" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D548" t="s">
+        <v>838</v>
+      </c>
+      <c r="E548" t="s">
+        <v>334</v>
+      </c>
+      <c r="K548">
+        <v>1</v>
+      </c>
+      <c r="L548" t="s">
+        <v>839</v>
+      </c>
+      <c r="M548" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="549" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D549" t="s">
+        <v>838</v>
+      </c>
+      <c r="E549" t="s">
+        <v>334</v>
+      </c>
+      <c r="K549">
+        <v>1</v>
+      </c>
+      <c r="L549" t="s">
+        <v>839</v>
+      </c>
+      <c r="M549" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="550" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D550" t="s">
+        <v>838</v>
+      </c>
+      <c r="E550" t="s">
+        <v>334</v>
+      </c>
+      <c r="K550">
+        <v>1</v>
+      </c>
+      <c r="M550" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="551" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D551" t="s">
+        <v>838</v>
+      </c>
+      <c r="E551" t="s">
+        <v>334</v>
+      </c>
+      <c r="K551">
+        <v>1</v>
+      </c>
+      <c r="M551" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="552" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D552" t="s">
+        <v>838</v>
+      </c>
+      <c r="E552" t="s">
+        <v>334</v>
+      </c>
+      <c r="K552">
+        <v>1</v>
+      </c>
+      <c r="M552" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="553" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D553" t="s">
+        <v>838</v>
+      </c>
+      <c r="E553" t="s">
+        <v>334</v>
+      </c>
+      <c r="K553">
+        <v>1</v>
+      </c>
+      <c r="M553" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="554" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D554" t="s">
+        <v>838</v>
+      </c>
+      <c r="E554" t="s">
+        <v>334</v>
+      </c>
+      <c r="K554">
+        <v>1</v>
+      </c>
+      <c r="M554" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="555" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D555" t="s">
+        <v>838</v>
+      </c>
+      <c r="E555" t="s">
+        <v>334</v>
+      </c>
+      <c r="K555">
+        <v>1</v>
+      </c>
+      <c r="M555" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="556" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D556" t="s">
+        <v>838</v>
+      </c>
+      <c r="E556" t="s">
+        <v>334</v>
+      </c>
+      <c r="K556">
+        <v>1</v>
+      </c>
+      <c r="M556" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="557" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D557" t="s">
+        <v>838</v>
+      </c>
+      <c r="E557" t="s">
+        <v>334</v>
+      </c>
+      <c r="K557">
+        <v>1</v>
+      </c>
+      <c r="M557" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="558" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D558" t="s">
+        <v>838</v>
+      </c>
+      <c r="E558" t="s">
+        <v>334</v>
+      </c>
+      <c r="K558">
+        <v>1</v>
+      </c>
+      <c r="M558" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="559" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D559" t="s">
+        <v>838</v>
+      </c>
+      <c r="E559" t="s">
+        <v>334</v>
+      </c>
+      <c r="K559">
+        <v>1</v>
+      </c>
+      <c r="M559" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="560" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D560" t="s">
+        <v>838</v>
+      </c>
+      <c r="E560" t="s">
+        <v>334</v>
+      </c>
+      <c r="K560">
+        <v>1</v>
+      </c>
+      <c r="M560" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="561" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D561" t="s">
+        <v>838</v>
+      </c>
+      <c r="E561" t="s">
+        <v>334</v>
+      </c>
+      <c r="K561">
+        <v>1</v>
+      </c>
+      <c r="M561" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="562" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D562" t="s">
+        <v>838</v>
+      </c>
+      <c r="E562" t="s">
+        <v>334</v>
+      </c>
+      <c r="K562">
+        <v>1</v>
+      </c>
+      <c r="M562" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="563" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D563" t="s">
+        <v>838</v>
+      </c>
+      <c r="E563" t="s">
+        <v>334</v>
+      </c>
+      <c r="K563">
+        <v>1</v>
+      </c>
+      <c r="M563" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="564" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D564" t="s">
+        <v>838</v>
+      </c>
+      <c r="E564" t="s">
+        <v>334</v>
+      </c>
+      <c r="K564">
+        <v>1</v>
+      </c>
+      <c r="M564" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="565" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D565" t="s">
+        <v>838</v>
+      </c>
+      <c r="E565" t="s">
+        <v>334</v>
+      </c>
+      <c r="K565">
+        <v>1</v>
+      </c>
+      <c r="M565" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="566" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D566" t="s">
+        <v>838</v>
+      </c>
+      <c r="E566" t="s">
+        <v>334</v>
+      </c>
+      <c r="K566">
+        <v>1</v>
+      </c>
+      <c r="M566" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="567" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D567" t="s">
+        <v>838</v>
+      </c>
+      <c r="E567" t="s">
+        <v>334</v>
+      </c>
+      <c r="K567">
+        <v>1</v>
+      </c>
+      <c r="M567" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="568" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D568" t="s">
+        <v>838</v>
+      </c>
+      <c r="E568" t="s">
+        <v>334</v>
+      </c>
+      <c r="K568">
+        <v>1</v>
+      </c>
+      <c r="M568" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="569" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D569" t="s">
+        <v>838</v>
+      </c>
+      <c r="E569" t="s">
+        <v>334</v>
+      </c>
+      <c r="K569">
+        <v>1</v>
+      </c>
+      <c r="M569" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="570" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D570" t="s">
+        <v>838</v>
+      </c>
+      <c r="E570" t="s">
+        <v>334</v>
+      </c>
+      <c r="K570">
+        <v>1</v>
+      </c>
+      <c r="M570" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="571" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D571" t="s">
+        <v>838</v>
+      </c>
+      <c r="E571" t="s">
+        <v>334</v>
+      </c>
+      <c r="K571">
+        <v>1</v>
+      </c>
+      <c r="M571" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="572" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D572" t="s">
+        <v>838</v>
+      </c>
+      <c r="E572" t="s">
+        <v>334</v>
+      </c>
+      <c r="K572">
+        <v>1</v>
+      </c>
+      <c r="M572" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="573" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D573" t="s">
+        <v>838</v>
+      </c>
+      <c r="E573" t="s">
+        <v>334</v>
+      </c>
+      <c r="K573">
+        <v>1</v>
+      </c>
+      <c r="M573" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="574" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D574" t="s">
+        <v>838</v>
+      </c>
+      <c r="E574" t="s">
+        <v>334</v>
+      </c>
+      <c r="K574">
+        <v>1</v>
+      </c>
+      <c r="M574" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="575" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D575" t="s">
+        <v>838</v>
+      </c>
+      <c r="E575" t="s">
+        <v>334</v>
+      </c>
+      <c r="K575">
+        <v>1</v>
+      </c>
+      <c r="M575" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="576" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D576" t="s">
+        <v>838</v>
+      </c>
+      <c r="E576" t="s">
+        <v>334</v>
+      </c>
+      <c r="K576">
+        <v>1</v>
+      </c>
+      <c r="M576" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="577" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D577" t="s">
+        <v>838</v>
+      </c>
+      <c r="E577" t="s">
+        <v>334</v>
+      </c>
+      <c r="K577">
+        <v>1</v>
+      </c>
+      <c r="M577" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="578" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D578" t="s">
+        <v>838</v>
+      </c>
+      <c r="E578" t="s">
+        <v>334</v>
+      </c>
+      <c r="K578">
+        <v>1</v>
+      </c>
+      <c r="M578" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="579" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D579" t="s">
+        <v>838</v>
+      </c>
+      <c r="E579" t="s">
+        <v>334</v>
+      </c>
+      <c r="K579">
+        <v>1</v>
+      </c>
+      <c r="M579" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="580" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D580" t="s">
+        <v>838</v>
+      </c>
+      <c r="E580" t="s">
+        <v>334</v>
+      </c>
+      <c r="K580">
+        <v>1</v>
+      </c>
+      <c r="M580" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="581" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D581" t="s">
+        <v>838</v>
+      </c>
+      <c r="E581" t="s">
+        <v>334</v>
+      </c>
+      <c r="K581">
+        <v>1</v>
+      </c>
+      <c r="M581" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="582" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D582" t="s">
+        <v>838</v>
+      </c>
+      <c r="E582" t="s">
+        <v>334</v>
+      </c>
+      <c r="K582">
+        <v>1</v>
+      </c>
+      <c r="M582" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="583" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D583" t="s">
+        <v>838</v>
+      </c>
+      <c r="E583" t="s">
+        <v>334</v>
+      </c>
+      <c r="K583">
+        <v>1</v>
+      </c>
+      <c r="M583" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="584" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D584" t="s">
+        <v>838</v>
+      </c>
+      <c r="E584" t="s">
+        <v>334</v>
+      </c>
+      <c r="K584">
+        <v>1</v>
+      </c>
+      <c r="M584" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="585" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D585" t="s">
+        <v>838</v>
+      </c>
+      <c r="E585" t="s">
+        <v>334</v>
+      </c>
+      <c r="K585">
+        <v>1</v>
+      </c>
+      <c r="M585" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="586" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D586" t="s">
+        <v>838</v>
+      </c>
+      <c r="E586" t="s">
+        <v>334</v>
+      </c>
+      <c r="K586">
+        <v>1</v>
+      </c>
+      <c r="M586" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="587" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D587" t="s">
+        <v>838</v>
+      </c>
+      <c r="E587" t="s">
+        <v>334</v>
+      </c>
+      <c r="K587">
+        <v>1</v>
+      </c>
+      <c r="M587" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="588" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D588" t="s">
+        <v>838</v>
+      </c>
+      <c r="E588" t="s">
+        <v>334</v>
+      </c>
+      <c r="K588">
+        <v>1</v>
+      </c>
+      <c r="M588" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="589" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D589" t="s">
+        <v>838</v>
+      </c>
+      <c r="E589" t="s">
+        <v>334</v>
+      </c>
+      <c r="K589">
+        <v>1</v>
+      </c>
+      <c r="M589" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="590" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D590" t="s">
+        <v>838</v>
+      </c>
+      <c r="E590" t="s">
+        <v>334</v>
+      </c>
+      <c r="K590">
+        <v>1</v>
+      </c>
+      <c r="M590" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="591" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D591" t="s">
+        <v>838</v>
+      </c>
+      <c r="E591" t="s">
+        <v>334</v>
+      </c>
+      <c r="K591">
+        <v>1</v>
+      </c>
+      <c r="M591" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="592" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D592" t="s">
+        <v>838</v>
+      </c>
+      <c r="E592" t="s">
+        <v>334</v>
+      </c>
+      <c r="K592">
+        <v>1</v>
+      </c>
+      <c r="M592" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="593" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D593" t="s">
+        <v>838</v>
+      </c>
+      <c r="E593" t="s">
+        <v>334</v>
+      </c>
+      <c r="K593">
+        <v>1</v>
+      </c>
+      <c r="M593" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="594" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D594" t="s">
+        <v>838</v>
+      </c>
+      <c r="E594" t="s">
+        <v>334</v>
+      </c>
+      <c r="K594">
+        <v>1</v>
+      </c>
+      <c r="M594" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="595" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D595" t="s">
+        <v>838</v>
+      </c>
+      <c r="K595">
+        <v>1</v>
+      </c>
+      <c r="M595" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="596" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D596" t="s">
+        <v>838</v>
+      </c>
+      <c r="K596">
+        <v>1</v>
+      </c>
+      <c r="M596" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="597" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D597" t="s">
+        <v>838</v>
+      </c>
+      <c r="K597">
+        <v>1</v>
+      </c>
+      <c r="M597" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="598" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D598" t="s">
+        <v>838</v>
+      </c>
+      <c r="K598">
+        <v>1</v>
+      </c>
+      <c r="M598" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="599" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D599" t="s">
+        <v>838</v>
+      </c>
+      <c r="K599">
+        <v>1</v>
+      </c>
+      <c r="M599" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="600" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D600" t="s">
+        <v>838</v>
+      </c>
+      <c r="K600">
+        <v>1</v>
+      </c>
+      <c r="M600" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="601" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D601" t="s">
+        <v>838</v>
+      </c>
+      <c r="K601">
+        <v>1</v>
+      </c>
+      <c r="M601" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="602" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D602" t="s">
+        <v>838</v>
+      </c>
+      <c r="K602">
+        <v>1</v>
+      </c>
+      <c r="M602" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="603" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K603">
+        <v>1</v>
+      </c>
+      <c r="M603" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="604" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M604" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Información Libros Biblioteca.xlsx
+++ b/Información Libros Biblioteca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\4º Semestre Enero-Junio\Fundamentos de Bases de Datos\Biblioteca-InformaciónLibros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64DA238-0C36-43BF-8460-A292AFCB3CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E86924-A89D-4D77-B9C5-B1F15BA2603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FCB9792A-3A95-430D-A81C-CA65B8EAE856}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4701" uniqueCount="1582">
   <si>
     <t>Nombre del libro</t>
   </si>
@@ -4371,6 +4371,435 @@
   </si>
   <si>
     <t>861MZ3518H57</t>
+  </si>
+  <si>
+    <t>COMEDIAS I</t>
+  </si>
+  <si>
+    <t>MIGUEL DE CERVANTES</t>
+  </si>
+  <si>
+    <t>862C47C581</t>
+  </si>
+  <si>
+    <t>CASTALIA</t>
+  </si>
+  <si>
+    <t>COMEDIAS III</t>
+  </si>
+  <si>
+    <t>862C47C583</t>
+  </si>
+  <si>
+    <t>LOS MAL CASADOS DE VALENCIA</t>
+  </si>
+  <si>
+    <t>862C44M24</t>
+  </si>
+  <si>
+    <t>GUILLÉN DE CASTRO</t>
+  </si>
+  <si>
+    <t>EL DESEO DE TOMÁS</t>
+  </si>
+  <si>
+    <t>BERTA HIRIART</t>
+  </si>
+  <si>
+    <t>862MH62D38</t>
+  </si>
+  <si>
+    <t>LA VILLANA DE LA SAGRA - EL COLMENERO DIVINO</t>
+  </si>
+  <si>
+    <t>862M65V66</t>
+  </si>
+  <si>
+    <t>TIRSO DE MOLINA</t>
+  </si>
+  <si>
+    <t>LA GATOMAQUIA</t>
+  </si>
+  <si>
+    <t>862V43G356</t>
+  </si>
+  <si>
+    <t>FÉLIX LOPE DE VEGA</t>
+  </si>
+  <si>
+    <t>TRES COMEDIAS MADRILEÑAS</t>
+  </si>
+  <si>
+    <t>862V43T74</t>
+  </si>
+  <si>
+    <t>DRAMATURGOS DE TIERRA ADENTRO</t>
+  </si>
+  <si>
+    <t>RICARDO PÉREZ QUITT (COMPILADOR)</t>
+  </si>
+  <si>
+    <t>862.08MD73</t>
+  </si>
+  <si>
+    <t>DRAMATURGOS DE TIERRA ADENTRO II</t>
+  </si>
+  <si>
+    <t>862.08MD74</t>
+  </si>
+  <si>
+    <t>VARIA</t>
+  </si>
+  <si>
+    <t>LOPE DE VEGA</t>
+  </si>
+  <si>
+    <t>862V43V37</t>
+  </si>
+  <si>
+    <t>NUEVOS DRAMATURGOS DE YUCATÁN</t>
+  </si>
+  <si>
+    <t>FERNANDO MUÑOZ CASTILLO</t>
+  </si>
+  <si>
+    <t>862.08MN83</t>
+  </si>
+  <si>
+    <t>TEATRO MEXICANO DECIMONÓNICO</t>
+  </si>
+  <si>
+    <t>862.08MT418</t>
+  </si>
+  <si>
+    <t>EDUARDO CONTRERAS SOTO</t>
+  </si>
+  <si>
+    <t>DRAMATURGIA CHILENA CONTEMPORÁNEA</t>
+  </si>
+  <si>
+    <t>862CHD72D72</t>
+  </si>
+  <si>
+    <t>AMALÁ SAINT-PIERRE (COMPILADORA)</t>
+  </si>
+  <si>
+    <t>OCTUBRE TERMINÓ HACE MUCHO TIEMPO</t>
+  </si>
+  <si>
+    <t>PILAR CAMPESINO</t>
+  </si>
+  <si>
+    <t>862MC346O34</t>
+  </si>
+  <si>
+    <t>FEDRA Y OTRAS GRIEGAS</t>
+  </si>
+  <si>
+    <t>XIMENA ESCALANTE</t>
+  </si>
+  <si>
+    <t>862ME78F42</t>
+  </si>
+  <si>
+    <t>EL CAMINO ROJO A SABAIBA</t>
+  </si>
+  <si>
+    <t>ÓSCAR LIERA</t>
+  </si>
+  <si>
+    <t>862ML53C35</t>
+  </si>
+  <si>
+    <t>BELICE</t>
+  </si>
+  <si>
+    <t>DAVID OLGUÍN</t>
+  </si>
+  <si>
+    <t>862MO38B44</t>
+  </si>
+  <si>
+    <t>ATLÁNTIDA</t>
+  </si>
+  <si>
+    <t>ÓSCAR VILLEGAS</t>
+  </si>
+  <si>
+    <t>862MV54A85</t>
+  </si>
+  <si>
+    <t>EL VIAJE DE LOS CANTORES</t>
+  </si>
+  <si>
+    <t>HUGO SALCEDO</t>
+  </si>
+  <si>
+    <t>862MS323V48</t>
+  </si>
+  <si>
+    <t>DESEOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO PÉREZ QUITT </t>
+  </si>
+  <si>
+    <t>862MP472D47</t>
+  </si>
+  <si>
+    <t>LA PRUEBA DE LAS PROMESAS</t>
+  </si>
+  <si>
+    <t>JUAN RUIZ DE ALARCÓN</t>
+  </si>
+  <si>
+    <t>862MR85P79</t>
+  </si>
+  <si>
+    <t>TEATRO COMPLETO</t>
+  </si>
+  <si>
+    <t>CARLOS SOLÓRZANO</t>
+  </si>
+  <si>
+    <t>862MS64T45</t>
+  </si>
+  <si>
+    <t>1910 Y TRES OBRAS MÁS</t>
+  </si>
+  <si>
+    <t>MARUXA VILALTA</t>
+  </si>
+  <si>
+    <t>862MV48M54</t>
+  </si>
+  <si>
+    <t>LOS MÁRTIRES DEL ANÁHUAC</t>
+  </si>
+  <si>
+    <t>ELIGIO ANCONA</t>
+  </si>
+  <si>
+    <t>863MA63M42</t>
+  </si>
+  <si>
+    <t>PLANETA DEAGOSTINI</t>
+  </si>
+  <si>
+    <t>¿DÓNDE ESTÁ EL SR. SPOCK?</t>
+  </si>
+  <si>
+    <t>PURA AZORÍN</t>
+  </si>
+  <si>
+    <t>863A965D66</t>
+  </si>
+  <si>
+    <t>PUNTO DE ENCUENTRO</t>
+  </si>
+  <si>
+    <t>EL ALEPH</t>
+  </si>
+  <si>
+    <t>JORGE LUIS BORGES</t>
+  </si>
+  <si>
+    <t>863AB67A38</t>
+  </si>
+  <si>
+    <t>ALIANZA</t>
+  </si>
+  <si>
+    <t>PARA LEER A JUAN JOSÉ ARREOLA</t>
+  </si>
+  <si>
+    <t>ADOLFO CASTAÑÓN NELLY PALAFOX</t>
+  </si>
+  <si>
+    <t>863.01MC378</t>
+  </si>
+  <si>
+    <t>MADRID AL TRAVÉS</t>
+  </si>
+  <si>
+    <t>ADRIÁN CURIEL RIVERA</t>
+  </si>
+  <si>
+    <t>863MC885M32</t>
+  </si>
+  <si>
+    <t>JORGE LUIS BORGES - PARA ENTENDER</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER DOMÍNGUEZ MICHAEL</t>
+  </si>
+  <si>
+    <t>863.01AD65</t>
+  </si>
+  <si>
+    <t>JULIO RAMÓN RIBEYRO - PARA ENTENDER</t>
+  </si>
+  <si>
+    <t>VIVIAN ABENSHUSHAN</t>
+  </si>
+  <si>
+    <t>863.01PEA246</t>
+  </si>
+  <si>
+    <t>EL ABISMO - ASOMOS AL TERROR HECHO EN MÉXICO</t>
+  </si>
+  <si>
+    <t>RODOLFO J.M (ANTOLOGADOR)</t>
+  </si>
+  <si>
+    <t>863.08MA25</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>ASÍ SE ACABA EL MUNDO - CUENTOS MEXICANOS APOCALÍPTICOS</t>
+  </si>
+  <si>
+    <t>EDILBERTO ALDÁN (ANTOLOGADOR)</t>
+  </si>
+  <si>
+    <t>863.08MA844</t>
+  </si>
+  <si>
+    <t>EL JUGUETE RABIOSO</t>
+  </si>
+  <si>
+    <t>ROBERTO ARLT</t>
+  </si>
+  <si>
+    <t>863A7432J825</t>
+  </si>
+  <si>
+    <t>EL ÚLTIMO VUELO</t>
+  </si>
+  <si>
+    <t>JESÚS BALLAZ</t>
+  </si>
+  <si>
+    <t>863B349U47</t>
+  </si>
+  <si>
+    <t>GENTE DE MAR</t>
+  </si>
+  <si>
+    <t>863MB466G43</t>
+  </si>
+  <si>
+    <t>RAFAEL BERNAL</t>
+  </si>
+  <si>
+    <t>BAILE Y COCHINO</t>
+  </si>
+  <si>
+    <t>JOSÉ TOMÁS DE CUÉLLAR</t>
+  </si>
+  <si>
+    <t>863MC8B352013</t>
+  </si>
+  <si>
+    <t>UNA HISTORIA DE IMÁGENES - XIV ESTACIONES PARA LLEGAR A PARADISO</t>
+  </si>
+  <si>
+    <t>ALBERTO PAREDES (COMPILADOR)</t>
+  </si>
+  <si>
+    <t>863.01CUH57</t>
+  </si>
+  <si>
+    <t>JICOTÉNCAL</t>
+  </si>
+  <si>
+    <t>JOSÉ MARÍA HEREDIA</t>
+  </si>
+  <si>
+    <t>863CUH44J54</t>
+  </si>
+  <si>
+    <t>DESPUÉS DEL MILAGRO</t>
+  </si>
+  <si>
+    <t>HÉCTOR AGUILAR CAMÍN</t>
+  </si>
+  <si>
+    <t>863MA3133D47</t>
+  </si>
+  <si>
+    <t>DÉCIMOSEXTA EDICIÓN</t>
+  </si>
+  <si>
+    <t>LA CONSPIRACIÓN DE LA FORTUNA</t>
+  </si>
+  <si>
+    <t>863MA3133C665</t>
+  </si>
+  <si>
+    <t>PEDRO CASTERA</t>
+  </si>
+  <si>
+    <t>ANTONIO SABORIT</t>
+  </si>
+  <si>
+    <t>863MC381P42</t>
+  </si>
+  <si>
+    <t>CUATRO BOCETOS</t>
+  </si>
+  <si>
+    <t>863MCH975C82</t>
+  </si>
+  <si>
+    <t>EGEO</t>
+  </si>
+  <si>
+    <t>863MC365E33</t>
+  </si>
+  <si>
+    <t>EL GUARDAGUJAS</t>
+  </si>
+  <si>
+    <t>EN LA CÚPULA DEL GLOBE</t>
+  </si>
+  <si>
+    <t>863MC3327E54</t>
+  </si>
+  <si>
+    <t>ANTONIO CALERA GROBET</t>
+  </si>
+  <si>
+    <t>OBRAS</t>
+  </si>
+  <si>
+    <t>RAFAEL DELGADO</t>
+  </si>
+  <si>
+    <t>863MD4O32</t>
+  </si>
+  <si>
+    <t>GIL GOMÉZ EL INSURGENTE</t>
+  </si>
+  <si>
+    <t>JUAN DÍAZ COVARRUBIAS</t>
+  </si>
+  <si>
+    <t>863MD5G47</t>
+  </si>
+  <si>
+    <t>ELISEO ALBERTO</t>
+  </si>
+  <si>
+    <t>CARACOL BEACH</t>
+  </si>
+  <si>
+    <t>863CUD533C37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO SANTILLANA </t>
   </si>
 </sst>
 </file>
@@ -4779,9 +5208,9 @@
   <dimension ref="A1:M604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A468" sqref="A468"/>
+      <selection pane="bottomLeft" activeCell="A515" sqref="A515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22856,6 +23285,15 @@
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1440</v>
+      </c>
       <c r="D469" t="s">
         <v>838</v>
       </c>
@@ -22866,10 +23304,16 @@
         <v>1</v>
       </c>
       <c r="G469" t="s">
-        <v>1356</v>
+        <v>1442</v>
+      </c>
+      <c r="H469">
+        <v>344</v>
       </c>
       <c r="I469" t="s">
         <v>50</v>
+      </c>
+      <c r="J469">
+        <v>2001</v>
       </c>
       <c r="K469">
         <v>1</v>
@@ -22882,6 +23326,15 @@
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1440</v>
+      </c>
       <c r="D470" t="s">
         <v>838</v>
       </c>
@@ -22892,10 +23345,16 @@
         <v>1</v>
       </c>
       <c r="G470" t="s">
-        <v>1356</v>
+        <v>1442</v>
+      </c>
+      <c r="H470">
+        <v>455</v>
       </c>
       <c r="I470" t="s">
         <v>50</v>
+      </c>
+      <c r="J470">
+        <v>2001</v>
       </c>
       <c r="K470">
         <v>1</v>
@@ -22908,6 +23367,15 @@
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1447</v>
+      </c>
       <c r="D471" t="s">
         <v>838</v>
       </c>
@@ -22917,8 +23385,17 @@
       <c r="F471">
         <v>1</v>
       </c>
+      <c r="G471" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H471">
+        <v>303</v>
+      </c>
       <c r="I471" t="s">
         <v>50</v>
+      </c>
+      <c r="J471">
+        <v>2001</v>
       </c>
       <c r="K471">
         <v>1</v>
@@ -22931,6 +23408,15 @@
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1449</v>
+      </c>
       <c r="D472" t="s">
         <v>838</v>
       </c>
@@ -22940,8 +23426,17 @@
       <c r="F472">
         <v>1</v>
       </c>
+      <c r="G472" t="s">
+        <v>879</v>
+      </c>
+      <c r="H472">
+        <v>35</v>
+      </c>
       <c r="I472" t="s">
         <v>50</v>
+      </c>
+      <c r="J472">
+        <v>2001</v>
       </c>
       <c r="K472">
         <v>1</v>
@@ -22954,6 +23449,15 @@
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1453</v>
+      </c>
       <c r="D473" t="s">
         <v>838</v>
       </c>
@@ -22963,8 +23467,17 @@
       <c r="F473">
         <v>1</v>
       </c>
+      <c r="G473" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H473">
+        <v>306</v>
+      </c>
       <c r="I473" t="s">
         <v>50</v>
+      </c>
+      <c r="J473">
+        <v>2001</v>
       </c>
       <c r="K473">
         <v>1</v>
@@ -22977,6 +23490,15 @@
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1456</v>
+      </c>
       <c r="D474" t="s">
         <v>838</v>
       </c>
@@ -22986,8 +23508,17 @@
       <c r="F474">
         <v>1</v>
       </c>
+      <c r="G474" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H474">
+        <v>228</v>
+      </c>
       <c r="I474" t="s">
         <v>50</v>
+      </c>
+      <c r="J474">
+        <v>2001</v>
       </c>
       <c r="K474">
         <v>1</v>
@@ -23000,6 +23531,15 @@
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1456</v>
+      </c>
       <c r="D475" t="s">
         <v>838</v>
       </c>
@@ -23009,8 +23549,17 @@
       <c r="F475">
         <v>1</v>
       </c>
+      <c r="G475" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H475">
+        <v>317</v>
+      </c>
       <c r="I475" t="s">
         <v>50</v>
+      </c>
+      <c r="J475">
+        <v>2001</v>
       </c>
       <c r="K475">
         <v>1</v>
@@ -23023,6 +23572,15 @@
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1460</v>
+      </c>
       <c r="D476" t="s">
         <v>838</v>
       </c>
@@ -23032,8 +23590,17 @@
       <c r="F476">
         <v>1</v>
       </c>
+      <c r="G476" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H476">
+        <v>189</v>
+      </c>
       <c r="I476" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="J476">
+        <v>2003</v>
       </c>
       <c r="K476">
         <v>1</v>
@@ -23046,6 +23613,15 @@
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1460</v>
+      </c>
       <c r="D477" t="s">
         <v>838</v>
       </c>
@@ -23055,8 +23631,17 @@
       <c r="F477">
         <v>1</v>
       </c>
+      <c r="G477" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H477">
+        <v>189</v>
+      </c>
       <c r="I477" t="s">
         <v>50</v>
+      </c>
+      <c r="J477">
+        <v>2003</v>
       </c>
       <c r="K477">
         <v>1</v>
@@ -23069,6 +23654,15 @@
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1465</v>
+      </c>
       <c r="D478" t="s">
         <v>838</v>
       </c>
@@ -23078,8 +23672,17 @@
       <c r="F478">
         <v>1</v>
       </c>
+      <c r="G478" t="s">
+        <v>292</v>
+      </c>
+      <c r="H478">
+        <v>486</v>
+      </c>
       <c r="I478" t="s">
         <v>50</v>
+      </c>
+      <c r="J478">
+        <v>1989</v>
       </c>
       <c r="K478">
         <v>1</v>
@@ -23088,10 +23691,19 @@
         <v>839</v>
       </c>
       <c r="M478" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1468</v>
+      </c>
       <c r="D479" t="s">
         <v>838</v>
       </c>
@@ -23101,8 +23713,17 @@
       <c r="F479">
         <v>1</v>
       </c>
+      <c r="G479" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H479">
+        <v>268</v>
+      </c>
       <c r="I479" t="s">
         <v>50</v>
+      </c>
+      <c r="J479">
+        <v>2004</v>
       </c>
       <c r="K479">
         <v>1</v>
@@ -23115,6 +23736,15 @@
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1472</v>
+      </c>
       <c r="D480" t="s">
         <v>838</v>
       </c>
@@ -23124,8 +23754,17 @@
       <c r="F480">
         <v>1</v>
       </c>
+      <c r="G480" t="s">
+        <v>234</v>
+      </c>
+      <c r="H480">
+        <v>833</v>
+      </c>
       <c r="I480" t="s">
         <v>50</v>
+      </c>
+      <c r="J480">
+        <v>2006</v>
       </c>
       <c r="K480">
         <v>1</v>
@@ -23137,7 +23776,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="481" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1475</v>
+      </c>
       <c r="D481" t="s">
         <v>838</v>
       </c>
@@ -23147,8 +23795,17 @@
       <c r="F481">
         <v>1</v>
       </c>
+      <c r="G481" t="s">
+        <v>65</v>
+      </c>
+      <c r="H481">
+        <v>343</v>
+      </c>
       <c r="I481" t="s">
         <v>50</v>
+      </c>
+      <c r="J481">
+        <v>2013</v>
       </c>
       <c r="K481">
         <v>1</v>
@@ -23160,7 +23817,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="482" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1477</v>
+      </c>
       <c r="D482" t="s">
         <v>838</v>
       </c>
@@ -23170,8 +23836,17 @@
       <c r="F482">
         <v>1</v>
       </c>
+      <c r="G482" t="s">
+        <v>879</v>
+      </c>
+      <c r="H482">
+        <v>73</v>
+      </c>
       <c r="I482" t="s">
         <v>50</v>
+      </c>
+      <c r="J482">
+        <v>2003</v>
       </c>
       <c r="K482">
         <v>1</v>
@@ -23180,10 +23855,19 @@
         <v>839</v>
       </c>
       <c r="M482" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="483" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1480</v>
+      </c>
       <c r="D483" t="s">
         <v>838</v>
       </c>
@@ -23193,8 +23877,17 @@
       <c r="F483">
         <v>1</v>
       </c>
+      <c r="G483" t="s">
+        <v>879</v>
+      </c>
+      <c r="H483">
+        <v>103</v>
+      </c>
       <c r="I483" t="s">
         <v>50</v>
+      </c>
+      <c r="J483">
+        <v>2004</v>
       </c>
       <c r="K483">
         <v>1</v>
@@ -23203,10 +23896,19 @@
         <v>839</v>
       </c>
       <c r="M483" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="484" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1483</v>
+      </c>
       <c r="D484" t="s">
         <v>838</v>
       </c>
@@ -23216,8 +23918,17 @@
       <c r="F484">
         <v>1</v>
       </c>
+      <c r="G484" t="s">
+        <v>879</v>
+      </c>
+      <c r="H484">
+        <v>95</v>
+      </c>
       <c r="I484" t="s">
         <v>50</v>
+      </c>
+      <c r="J484">
+        <v>2002</v>
       </c>
       <c r="K484">
         <v>1</v>
@@ -23226,10 +23937,19 @@
         <v>839</v>
       </c>
       <c r="M484" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="485" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1486</v>
+      </c>
       <c r="D485" t="s">
         <v>838</v>
       </c>
@@ -23239,8 +23959,17 @@
       <c r="F485">
         <v>1</v>
       </c>
+      <c r="G485" t="s">
+        <v>879</v>
+      </c>
+      <c r="H485">
+        <v>98</v>
+      </c>
       <c r="I485" t="s">
         <v>50</v>
+      </c>
+      <c r="J485">
+        <v>2002</v>
       </c>
       <c r="K485">
         <v>1</v>
@@ -23249,10 +23978,19 @@
         <v>839</v>
       </c>
       <c r="M485" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="486" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1489</v>
+      </c>
       <c r="D486" t="s">
         <v>838</v>
       </c>
@@ -23262,8 +24000,17 @@
       <c r="F486">
         <v>1</v>
       </c>
+      <c r="G486" t="s">
+        <v>879</v>
+      </c>
+      <c r="H486">
+        <v>117</v>
+      </c>
       <c r="I486" t="s">
         <v>50</v>
+      </c>
+      <c r="J486">
+        <v>2002</v>
       </c>
       <c r="K486">
         <v>1</v>
@@ -23272,10 +24019,19 @@
         <v>839</v>
       </c>
       <c r="M486" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="487" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1492</v>
+      </c>
       <c r="D487" t="s">
         <v>838</v>
       </c>
@@ -23285,8 +24041,17 @@
       <c r="F487">
         <v>1</v>
       </c>
+      <c r="G487" t="s">
+        <v>879</v>
+      </c>
+      <c r="H487">
+        <v>59</v>
+      </c>
       <c r="I487" t="s">
         <v>50</v>
+      </c>
+      <c r="J487">
+        <v>2002</v>
       </c>
       <c r="K487">
         <v>1</v>
@@ -23295,10 +24060,19 @@
         <v>839</v>
       </c>
       <c r="M487" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="488" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1495</v>
+      </c>
       <c r="D488" t="s">
         <v>838</v>
       </c>
@@ -23308,8 +24082,17 @@
       <c r="F488">
         <v>1</v>
       </c>
+      <c r="G488" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H488">
+        <v>101</v>
+      </c>
       <c r="I488" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="J488">
+        <v>2003</v>
       </c>
       <c r="K488">
         <v>1</v>
@@ -23318,10 +24101,19 @@
         <v>839</v>
       </c>
       <c r="M488" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="489" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1498</v>
+      </c>
       <c r="D489" t="s">
         <v>838</v>
       </c>
@@ -23331,8 +24123,17 @@
       <c r="F489">
         <v>1</v>
       </c>
+      <c r="G489" t="s">
+        <v>927</v>
+      </c>
+      <c r="H489">
+        <v>118</v>
+      </c>
       <c r="I489" t="s">
         <v>50</v>
+      </c>
+      <c r="J489">
+        <v>2002</v>
       </c>
       <c r="K489">
         <v>1</v>
@@ -23344,7 +24145,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="490" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1501</v>
+      </c>
       <c r="D490" t="s">
         <v>838</v>
       </c>
@@ -23354,8 +24164,17 @@
       <c r="F490">
         <v>1</v>
       </c>
+      <c r="G490" t="s">
+        <v>208</v>
+      </c>
+      <c r="H490">
+        <v>281</v>
+      </c>
       <c r="I490" t="s">
         <v>50</v>
+      </c>
+      <c r="J490">
+        <v>2002</v>
       </c>
       <c r="K490">
         <v>1</v>
@@ -23367,7 +24186,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="491" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1504</v>
+      </c>
       <c r="D491" t="s">
         <v>838</v>
       </c>
@@ -23377,8 +24205,17 @@
       <c r="F491">
         <v>1</v>
       </c>
+      <c r="G491" t="s">
+        <v>208</v>
+      </c>
+      <c r="H491">
+        <v>448</v>
+      </c>
       <c r="I491" t="s">
         <v>50</v>
+      </c>
+      <c r="J491">
+        <v>2002</v>
       </c>
       <c r="K491">
         <v>1</v>
@@ -23390,7 +24227,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="492" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1507</v>
+      </c>
       <c r="D492" t="s">
         <v>838</v>
       </c>
@@ -23400,8 +24246,17 @@
       <c r="F492">
         <v>1</v>
       </c>
+      <c r="G492" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H492">
+        <v>356</v>
+      </c>
       <c r="I492" t="s">
         <v>50</v>
+      </c>
+      <c r="J492">
+        <v>2004</v>
       </c>
       <c r="K492">
         <v>1</v>
@@ -23413,7 +24268,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="493" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1511</v>
+      </c>
       <c r="D493" t="s">
         <v>838</v>
       </c>
@@ -23423,8 +24287,17 @@
       <c r="F493">
         <v>1</v>
       </c>
+      <c r="G493" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H493">
+        <v>119</v>
+      </c>
       <c r="I493" t="s">
         <v>50</v>
+      </c>
+      <c r="J493">
+        <v>2001</v>
       </c>
       <c r="K493">
         <v>1</v>
@@ -23436,7 +24309,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="494" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1515</v>
+      </c>
       <c r="D494" t="s">
         <v>838</v>
       </c>
@@ -23446,8 +24328,17 @@
       <c r="F494">
         <v>1</v>
       </c>
+      <c r="G494" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H494">
+        <v>203</v>
+      </c>
       <c r="I494" t="s">
         <v>50</v>
+      </c>
+      <c r="J494">
+        <v>1971</v>
       </c>
       <c r="K494">
         <v>1</v>
@@ -23459,7 +24350,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="495" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1519</v>
+      </c>
       <c r="D495" t="s">
         <v>838</v>
       </c>
@@ -23469,8 +24369,17 @@
       <c r="F495">
         <v>1</v>
       </c>
+      <c r="G495" t="s">
+        <v>191</v>
+      </c>
+      <c r="H495">
+        <v>81</v>
+      </c>
       <c r="I495" t="s">
         <v>50</v>
+      </c>
+      <c r="J495">
+        <v>2008</v>
       </c>
       <c r="K495">
         <v>1</v>
@@ -23482,7 +24391,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="496" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1522</v>
+      </c>
       <c r="D496" t="s">
         <v>838</v>
       </c>
@@ -23492,8 +24410,17 @@
       <c r="F496">
         <v>1</v>
       </c>
+      <c r="G496" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H496">
+        <v>136</v>
+      </c>
       <c r="I496" t="s">
         <v>50</v>
+      </c>
+      <c r="J496">
+        <v>2003</v>
       </c>
       <c r="K496">
         <v>1</v>
@@ -23505,7 +24432,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="497" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1525</v>
+      </c>
       <c r="D497" t="s">
         <v>838</v>
       </c>
@@ -23515,8 +24451,17 @@
       <c r="F497">
         <v>1</v>
       </c>
+      <c r="G497" t="s">
+        <v>330</v>
+      </c>
+      <c r="H497">
+        <v>62</v>
+      </c>
       <c r="I497" t="s">
         <v>50</v>
+      </c>
+      <c r="J497">
+        <v>2010</v>
       </c>
       <c r="K497">
         <v>1</v>
@@ -23528,7 +24473,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="498" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1528</v>
+      </c>
       <c r="D498" t="s">
         <v>838</v>
       </c>
@@ -23538,8 +24492,17 @@
       <c r="F498">
         <v>1</v>
       </c>
+      <c r="G498" t="s">
+        <v>330</v>
+      </c>
+      <c r="H498">
+        <v>61</v>
+      </c>
       <c r="I498" t="s">
         <v>50</v>
+      </c>
+      <c r="J498">
+        <v>2009</v>
       </c>
       <c r="K498">
         <v>1</v>
@@ -23551,7 +24514,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="499" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1531</v>
+      </c>
       <c r="D499" t="s">
         <v>838</v>
       </c>
@@ -23561,8 +24533,17 @@
       <c r="F499">
         <v>1</v>
       </c>
+      <c r="G499" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H499">
+        <v>183</v>
+      </c>
       <c r="I499" t="s">
         <v>50</v>
+      </c>
+      <c r="J499">
+        <v>2011</v>
       </c>
       <c r="K499">
         <v>1</v>
@@ -23574,7 +24555,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="500" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1535</v>
+      </c>
       <c r="D500" t="s">
         <v>838</v>
       </c>
@@ -23584,8 +24574,17 @@
       <c r="F500">
         <v>1</v>
       </c>
+      <c r="G500" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H500">
+        <v>196</v>
+      </c>
       <c r="I500" t="s">
         <v>50</v>
+      </c>
+      <c r="J500">
+        <v>2012</v>
       </c>
       <c r="K500">
         <v>1</v>
@@ -23597,7 +24596,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="501" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1538</v>
+      </c>
       <c r="D501" t="s">
         <v>838</v>
       </c>
@@ -23607,8 +24615,17 @@
       <c r="F501">
         <v>1</v>
       </c>
+      <c r="G501" t="s">
+        <v>965</v>
+      </c>
+      <c r="H501">
+        <v>157</v>
+      </c>
       <c r="I501" t="s">
         <v>50</v>
+      </c>
+      <c r="J501">
+        <v>1997</v>
       </c>
       <c r="K501">
         <v>1</v>
@@ -23620,7 +24637,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="502" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1541</v>
+      </c>
       <c r="D502" t="s">
         <v>838</v>
       </c>
@@ -23630,8 +24656,17 @@
       <c r="F502">
         <v>1</v>
       </c>
+      <c r="G502" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H502">
+        <v>119</v>
+      </c>
       <c r="I502" t="s">
         <v>50</v>
+      </c>
+      <c r="J502">
+        <v>2001</v>
       </c>
       <c r="K502">
         <v>1</v>
@@ -23643,7 +24678,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="503" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1545</v>
+      </c>
       <c r="D503" t="s">
         <v>838</v>
       </c>
@@ -23653,8 +24697,17 @@
       <c r="F503">
         <v>1</v>
       </c>
+      <c r="G503" t="s">
+        <v>965</v>
+      </c>
+      <c r="H503">
+        <v>161</v>
+      </c>
       <c r="I503" t="s">
         <v>50</v>
+      </c>
+      <c r="J503">
+        <v>2000</v>
       </c>
       <c r="K503">
         <v>1</v>
@@ -23666,7 +24719,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="504" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1547</v>
+      </c>
       <c r="D504" t="s">
         <v>838</v>
       </c>
@@ -23676,8 +24738,17 @@
       <c r="F504">
         <v>1</v>
       </c>
+      <c r="G504" t="s">
+        <v>965</v>
+      </c>
+      <c r="H504">
+        <v>147</v>
+      </c>
       <c r="I504" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="J504">
+        <v>2013</v>
       </c>
       <c r="K504">
         <v>1</v>
@@ -23689,7 +24760,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="505" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1550</v>
+      </c>
       <c r="D505" t="s">
         <v>838</v>
       </c>
@@ -23699,8 +24779,17 @@
       <c r="F505">
         <v>1</v>
       </c>
+      <c r="G505" t="s">
+        <v>222</v>
+      </c>
+      <c r="H505">
+        <v>252</v>
+      </c>
       <c r="I505" t="s">
         <v>50</v>
+      </c>
+      <c r="J505">
+        <v>1995</v>
       </c>
       <c r="K505">
         <v>1</v>
@@ -23712,7 +24801,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="506" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1553</v>
+      </c>
       <c r="D506" t="s">
         <v>838</v>
       </c>
@@ -23722,8 +24820,17 @@
       <c r="F506">
         <v>1</v>
       </c>
+      <c r="G506" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H506">
+        <v>166</v>
+      </c>
       <c r="I506" t="s">
         <v>50</v>
+      </c>
+      <c r="J506">
+        <v>2004</v>
       </c>
       <c r="K506">
         <v>1</v>
@@ -23732,10 +24839,19 @@
         <v>839</v>
       </c>
       <c r="M506" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="507" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1556</v>
+      </c>
       <c r="D507" t="s">
         <v>838</v>
       </c>
@@ -23745,8 +24861,17 @@
       <c r="F507">
         <v>1</v>
       </c>
+      <c r="G507" t="s">
+        <v>234</v>
+      </c>
+      <c r="H507">
+        <v>296</v>
+      </c>
       <c r="I507" t="s">
-        <v>50</v>
+        <v>1558</v>
+      </c>
+      <c r="J507">
+        <v>2004</v>
       </c>
       <c r="K507">
         <v>1</v>
@@ -23758,7 +24883,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="508" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1556</v>
+      </c>
       <c r="D508" t="s">
         <v>838</v>
       </c>
@@ -23768,8 +24902,17 @@
       <c r="F508">
         <v>1</v>
       </c>
+      <c r="G508" t="s">
+        <v>234</v>
+      </c>
+      <c r="H508">
+        <v>290</v>
+      </c>
       <c r="I508" t="s">
         <v>50</v>
+      </c>
+      <c r="J508">
+        <v>2012</v>
       </c>
       <c r="K508">
         <v>1</v>
@@ -23781,7 +24924,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="509" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1562</v>
+      </c>
       <c r="D509" t="s">
         <v>838</v>
       </c>
@@ -23791,8 +24943,17 @@
       <c r="F509">
         <v>1</v>
       </c>
+      <c r="G509" t="s">
+        <v>234</v>
+      </c>
+      <c r="H509">
+        <v>720</v>
+      </c>
       <c r="I509" t="s">
         <v>50</v>
+      </c>
+      <c r="J509">
+        <v>2004</v>
       </c>
       <c r="K509">
         <v>1</v>
@@ -23804,15 +24965,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="510" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C510" t="s">
+        <v>189</v>
+      </c>
       <c r="D510" t="s">
         <v>838</v>
       </c>
       <c r="E510" t="s">
         <v>334</v>
       </c>
+      <c r="F510">
+        <v>1</v>
+      </c>
+      <c r="G510" t="s">
+        <v>208</v>
+      </c>
+      <c r="H510">
+        <v>151</v>
+      </c>
       <c r="I510" t="s">
         <v>50</v>
+      </c>
+      <c r="J510">
+        <v>2003</v>
       </c>
       <c r="K510">
         <v>1</v>
@@ -23824,15 +25006,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="511" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1434</v>
+      </c>
       <c r="D511" t="s">
         <v>838</v>
       </c>
       <c r="E511" t="s">
         <v>334</v>
       </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H511">
+        <v>86</v>
+      </c>
       <c r="I511" t="s">
         <v>50</v>
+      </c>
+      <c r="J511">
+        <v>2001</v>
       </c>
       <c r="K511">
         <v>1</v>
@@ -23841,18 +25044,39 @@
         <v>839</v>
       </c>
       <c r="M511" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="512" spans="4:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1571</v>
+      </c>
       <c r="D512" t="s">
         <v>838</v>
       </c>
       <c r="E512" t="s">
         <v>334</v>
       </c>
+      <c r="F512">
+        <v>1</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H512">
+        <v>119</v>
+      </c>
       <c r="I512" t="s">
         <v>50</v>
+      </c>
+      <c r="J512">
+        <v>2002</v>
       </c>
       <c r="K512">
         <v>1</v>
@@ -23864,15 +25088,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="513" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1573</v>
+      </c>
       <c r="D513" t="s">
         <v>838</v>
       </c>
       <c r="E513" t="s">
         <v>334</v>
       </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+      <c r="G513" t="s">
+        <v>222</v>
+      </c>
+      <c r="H513">
+        <v>146</v>
+      </c>
       <c r="I513" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="J513">
+        <v>1993</v>
       </c>
       <c r="K513">
         <v>1</v>
@@ -23884,15 +25129,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="514" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1576</v>
+      </c>
       <c r="D514" t="s">
         <v>838</v>
       </c>
       <c r="E514" t="s">
         <v>334</v>
       </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514" t="s">
+        <v>258</v>
+      </c>
+      <c r="H514">
+        <v>354</v>
+      </c>
       <c r="I514" t="s">
         <v>50</v>
+      </c>
+      <c r="J514">
+        <v>2010</v>
       </c>
       <c r="K514">
         <v>1</v>
@@ -23904,15 +25170,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="515" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1578</v>
+      </c>
       <c r="D515" t="s">
         <v>838</v>
       </c>
       <c r="E515" t="s">
         <v>334</v>
       </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H515">
+        <v>365</v>
+      </c>
       <c r="I515" t="s">
         <v>50</v>
+      </c>
+      <c r="J515">
+        <v>1998</v>
       </c>
       <c r="K515">
         <v>1</v>
@@ -23924,13 +25211,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="516" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D516" t="s">
         <v>838</v>
       </c>
       <c r="E516" t="s">
         <v>334</v>
       </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
       <c r="I516" t="s">
         <v>50</v>
       </c>
@@ -23944,13 +25234,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="517" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D517" t="s">
         <v>838</v>
       </c>
       <c r="E517" t="s">
         <v>334</v>
       </c>
+      <c r="F517">
+        <v>1</v>
+      </c>
       <c r="I517" t="s">
         <v>50</v>
       </c>
@@ -23964,13 +25257,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="518" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D518" t="s">
         <v>838</v>
       </c>
       <c r="E518" t="s">
         <v>334</v>
       </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
       <c r="I518" t="s">
         <v>50</v>
       </c>
@@ -23984,13 +25280,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="519" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D519" t="s">
         <v>838</v>
       </c>
       <c r="E519" t="s">
         <v>334</v>
       </c>
+      <c r="F519">
+        <v>1</v>
+      </c>
       <c r="I519" t="s">
         <v>50</v>
       </c>
@@ -24004,13 +25303,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="520" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D520" t="s">
         <v>838</v>
       </c>
       <c r="E520" t="s">
         <v>334</v>
       </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
       <c r="I520" t="s">
         <v>50</v>
       </c>
@@ -24024,13 +25326,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="521" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D521" t="s">
         <v>838</v>
       </c>
       <c r="E521" t="s">
         <v>334</v>
       </c>
+      <c r="F521">
+        <v>1</v>
+      </c>
       <c r="I521" t="s">
         <v>50</v>
       </c>
@@ -24044,7 +25349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="522" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D522" t="s">
         <v>838</v>
       </c>
@@ -24064,7 +25369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="523" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D523" t="s">
         <v>838</v>
       </c>
@@ -24084,7 +25389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="524" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D524" t="s">
         <v>838</v>
       </c>
@@ -24104,7 +25409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="525" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D525" t="s">
         <v>838</v>
       </c>
@@ -24124,7 +25429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="526" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D526" t="s">
         <v>838</v>
       </c>
@@ -24144,7 +25449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="527" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D527" t="s">
         <v>838</v>
       </c>
@@ -24164,7 +25469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="528" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D528" t="s">
         <v>838</v>
       </c>
